--- a/Internproject/src/main/java/file3.xlsx
+++ b/Internproject/src/main/java/file3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="680">
   <si>
     <t>SHRI G.S. INSTITUTE OF TECHNOLOGY &amp; SCIENCE, INDORE</t>
   </si>
@@ -2052,6 +2052,12 @@
   </si>
   <si>
     <t>Manisha |Mishra</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Head</t>
   </si>
 </sst>
 </file>
@@ -2178,6 +2184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2185,9 +2194,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2498,37 +2504,37 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152:E153"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2545,16 +2551,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2584,7 +2590,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2599,7 +2605,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2614,7 +2620,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2622,14 +2628,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>679</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2644,7 +2650,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2652,14 +2658,14 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>678</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2667,14 +2673,14 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>678</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2682,14 +2688,14 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>678</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2704,7 +2710,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2719,7 +2725,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2734,7 +2740,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2749,7 +2755,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2764,7 +2770,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2779,7 +2785,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2794,16 +2800,16 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -2818,7 +2824,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -2833,7 +2839,7 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -2848,7 +2854,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -2863,7 +2869,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -2878,7 +2884,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2893,7 +2899,7 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -2908,7 +2914,7 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -2923,16 +2929,16 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -2947,7 +2953,7 @@
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -2962,7 +2968,7 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>27</v>
       </c>
@@ -2977,7 +2983,7 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>28</v>
       </c>
@@ -2992,7 +2998,7 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>29</v>
       </c>
@@ -3007,7 +3013,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -3022,7 +3028,7 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>31</v>
       </c>
@@ -3037,7 +3043,7 @@
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>32</v>
       </c>
@@ -3052,7 +3058,7 @@
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>33</v>
       </c>
@@ -3067,7 +3073,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -3082,16 +3088,16 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>35</v>
       </c>
@@ -3106,7 +3112,7 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>36</v>
       </c>
@@ -3121,16 +3127,16 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -3145,7 +3151,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>38</v>
       </c>
@@ -3160,7 +3166,7 @@
       </c>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>39</v>
       </c>
@@ -3175,7 +3181,7 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>40</v>
       </c>
@@ -3190,7 +3196,7 @@
       </c>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>41</v>
       </c>
@@ -3205,7 +3211,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>42</v>
       </c>
@@ -3220,7 +3226,7 @@
       </c>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>43</v>
       </c>
@@ -3235,7 +3241,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>44</v>
       </c>
@@ -3250,16 +3256,16 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -3274,7 +3280,7 @@
       </c>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -3289,7 +3295,7 @@
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -3304,7 +3310,7 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -3319,7 +3325,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>49</v>
       </c>
@@ -3334,7 +3340,7 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>50</v>
       </c>
@@ -3349,7 +3355,7 @@
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>51</v>
       </c>
@@ -3364,7 +3370,7 @@
       </c>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>52</v>
       </c>
@@ -3379,7 +3385,7 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>53</v>
       </c>
@@ -3394,7 +3400,7 @@
       </c>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>54</v>
       </c>
@@ -3409,7 +3415,7 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>55</v>
       </c>
@@ -3424,7 +3430,7 @@
       </c>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>56</v>
       </c>
@@ -3439,7 +3445,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>57</v>
       </c>
@@ -3454,7 +3460,7 @@
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>58</v>
       </c>
@@ -3469,16 +3475,16 @@
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>59</v>
       </c>
@@ -3493,7 +3499,7 @@
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>60</v>
       </c>
@@ -3508,7 +3514,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>61</v>
       </c>
@@ -3523,7 +3529,7 @@
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>62</v>
       </c>
@@ -3538,7 +3544,7 @@
       </c>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>63</v>
       </c>
@@ -3553,7 +3559,7 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>64</v>
       </c>
@@ -3568,7 +3574,7 @@
       </c>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>65</v>
       </c>
@@ -3583,7 +3589,7 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>66</v>
       </c>
@@ -3598,7 +3604,7 @@
       </c>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>67</v>
       </c>
@@ -3613,7 +3619,7 @@
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>68</v>
       </c>
@@ -3628,7 +3634,7 @@
       </c>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>69</v>
       </c>
@@ -3643,7 +3649,7 @@
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>70</v>
       </c>
@@ -3658,7 +3664,7 @@
       </c>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>71</v>
       </c>
@@ -3673,7 +3679,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>72</v>
       </c>
@@ -3688,7 +3694,7 @@
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>73</v>
       </c>
@@ -3703,7 +3709,7 @@
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>74</v>
       </c>
@@ -3718,7 +3724,7 @@
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>75</v>
       </c>
@@ -3733,7 +3739,7 @@
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>76</v>
       </c>
@@ -3748,16 +3754,16 @@
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>77</v>
       </c>
@@ -3772,7 +3778,7 @@
       </c>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>78</v>
       </c>
@@ -3787,7 +3793,7 @@
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>79</v>
       </c>
@@ -3802,7 +3808,7 @@
       </c>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>80</v>
       </c>
@@ -3817,7 +3823,7 @@
       </c>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>81</v>
       </c>
@@ -3832,7 +3838,7 @@
       </c>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>82</v>
       </c>
@@ -3847,7 +3853,7 @@
       </c>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>83</v>
       </c>
@@ -3862,16 +3868,16 @@
       </c>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>84</v>
       </c>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>85</v>
       </c>
@@ -3901,7 +3907,7 @@
       </c>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>86</v>
       </c>
@@ -3916,7 +3922,7 @@
       </c>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>87</v>
       </c>
@@ -3931,7 +3937,7 @@
       </c>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>88</v>
       </c>
@@ -3946,7 +3952,7 @@
       </c>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>89</v>
       </c>
@@ -3961,7 +3967,7 @@
       </c>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>90</v>
       </c>
@@ -3976,7 +3982,7 @@
       </c>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>91</v>
       </c>
@@ -3991,7 +3997,7 @@
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>92</v>
       </c>
@@ -4006,7 +4012,7 @@
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>93</v>
       </c>
@@ -4021,7 +4027,7 @@
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>94</v>
       </c>
@@ -4036,16 +4042,16 @@
       </c>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="16" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>95</v>
       </c>
@@ -4060,7 +4066,7 @@
       </c>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>96</v>
       </c>
@@ -4075,7 +4081,7 @@
       </c>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>97</v>
       </c>
@@ -4090,7 +4096,7 @@
       </c>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>98</v>
       </c>
@@ -4105,7 +4111,7 @@
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>99</v>
       </c>
@@ -4120,16 +4126,16 @@
       </c>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="16" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>100</v>
       </c>
@@ -4144,7 +4150,7 @@
       </c>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>101</v>
       </c>
@@ -4159,7 +4165,7 @@
       </c>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>102</v>
       </c>
@@ -4174,7 +4180,7 @@
       </c>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>103</v>
       </c>
@@ -4189,7 +4195,7 @@
       </c>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>104</v>
       </c>
@@ -4204,7 +4210,7 @@
       </c>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>105</v>
       </c>
@@ -4219,7 +4225,7 @@
       </c>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>106</v>
       </c>
@@ -4234,7 +4240,7 @@
       </c>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>107</v>
       </c>
@@ -4249,7 +4255,7 @@
       </c>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>108</v>
       </c>
@@ -4264,7 +4270,7 @@
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>109</v>
       </c>
@@ -4279,7 +4285,7 @@
       </c>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>110</v>
       </c>
@@ -4294,7 +4300,7 @@
       </c>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>111</v>
       </c>
@@ -4309,7 +4315,7 @@
       </c>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>112</v>
       </c>
@@ -4324,7 +4330,7 @@
       </c>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>113</v>
       </c>
@@ -4339,16 +4345,16 @@
       </c>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>114</v>
       </c>
@@ -4363,7 +4369,7 @@
       </c>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>115</v>
       </c>
@@ -4378,7 +4384,7 @@
       </c>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>116</v>
       </c>
@@ -4393,7 +4399,7 @@
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>117</v>
       </c>
@@ -4408,7 +4414,7 @@
       </c>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>118</v>
       </c>
@@ -4423,16 +4429,16 @@
       </c>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>119</v>
       </c>
@@ -4447,7 +4453,7 @@
       </c>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>120</v>
       </c>
@@ -4462,7 +4468,7 @@
       </c>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>121</v>
       </c>
@@ -4477,7 +4483,7 @@
       </c>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>122</v>
       </c>
@@ -4492,7 +4498,7 @@
       </c>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>123</v>
       </c>
@@ -4507,7 +4513,7 @@
       </c>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>124</v>
       </c>
@@ -4522,16 +4528,16 @@
       </c>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="16" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>125</v>
       </c>
@@ -4546,7 +4552,7 @@
       </c>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>126</v>
       </c>
@@ -4561,7 +4567,7 @@
       </c>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>127</v>
       </c>
@@ -4576,7 +4582,7 @@
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>128</v>
       </c>
@@ -4591,7 +4597,7 @@
       </c>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>129</v>
       </c>
@@ -4606,16 +4612,16 @@
       </c>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="16" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>130</v>
       </c>
@@ -4630,7 +4636,7 @@
       </c>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>131</v>
       </c>
@@ -4645,7 +4651,7 @@
       </c>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>132</v>
       </c>
@@ -4660,16 +4666,16 @@
       </c>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="16" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>133</v>
       </c>
@@ -4684,7 +4690,7 @@
       </c>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>134</v>
       </c>
@@ -4701,14 +4707,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A128:E128"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -4719,6 +4717,14 @@
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A128:E128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4732,2159 +4738,2033 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.7265625" style="11" customWidth="1"/>
-    <col min="6" max="222" width="9.1796875" style="11"/>
-    <col min="223" max="223" width="11.453125" style="11" customWidth="1"/>
-    <col min="224" max="224" width="10.453125" style="11" customWidth="1"/>
-    <col min="225" max="225" width="12.81640625" style="11" customWidth="1"/>
-    <col min="226" max="226" width="12.7265625" style="11" customWidth="1"/>
-    <col min="227" max="228" width="27.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" style="11" customWidth="1"/>
+    <col min="6" max="222" width="9.21875" style="11"/>
+    <col min="223" max="223" width="11.44140625" style="11" customWidth="1"/>
+    <col min="224" max="224" width="10.44140625" style="11" customWidth="1"/>
+    <col min="225" max="226" width="12.77734375" style="11" customWidth="1"/>
+    <col min="227" max="228" width="27.21875" style="11" customWidth="1"/>
     <col min="229" max="229" width="25" style="11" customWidth="1"/>
-    <col min="230" max="230" width="8.81640625" style="11" customWidth="1"/>
-    <col min="231" max="231" width="10.1796875" style="11" customWidth="1"/>
-    <col min="232" max="232" width="10.26953125" style="11" customWidth="1"/>
-    <col min="233" max="233" width="21.1796875" style="11" customWidth="1"/>
-    <col min="234" max="234" width="17.81640625" style="11" customWidth="1"/>
+    <col min="230" max="230" width="8.77734375" style="11" customWidth="1"/>
+    <col min="231" max="232" width="10.21875" style="11" customWidth="1"/>
+    <col min="233" max="233" width="21.21875" style="11" customWidth="1"/>
+    <col min="234" max="234" width="17.77734375" style="11" customWidth="1"/>
     <col min="235" max="235" width="13" style="11" customWidth="1"/>
-    <col min="236" max="236" width="17.7265625" style="11" customWidth="1"/>
-    <col min="237" max="237" width="14.54296875" style="11" customWidth="1"/>
+    <col min="236" max="236" width="17.77734375" style="11" customWidth="1"/>
+    <col min="237" max="237" width="14.5546875" style="11" customWidth="1"/>
     <col min="238" max="238" width="16" style="11" customWidth="1"/>
-    <col min="239" max="239" width="17.54296875" style="11" customWidth="1"/>
-    <col min="240" max="240" width="11.26953125" style="11" customWidth="1"/>
+    <col min="239" max="239" width="17.5546875" style="11" customWidth="1"/>
+    <col min="240" max="240" width="11.21875" style="11" customWidth="1"/>
     <col min="241" max="241" width="25" style="11" customWidth="1"/>
-    <col min="242" max="242" width="10.1796875" style="11" customWidth="1"/>
-    <col min="243" max="243" width="28.7265625" style="11" customWidth="1"/>
-    <col min="244" max="244" width="19.1796875" style="11" customWidth="1"/>
-    <col min="245" max="245" width="10.1796875" style="11" customWidth="1"/>
-    <col min="246" max="246" width="22.1796875" style="11" customWidth="1"/>
-    <col min="247" max="250" width="10.1796875" style="11" customWidth="1"/>
+    <col min="242" max="242" width="10.21875" style="11" customWidth="1"/>
+    <col min="243" max="243" width="28.77734375" style="11" customWidth="1"/>
+    <col min="244" max="244" width="19.21875" style="11" customWidth="1"/>
+    <col min="245" max="245" width="10.21875" style="11" customWidth="1"/>
+    <col min="246" max="246" width="22.21875" style="11" customWidth="1"/>
+    <col min="247" max="250" width="10.21875" style="11" customWidth="1"/>
     <col min="251" max="251" width="9" style="11" customWidth="1"/>
-    <col min="252" max="253" width="10.1796875" style="11" customWidth="1"/>
+    <col min="252" max="253" width="10.21875" style="11" customWidth="1"/>
     <col min="254" max="254" width="9" style="11" customWidth="1"/>
-    <col min="255" max="255" width="10.1796875" style="11" customWidth="1"/>
-    <col min="256" max="256" width="16.26953125" style="11" customWidth="1"/>
-    <col min="257" max="257" width="20.54296875" style="11" customWidth="1"/>
-    <col min="258" max="258" width="14.54296875" style="11" customWidth="1"/>
-    <col min="259" max="259" width="9.1796875" style="11"/>
-    <col min="260" max="260" width="12.54296875" style="11" customWidth="1"/>
-    <col min="261" max="478" width="9.1796875" style="11"/>
-    <col min="479" max="479" width="11.453125" style="11" customWidth="1"/>
-    <col min="480" max="480" width="10.453125" style="11" customWidth="1"/>
-    <col min="481" max="481" width="12.81640625" style="11" customWidth="1"/>
-    <col min="482" max="482" width="12.7265625" style="11" customWidth="1"/>
-    <col min="483" max="484" width="27.26953125" style="11" customWidth="1"/>
+    <col min="255" max="255" width="10.21875" style="11" customWidth="1"/>
+    <col min="256" max="256" width="16.21875" style="11" customWidth="1"/>
+    <col min="257" max="257" width="20.5546875" style="11" customWidth="1"/>
+    <col min="258" max="258" width="14.5546875" style="11" customWidth="1"/>
+    <col min="259" max="259" width="9.21875" style="11"/>
+    <col min="260" max="260" width="12.5546875" style="11" customWidth="1"/>
+    <col min="261" max="478" width="9.21875" style="11"/>
+    <col min="479" max="479" width="11.44140625" style="11" customWidth="1"/>
+    <col min="480" max="480" width="10.44140625" style="11" customWidth="1"/>
+    <col min="481" max="482" width="12.77734375" style="11" customWidth="1"/>
+    <col min="483" max="484" width="27.21875" style="11" customWidth="1"/>
     <col min="485" max="485" width="25" style="11" customWidth="1"/>
-    <col min="486" max="486" width="8.81640625" style="11" customWidth="1"/>
-    <col min="487" max="487" width="10.1796875" style="11" customWidth="1"/>
-    <col min="488" max="488" width="10.26953125" style="11" customWidth="1"/>
-    <col min="489" max="489" width="21.1796875" style="11" customWidth="1"/>
-    <col min="490" max="490" width="17.81640625" style="11" customWidth="1"/>
+    <col min="486" max="486" width="8.77734375" style="11" customWidth="1"/>
+    <col min="487" max="488" width="10.21875" style="11" customWidth="1"/>
+    <col min="489" max="489" width="21.21875" style="11" customWidth="1"/>
+    <col min="490" max="490" width="17.77734375" style="11" customWidth="1"/>
     <col min="491" max="491" width="13" style="11" customWidth="1"/>
-    <col min="492" max="492" width="17.7265625" style="11" customWidth="1"/>
-    <col min="493" max="493" width="14.54296875" style="11" customWidth="1"/>
+    <col min="492" max="492" width="17.77734375" style="11" customWidth="1"/>
+    <col min="493" max="493" width="14.5546875" style="11" customWidth="1"/>
     <col min="494" max="494" width="16" style="11" customWidth="1"/>
-    <col min="495" max="495" width="17.54296875" style="11" customWidth="1"/>
-    <col min="496" max="496" width="11.26953125" style="11" customWidth="1"/>
+    <col min="495" max="495" width="17.5546875" style="11" customWidth="1"/>
+    <col min="496" max="496" width="11.21875" style="11" customWidth="1"/>
     <col min="497" max="497" width="25" style="11" customWidth="1"/>
-    <col min="498" max="498" width="10.1796875" style="11" customWidth="1"/>
-    <col min="499" max="499" width="28.7265625" style="11" customWidth="1"/>
-    <col min="500" max="500" width="19.1796875" style="11" customWidth="1"/>
-    <col min="501" max="501" width="10.1796875" style="11" customWidth="1"/>
-    <col min="502" max="502" width="22.1796875" style="11" customWidth="1"/>
-    <col min="503" max="506" width="10.1796875" style="11" customWidth="1"/>
+    <col min="498" max="498" width="10.21875" style="11" customWidth="1"/>
+    <col min="499" max="499" width="28.77734375" style="11" customWidth="1"/>
+    <col min="500" max="500" width="19.21875" style="11" customWidth="1"/>
+    <col min="501" max="501" width="10.21875" style="11" customWidth="1"/>
+    <col min="502" max="502" width="22.21875" style="11" customWidth="1"/>
+    <col min="503" max="506" width="10.21875" style="11" customWidth="1"/>
     <col min="507" max="507" width="9" style="11" customWidth="1"/>
-    <col min="508" max="509" width="10.1796875" style="11" customWidth="1"/>
+    <col min="508" max="509" width="10.21875" style="11" customWidth="1"/>
     <col min="510" max="510" width="9" style="11" customWidth="1"/>
-    <col min="511" max="511" width="10.1796875" style="11" customWidth="1"/>
-    <col min="512" max="512" width="16.26953125" style="11" customWidth="1"/>
-    <col min="513" max="513" width="20.54296875" style="11" customWidth="1"/>
-    <col min="514" max="514" width="14.54296875" style="11" customWidth="1"/>
-    <col min="515" max="515" width="9.1796875" style="11"/>
-    <col min="516" max="516" width="12.54296875" style="11" customWidth="1"/>
-    <col min="517" max="734" width="9.1796875" style="11"/>
-    <col min="735" max="735" width="11.453125" style="11" customWidth="1"/>
-    <col min="736" max="736" width="10.453125" style="11" customWidth="1"/>
-    <col min="737" max="737" width="12.81640625" style="11" customWidth="1"/>
-    <col min="738" max="738" width="12.7265625" style="11" customWidth="1"/>
-    <col min="739" max="740" width="27.26953125" style="11" customWidth="1"/>
+    <col min="511" max="511" width="10.21875" style="11" customWidth="1"/>
+    <col min="512" max="512" width="16.21875" style="11" customWidth="1"/>
+    <col min="513" max="513" width="20.5546875" style="11" customWidth="1"/>
+    <col min="514" max="514" width="14.5546875" style="11" customWidth="1"/>
+    <col min="515" max="515" width="9.21875" style="11"/>
+    <col min="516" max="516" width="12.5546875" style="11" customWidth="1"/>
+    <col min="517" max="734" width="9.21875" style="11"/>
+    <col min="735" max="735" width="11.44140625" style="11" customWidth="1"/>
+    <col min="736" max="736" width="10.44140625" style="11" customWidth="1"/>
+    <col min="737" max="738" width="12.77734375" style="11" customWidth="1"/>
+    <col min="739" max="740" width="27.21875" style="11" customWidth="1"/>
     <col min="741" max="741" width="25" style="11" customWidth="1"/>
-    <col min="742" max="742" width="8.81640625" style="11" customWidth="1"/>
-    <col min="743" max="743" width="10.1796875" style="11" customWidth="1"/>
-    <col min="744" max="744" width="10.26953125" style="11" customWidth="1"/>
-    <col min="745" max="745" width="21.1796875" style="11" customWidth="1"/>
-    <col min="746" max="746" width="17.81640625" style="11" customWidth="1"/>
+    <col min="742" max="742" width="8.77734375" style="11" customWidth="1"/>
+    <col min="743" max="744" width="10.21875" style="11" customWidth="1"/>
+    <col min="745" max="745" width="21.21875" style="11" customWidth="1"/>
+    <col min="746" max="746" width="17.77734375" style="11" customWidth="1"/>
     <col min="747" max="747" width="13" style="11" customWidth="1"/>
-    <col min="748" max="748" width="17.7265625" style="11" customWidth="1"/>
-    <col min="749" max="749" width="14.54296875" style="11" customWidth="1"/>
+    <col min="748" max="748" width="17.77734375" style="11" customWidth="1"/>
+    <col min="749" max="749" width="14.5546875" style="11" customWidth="1"/>
     <col min="750" max="750" width="16" style="11" customWidth="1"/>
-    <col min="751" max="751" width="17.54296875" style="11" customWidth="1"/>
-    <col min="752" max="752" width="11.26953125" style="11" customWidth="1"/>
+    <col min="751" max="751" width="17.5546875" style="11" customWidth="1"/>
+    <col min="752" max="752" width="11.21875" style="11" customWidth="1"/>
     <col min="753" max="753" width="25" style="11" customWidth="1"/>
-    <col min="754" max="754" width="10.1796875" style="11" customWidth="1"/>
-    <col min="755" max="755" width="28.7265625" style="11" customWidth="1"/>
-    <col min="756" max="756" width="19.1796875" style="11" customWidth="1"/>
-    <col min="757" max="757" width="10.1796875" style="11" customWidth="1"/>
-    <col min="758" max="758" width="22.1796875" style="11" customWidth="1"/>
-    <col min="759" max="762" width="10.1796875" style="11" customWidth="1"/>
+    <col min="754" max="754" width="10.21875" style="11" customWidth="1"/>
+    <col min="755" max="755" width="28.77734375" style="11" customWidth="1"/>
+    <col min="756" max="756" width="19.21875" style="11" customWidth="1"/>
+    <col min="757" max="757" width="10.21875" style="11" customWidth="1"/>
+    <col min="758" max="758" width="22.21875" style="11" customWidth="1"/>
+    <col min="759" max="762" width="10.21875" style="11" customWidth="1"/>
     <col min="763" max="763" width="9" style="11" customWidth="1"/>
-    <col min="764" max="765" width="10.1796875" style="11" customWidth="1"/>
+    <col min="764" max="765" width="10.21875" style="11" customWidth="1"/>
     <col min="766" max="766" width="9" style="11" customWidth="1"/>
-    <col min="767" max="767" width="10.1796875" style="11" customWidth="1"/>
-    <col min="768" max="768" width="16.26953125" style="11" customWidth="1"/>
-    <col min="769" max="769" width="20.54296875" style="11" customWidth="1"/>
-    <col min="770" max="770" width="14.54296875" style="11" customWidth="1"/>
-    <col min="771" max="771" width="9.1796875" style="11"/>
-    <col min="772" max="772" width="12.54296875" style="11" customWidth="1"/>
-    <col min="773" max="990" width="9.1796875" style="11"/>
-    <col min="991" max="991" width="11.453125" style="11" customWidth="1"/>
-    <col min="992" max="992" width="10.453125" style="11" customWidth="1"/>
-    <col min="993" max="993" width="12.81640625" style="11" customWidth="1"/>
-    <col min="994" max="994" width="12.7265625" style="11" customWidth="1"/>
-    <col min="995" max="996" width="27.26953125" style="11" customWidth="1"/>
+    <col min="767" max="767" width="10.21875" style="11" customWidth="1"/>
+    <col min="768" max="768" width="16.21875" style="11" customWidth="1"/>
+    <col min="769" max="769" width="20.5546875" style="11" customWidth="1"/>
+    <col min="770" max="770" width="14.5546875" style="11" customWidth="1"/>
+    <col min="771" max="771" width="9.21875" style="11"/>
+    <col min="772" max="772" width="12.5546875" style="11" customWidth="1"/>
+    <col min="773" max="990" width="9.21875" style="11"/>
+    <col min="991" max="991" width="11.44140625" style="11" customWidth="1"/>
+    <col min="992" max="992" width="10.44140625" style="11" customWidth="1"/>
+    <col min="993" max="994" width="12.77734375" style="11" customWidth="1"/>
+    <col min="995" max="996" width="27.21875" style="11" customWidth="1"/>
     <col min="997" max="997" width="25" style="11" customWidth="1"/>
-    <col min="998" max="998" width="8.81640625" style="11" customWidth="1"/>
-    <col min="999" max="999" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1000" max="1000" width="10.26953125" style="11" customWidth="1"/>
-    <col min="1001" max="1001" width="21.1796875" style="11" customWidth="1"/>
-    <col min="1002" max="1002" width="17.81640625" style="11" customWidth="1"/>
+    <col min="998" max="998" width="8.77734375" style="11" customWidth="1"/>
+    <col min="999" max="1000" width="10.21875" style="11" customWidth="1"/>
+    <col min="1001" max="1001" width="21.21875" style="11" customWidth="1"/>
+    <col min="1002" max="1002" width="17.77734375" style="11" customWidth="1"/>
     <col min="1003" max="1003" width="13" style="11" customWidth="1"/>
-    <col min="1004" max="1004" width="17.7265625" style="11" customWidth="1"/>
-    <col min="1005" max="1005" width="14.54296875" style="11" customWidth="1"/>
+    <col min="1004" max="1004" width="17.77734375" style="11" customWidth="1"/>
+    <col min="1005" max="1005" width="14.5546875" style="11" customWidth="1"/>
     <col min="1006" max="1006" width="16" style="11" customWidth="1"/>
-    <col min="1007" max="1007" width="17.54296875" style="11" customWidth="1"/>
-    <col min="1008" max="1008" width="11.26953125" style="11" customWidth="1"/>
+    <col min="1007" max="1007" width="17.5546875" style="11" customWidth="1"/>
+    <col min="1008" max="1008" width="11.21875" style="11" customWidth="1"/>
     <col min="1009" max="1009" width="25" style="11" customWidth="1"/>
-    <col min="1010" max="1010" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1011" max="1011" width="28.7265625" style="11" customWidth="1"/>
-    <col min="1012" max="1012" width="19.1796875" style="11" customWidth="1"/>
-    <col min="1013" max="1013" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1014" max="1014" width="22.1796875" style="11" customWidth="1"/>
-    <col min="1015" max="1018" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1010" max="1010" width="10.21875" style="11" customWidth="1"/>
+    <col min="1011" max="1011" width="28.77734375" style="11" customWidth="1"/>
+    <col min="1012" max="1012" width="19.21875" style="11" customWidth="1"/>
+    <col min="1013" max="1013" width="10.21875" style="11" customWidth="1"/>
+    <col min="1014" max="1014" width="22.21875" style="11" customWidth="1"/>
+    <col min="1015" max="1018" width="10.21875" style="11" customWidth="1"/>
     <col min="1019" max="1019" width="9" style="11" customWidth="1"/>
-    <col min="1020" max="1021" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1020" max="1021" width="10.21875" style="11" customWidth="1"/>
     <col min="1022" max="1022" width="9" style="11" customWidth="1"/>
-    <col min="1023" max="1023" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1024" max="1024" width="16.26953125" style="11" customWidth="1"/>
-    <col min="1025" max="1025" width="20.54296875" style="11" customWidth="1"/>
-    <col min="1026" max="1026" width="14.54296875" style="11" customWidth="1"/>
-    <col min="1027" max="1027" width="9.1796875" style="11"/>
-    <col min="1028" max="1028" width="12.54296875" style="11" customWidth="1"/>
-    <col min="1029" max="1246" width="9.1796875" style="11"/>
-    <col min="1247" max="1247" width="11.453125" style="11" customWidth="1"/>
-    <col min="1248" max="1248" width="10.453125" style="11" customWidth="1"/>
-    <col min="1249" max="1249" width="12.81640625" style="11" customWidth="1"/>
-    <col min="1250" max="1250" width="12.7265625" style="11" customWidth="1"/>
-    <col min="1251" max="1252" width="27.26953125" style="11" customWidth="1"/>
+    <col min="1023" max="1023" width="10.21875" style="11" customWidth="1"/>
+    <col min="1024" max="1024" width="16.21875" style="11" customWidth="1"/>
+    <col min="1025" max="1025" width="20.5546875" style="11" customWidth="1"/>
+    <col min="1026" max="1026" width="14.5546875" style="11" customWidth="1"/>
+    <col min="1027" max="1027" width="9.21875" style="11"/>
+    <col min="1028" max="1028" width="12.5546875" style="11" customWidth="1"/>
+    <col min="1029" max="1246" width="9.21875" style="11"/>
+    <col min="1247" max="1247" width="11.44140625" style="11" customWidth="1"/>
+    <col min="1248" max="1248" width="10.44140625" style="11" customWidth="1"/>
+    <col min="1249" max="1250" width="12.77734375" style="11" customWidth="1"/>
+    <col min="1251" max="1252" width="27.21875" style="11" customWidth="1"/>
     <col min="1253" max="1253" width="25" style="11" customWidth="1"/>
-    <col min="1254" max="1254" width="8.81640625" style="11" customWidth="1"/>
-    <col min="1255" max="1255" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1256" max="1256" width="10.26953125" style="11" customWidth="1"/>
-    <col min="1257" max="1257" width="21.1796875" style="11" customWidth="1"/>
-    <col min="1258" max="1258" width="17.81640625" style="11" customWidth="1"/>
+    <col min="1254" max="1254" width="8.77734375" style="11" customWidth="1"/>
+    <col min="1255" max="1256" width="10.21875" style="11" customWidth="1"/>
+    <col min="1257" max="1257" width="21.21875" style="11" customWidth="1"/>
+    <col min="1258" max="1258" width="17.77734375" style="11" customWidth="1"/>
     <col min="1259" max="1259" width="13" style="11" customWidth="1"/>
-    <col min="1260" max="1260" width="17.7265625" style="11" customWidth="1"/>
-    <col min="1261" max="1261" width="14.54296875" style="11" customWidth="1"/>
+    <col min="1260" max="1260" width="17.77734375" style="11" customWidth="1"/>
+    <col min="1261" max="1261" width="14.5546875" style="11" customWidth="1"/>
     <col min="1262" max="1262" width="16" style="11" customWidth="1"/>
-    <col min="1263" max="1263" width="17.54296875" style="11" customWidth="1"/>
-    <col min="1264" max="1264" width="11.26953125" style="11" customWidth="1"/>
+    <col min="1263" max="1263" width="17.5546875" style="11" customWidth="1"/>
+    <col min="1264" max="1264" width="11.21875" style="11" customWidth="1"/>
     <col min="1265" max="1265" width="25" style="11" customWidth="1"/>
-    <col min="1266" max="1266" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1267" max="1267" width="28.7265625" style="11" customWidth="1"/>
-    <col min="1268" max="1268" width="19.1796875" style="11" customWidth="1"/>
-    <col min="1269" max="1269" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1270" max="1270" width="22.1796875" style="11" customWidth="1"/>
-    <col min="1271" max="1274" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1266" max="1266" width="10.21875" style="11" customWidth="1"/>
+    <col min="1267" max="1267" width="28.77734375" style="11" customWidth="1"/>
+    <col min="1268" max="1268" width="19.21875" style="11" customWidth="1"/>
+    <col min="1269" max="1269" width="10.21875" style="11" customWidth="1"/>
+    <col min="1270" max="1270" width="22.21875" style="11" customWidth="1"/>
+    <col min="1271" max="1274" width="10.21875" style="11" customWidth="1"/>
     <col min="1275" max="1275" width="9" style="11" customWidth="1"/>
-    <col min="1276" max="1277" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1276" max="1277" width="10.21875" style="11" customWidth="1"/>
     <col min="1278" max="1278" width="9" style="11" customWidth="1"/>
-    <col min="1279" max="1279" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1280" max="1280" width="16.26953125" style="11" customWidth="1"/>
-    <col min="1281" max="1281" width="20.54296875" style="11" customWidth="1"/>
-    <col min="1282" max="1282" width="14.54296875" style="11" customWidth="1"/>
-    <col min="1283" max="1283" width="9.1796875" style="11"/>
-    <col min="1284" max="1284" width="12.54296875" style="11" customWidth="1"/>
-    <col min="1285" max="1502" width="9.1796875" style="11"/>
-    <col min="1503" max="1503" width="11.453125" style="11" customWidth="1"/>
-    <col min="1504" max="1504" width="10.453125" style="11" customWidth="1"/>
-    <col min="1505" max="1505" width="12.81640625" style="11" customWidth="1"/>
-    <col min="1506" max="1506" width="12.7265625" style="11" customWidth="1"/>
-    <col min="1507" max="1508" width="27.26953125" style="11" customWidth="1"/>
+    <col min="1279" max="1279" width="10.21875" style="11" customWidth="1"/>
+    <col min="1280" max="1280" width="16.21875" style="11" customWidth="1"/>
+    <col min="1281" max="1281" width="20.5546875" style="11" customWidth="1"/>
+    <col min="1282" max="1282" width="14.5546875" style="11" customWidth="1"/>
+    <col min="1283" max="1283" width="9.21875" style="11"/>
+    <col min="1284" max="1284" width="12.5546875" style="11" customWidth="1"/>
+    <col min="1285" max="1502" width="9.21875" style="11"/>
+    <col min="1503" max="1503" width="11.44140625" style="11" customWidth="1"/>
+    <col min="1504" max="1504" width="10.44140625" style="11" customWidth="1"/>
+    <col min="1505" max="1506" width="12.77734375" style="11" customWidth="1"/>
+    <col min="1507" max="1508" width="27.21875" style="11" customWidth="1"/>
     <col min="1509" max="1509" width="25" style="11" customWidth="1"/>
-    <col min="1510" max="1510" width="8.81640625" style="11" customWidth="1"/>
-    <col min="1511" max="1511" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1512" max="1512" width="10.26953125" style="11" customWidth="1"/>
-    <col min="1513" max="1513" width="21.1796875" style="11" customWidth="1"/>
-    <col min="1514" max="1514" width="17.81640625" style="11" customWidth="1"/>
+    <col min="1510" max="1510" width="8.77734375" style="11" customWidth="1"/>
+    <col min="1511" max="1512" width="10.21875" style="11" customWidth="1"/>
+    <col min="1513" max="1513" width="21.21875" style="11" customWidth="1"/>
+    <col min="1514" max="1514" width="17.77734375" style="11" customWidth="1"/>
     <col min="1515" max="1515" width="13" style="11" customWidth="1"/>
-    <col min="1516" max="1516" width="17.7265625" style="11" customWidth="1"/>
-    <col min="1517" max="1517" width="14.54296875" style="11" customWidth="1"/>
+    <col min="1516" max="1516" width="17.77734375" style="11" customWidth="1"/>
+    <col min="1517" max="1517" width="14.5546875" style="11" customWidth="1"/>
     <col min="1518" max="1518" width="16" style="11" customWidth="1"/>
-    <col min="1519" max="1519" width="17.54296875" style="11" customWidth="1"/>
-    <col min="1520" max="1520" width="11.26953125" style="11" customWidth="1"/>
+    <col min="1519" max="1519" width="17.5546875" style="11" customWidth="1"/>
+    <col min="1520" max="1520" width="11.21875" style="11" customWidth="1"/>
     <col min="1521" max="1521" width="25" style="11" customWidth="1"/>
-    <col min="1522" max="1522" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1523" max="1523" width="28.7265625" style="11" customWidth="1"/>
-    <col min="1524" max="1524" width="19.1796875" style="11" customWidth="1"/>
-    <col min="1525" max="1525" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1526" max="1526" width="22.1796875" style="11" customWidth="1"/>
-    <col min="1527" max="1530" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1522" max="1522" width="10.21875" style="11" customWidth="1"/>
+    <col min="1523" max="1523" width="28.77734375" style="11" customWidth="1"/>
+    <col min="1524" max="1524" width="19.21875" style="11" customWidth="1"/>
+    <col min="1525" max="1525" width="10.21875" style="11" customWidth="1"/>
+    <col min="1526" max="1526" width="22.21875" style="11" customWidth="1"/>
+    <col min="1527" max="1530" width="10.21875" style="11" customWidth="1"/>
     <col min="1531" max="1531" width="9" style="11" customWidth="1"/>
-    <col min="1532" max="1533" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1532" max="1533" width="10.21875" style="11" customWidth="1"/>
     <col min="1534" max="1534" width="9" style="11" customWidth="1"/>
-    <col min="1535" max="1535" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1536" max="1536" width="16.26953125" style="11" customWidth="1"/>
-    <col min="1537" max="1537" width="20.54296875" style="11" customWidth="1"/>
-    <col min="1538" max="1538" width="14.54296875" style="11" customWidth="1"/>
-    <col min="1539" max="1539" width="9.1796875" style="11"/>
-    <col min="1540" max="1540" width="12.54296875" style="11" customWidth="1"/>
-    <col min="1541" max="1758" width="9.1796875" style="11"/>
-    <col min="1759" max="1759" width="11.453125" style="11" customWidth="1"/>
-    <col min="1760" max="1760" width="10.453125" style="11" customWidth="1"/>
-    <col min="1761" max="1761" width="12.81640625" style="11" customWidth="1"/>
-    <col min="1762" max="1762" width="12.7265625" style="11" customWidth="1"/>
-    <col min="1763" max="1764" width="27.26953125" style="11" customWidth="1"/>
+    <col min="1535" max="1535" width="10.21875" style="11" customWidth="1"/>
+    <col min="1536" max="1536" width="16.21875" style="11" customWidth="1"/>
+    <col min="1537" max="1537" width="20.5546875" style="11" customWidth="1"/>
+    <col min="1538" max="1538" width="14.5546875" style="11" customWidth="1"/>
+    <col min="1539" max="1539" width="9.21875" style="11"/>
+    <col min="1540" max="1540" width="12.5546875" style="11" customWidth="1"/>
+    <col min="1541" max="1758" width="9.21875" style="11"/>
+    <col min="1759" max="1759" width="11.44140625" style="11" customWidth="1"/>
+    <col min="1760" max="1760" width="10.44140625" style="11" customWidth="1"/>
+    <col min="1761" max="1762" width="12.77734375" style="11" customWidth="1"/>
+    <col min="1763" max="1764" width="27.21875" style="11" customWidth="1"/>
     <col min="1765" max="1765" width="25" style="11" customWidth="1"/>
-    <col min="1766" max="1766" width="8.81640625" style="11" customWidth="1"/>
-    <col min="1767" max="1767" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1768" max="1768" width="10.26953125" style="11" customWidth="1"/>
-    <col min="1769" max="1769" width="21.1796875" style="11" customWidth="1"/>
-    <col min="1770" max="1770" width="17.81640625" style="11" customWidth="1"/>
+    <col min="1766" max="1766" width="8.77734375" style="11" customWidth="1"/>
+    <col min="1767" max="1768" width="10.21875" style="11" customWidth="1"/>
+    <col min="1769" max="1769" width="21.21875" style="11" customWidth="1"/>
+    <col min="1770" max="1770" width="17.77734375" style="11" customWidth="1"/>
     <col min="1771" max="1771" width="13" style="11" customWidth="1"/>
-    <col min="1772" max="1772" width="17.7265625" style="11" customWidth="1"/>
-    <col min="1773" max="1773" width="14.54296875" style="11" customWidth="1"/>
+    <col min="1772" max="1772" width="17.77734375" style="11" customWidth="1"/>
+    <col min="1773" max="1773" width="14.5546875" style="11" customWidth="1"/>
     <col min="1774" max="1774" width="16" style="11" customWidth="1"/>
-    <col min="1775" max="1775" width="17.54296875" style="11" customWidth="1"/>
-    <col min="1776" max="1776" width="11.26953125" style="11" customWidth="1"/>
+    <col min="1775" max="1775" width="17.5546875" style="11" customWidth="1"/>
+    <col min="1776" max="1776" width="11.21875" style="11" customWidth="1"/>
     <col min="1777" max="1777" width="25" style="11" customWidth="1"/>
-    <col min="1778" max="1778" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1779" max="1779" width="28.7265625" style="11" customWidth="1"/>
-    <col min="1780" max="1780" width="19.1796875" style="11" customWidth="1"/>
-    <col min="1781" max="1781" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1782" max="1782" width="22.1796875" style="11" customWidth="1"/>
-    <col min="1783" max="1786" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1778" max="1778" width="10.21875" style="11" customWidth="1"/>
+    <col min="1779" max="1779" width="28.77734375" style="11" customWidth="1"/>
+    <col min="1780" max="1780" width="19.21875" style="11" customWidth="1"/>
+    <col min="1781" max="1781" width="10.21875" style="11" customWidth="1"/>
+    <col min="1782" max="1782" width="22.21875" style="11" customWidth="1"/>
+    <col min="1783" max="1786" width="10.21875" style="11" customWidth="1"/>
     <col min="1787" max="1787" width="9" style="11" customWidth="1"/>
-    <col min="1788" max="1789" width="10.1796875" style="11" customWidth="1"/>
+    <col min="1788" max="1789" width="10.21875" style="11" customWidth="1"/>
     <col min="1790" max="1790" width="9" style="11" customWidth="1"/>
-    <col min="1791" max="1791" width="10.1796875" style="11" customWidth="1"/>
-    <col min="1792" max="1792" width="16.26953125" style="11" customWidth="1"/>
-    <col min="1793" max="1793" width="20.54296875" style="11" customWidth="1"/>
-    <col min="1794" max="1794" width="14.54296875" style="11" customWidth="1"/>
-    <col min="1795" max="1795" width="9.1796875" style="11"/>
-    <col min="1796" max="1796" width="12.54296875" style="11" customWidth="1"/>
-    <col min="1797" max="2014" width="9.1796875" style="11"/>
-    <col min="2015" max="2015" width="11.453125" style="11" customWidth="1"/>
-    <col min="2016" max="2016" width="10.453125" style="11" customWidth="1"/>
-    <col min="2017" max="2017" width="12.81640625" style="11" customWidth="1"/>
-    <col min="2018" max="2018" width="12.7265625" style="11" customWidth="1"/>
-    <col min="2019" max="2020" width="27.26953125" style="11" customWidth="1"/>
+    <col min="1791" max="1791" width="10.21875" style="11" customWidth="1"/>
+    <col min="1792" max="1792" width="16.21875" style="11" customWidth="1"/>
+    <col min="1793" max="1793" width="20.5546875" style="11" customWidth="1"/>
+    <col min="1794" max="1794" width="14.5546875" style="11" customWidth="1"/>
+    <col min="1795" max="1795" width="9.21875" style="11"/>
+    <col min="1796" max="1796" width="12.5546875" style="11" customWidth="1"/>
+    <col min="1797" max="2014" width="9.21875" style="11"/>
+    <col min="2015" max="2015" width="11.44140625" style="11" customWidth="1"/>
+    <col min="2016" max="2016" width="10.44140625" style="11" customWidth="1"/>
+    <col min="2017" max="2018" width="12.77734375" style="11" customWidth="1"/>
+    <col min="2019" max="2020" width="27.21875" style="11" customWidth="1"/>
     <col min="2021" max="2021" width="25" style="11" customWidth="1"/>
-    <col min="2022" max="2022" width="8.81640625" style="11" customWidth="1"/>
-    <col min="2023" max="2023" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2024" max="2024" width="10.26953125" style="11" customWidth="1"/>
-    <col min="2025" max="2025" width="21.1796875" style="11" customWidth="1"/>
-    <col min="2026" max="2026" width="17.81640625" style="11" customWidth="1"/>
+    <col min="2022" max="2022" width="8.77734375" style="11" customWidth="1"/>
+    <col min="2023" max="2024" width="10.21875" style="11" customWidth="1"/>
+    <col min="2025" max="2025" width="21.21875" style="11" customWidth="1"/>
+    <col min="2026" max="2026" width="17.77734375" style="11" customWidth="1"/>
     <col min="2027" max="2027" width="13" style="11" customWidth="1"/>
-    <col min="2028" max="2028" width="17.7265625" style="11" customWidth="1"/>
-    <col min="2029" max="2029" width="14.54296875" style="11" customWidth="1"/>
+    <col min="2028" max="2028" width="17.77734375" style="11" customWidth="1"/>
+    <col min="2029" max="2029" width="14.5546875" style="11" customWidth="1"/>
     <col min="2030" max="2030" width="16" style="11" customWidth="1"/>
-    <col min="2031" max="2031" width="17.54296875" style="11" customWidth="1"/>
-    <col min="2032" max="2032" width="11.26953125" style="11" customWidth="1"/>
+    <col min="2031" max="2031" width="17.5546875" style="11" customWidth="1"/>
+    <col min="2032" max="2032" width="11.21875" style="11" customWidth="1"/>
     <col min="2033" max="2033" width="25" style="11" customWidth="1"/>
-    <col min="2034" max="2034" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2035" max="2035" width="28.7265625" style="11" customWidth="1"/>
-    <col min="2036" max="2036" width="19.1796875" style="11" customWidth="1"/>
-    <col min="2037" max="2037" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2038" max="2038" width="22.1796875" style="11" customWidth="1"/>
-    <col min="2039" max="2042" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2034" max="2034" width="10.21875" style="11" customWidth="1"/>
+    <col min="2035" max="2035" width="28.77734375" style="11" customWidth="1"/>
+    <col min="2036" max="2036" width="19.21875" style="11" customWidth="1"/>
+    <col min="2037" max="2037" width="10.21875" style="11" customWidth="1"/>
+    <col min="2038" max="2038" width="22.21875" style="11" customWidth="1"/>
+    <col min="2039" max="2042" width="10.21875" style="11" customWidth="1"/>
     <col min="2043" max="2043" width="9" style="11" customWidth="1"/>
-    <col min="2044" max="2045" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2044" max="2045" width="10.21875" style="11" customWidth="1"/>
     <col min="2046" max="2046" width="9" style="11" customWidth="1"/>
-    <col min="2047" max="2047" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2048" max="2048" width="16.26953125" style="11" customWidth="1"/>
-    <col min="2049" max="2049" width="20.54296875" style="11" customWidth="1"/>
-    <col min="2050" max="2050" width="14.54296875" style="11" customWidth="1"/>
-    <col min="2051" max="2051" width="9.1796875" style="11"/>
-    <col min="2052" max="2052" width="12.54296875" style="11" customWidth="1"/>
-    <col min="2053" max="2270" width="9.1796875" style="11"/>
-    <col min="2271" max="2271" width="11.453125" style="11" customWidth="1"/>
-    <col min="2272" max="2272" width="10.453125" style="11" customWidth="1"/>
-    <col min="2273" max="2273" width="12.81640625" style="11" customWidth="1"/>
-    <col min="2274" max="2274" width="12.7265625" style="11" customWidth="1"/>
-    <col min="2275" max="2276" width="27.26953125" style="11" customWidth="1"/>
+    <col min="2047" max="2047" width="10.21875" style="11" customWidth="1"/>
+    <col min="2048" max="2048" width="16.21875" style="11" customWidth="1"/>
+    <col min="2049" max="2049" width="20.5546875" style="11" customWidth="1"/>
+    <col min="2050" max="2050" width="14.5546875" style="11" customWidth="1"/>
+    <col min="2051" max="2051" width="9.21875" style="11"/>
+    <col min="2052" max="2052" width="12.5546875" style="11" customWidth="1"/>
+    <col min="2053" max="2270" width="9.21875" style="11"/>
+    <col min="2271" max="2271" width="11.44140625" style="11" customWidth="1"/>
+    <col min="2272" max="2272" width="10.44140625" style="11" customWidth="1"/>
+    <col min="2273" max="2274" width="12.77734375" style="11" customWidth="1"/>
+    <col min="2275" max="2276" width="27.21875" style="11" customWidth="1"/>
     <col min="2277" max="2277" width="25" style="11" customWidth="1"/>
-    <col min="2278" max="2278" width="8.81640625" style="11" customWidth="1"/>
-    <col min="2279" max="2279" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2280" max="2280" width="10.26953125" style="11" customWidth="1"/>
-    <col min="2281" max="2281" width="21.1796875" style="11" customWidth="1"/>
-    <col min="2282" max="2282" width="17.81640625" style="11" customWidth="1"/>
+    <col min="2278" max="2278" width="8.77734375" style="11" customWidth="1"/>
+    <col min="2279" max="2280" width="10.21875" style="11" customWidth="1"/>
+    <col min="2281" max="2281" width="21.21875" style="11" customWidth="1"/>
+    <col min="2282" max="2282" width="17.77734375" style="11" customWidth="1"/>
     <col min="2283" max="2283" width="13" style="11" customWidth="1"/>
-    <col min="2284" max="2284" width="17.7265625" style="11" customWidth="1"/>
-    <col min="2285" max="2285" width="14.54296875" style="11" customWidth="1"/>
+    <col min="2284" max="2284" width="17.77734375" style="11" customWidth="1"/>
+    <col min="2285" max="2285" width="14.5546875" style="11" customWidth="1"/>
     <col min="2286" max="2286" width="16" style="11" customWidth="1"/>
-    <col min="2287" max="2287" width="17.54296875" style="11" customWidth="1"/>
-    <col min="2288" max="2288" width="11.26953125" style="11" customWidth="1"/>
+    <col min="2287" max="2287" width="17.5546875" style="11" customWidth="1"/>
+    <col min="2288" max="2288" width="11.21875" style="11" customWidth="1"/>
     <col min="2289" max="2289" width="25" style="11" customWidth="1"/>
-    <col min="2290" max="2290" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2291" max="2291" width="28.7265625" style="11" customWidth="1"/>
-    <col min="2292" max="2292" width="19.1796875" style="11" customWidth="1"/>
-    <col min="2293" max="2293" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2294" max="2294" width="22.1796875" style="11" customWidth="1"/>
-    <col min="2295" max="2298" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2290" max="2290" width="10.21875" style="11" customWidth="1"/>
+    <col min="2291" max="2291" width="28.77734375" style="11" customWidth="1"/>
+    <col min="2292" max="2292" width="19.21875" style="11" customWidth="1"/>
+    <col min="2293" max="2293" width="10.21875" style="11" customWidth="1"/>
+    <col min="2294" max="2294" width="22.21875" style="11" customWidth="1"/>
+    <col min="2295" max="2298" width="10.21875" style="11" customWidth="1"/>
     <col min="2299" max="2299" width="9" style="11" customWidth="1"/>
-    <col min="2300" max="2301" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2300" max="2301" width="10.21875" style="11" customWidth="1"/>
     <col min="2302" max="2302" width="9" style="11" customWidth="1"/>
-    <col min="2303" max="2303" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2304" max="2304" width="16.26953125" style="11" customWidth="1"/>
-    <col min="2305" max="2305" width="20.54296875" style="11" customWidth="1"/>
-    <col min="2306" max="2306" width="14.54296875" style="11" customWidth="1"/>
-    <col min="2307" max="2307" width="9.1796875" style="11"/>
-    <col min="2308" max="2308" width="12.54296875" style="11" customWidth="1"/>
-    <col min="2309" max="2526" width="9.1796875" style="11"/>
-    <col min="2527" max="2527" width="11.453125" style="11" customWidth="1"/>
-    <col min="2528" max="2528" width="10.453125" style="11" customWidth="1"/>
-    <col min="2529" max="2529" width="12.81640625" style="11" customWidth="1"/>
-    <col min="2530" max="2530" width="12.7265625" style="11" customWidth="1"/>
-    <col min="2531" max="2532" width="27.26953125" style="11" customWidth="1"/>
+    <col min="2303" max="2303" width="10.21875" style="11" customWidth="1"/>
+    <col min="2304" max="2304" width="16.21875" style="11" customWidth="1"/>
+    <col min="2305" max="2305" width="20.5546875" style="11" customWidth="1"/>
+    <col min="2306" max="2306" width="14.5546875" style="11" customWidth="1"/>
+    <col min="2307" max="2307" width="9.21875" style="11"/>
+    <col min="2308" max="2308" width="12.5546875" style="11" customWidth="1"/>
+    <col min="2309" max="2526" width="9.21875" style="11"/>
+    <col min="2527" max="2527" width="11.44140625" style="11" customWidth="1"/>
+    <col min="2528" max="2528" width="10.44140625" style="11" customWidth="1"/>
+    <col min="2529" max="2530" width="12.77734375" style="11" customWidth="1"/>
+    <col min="2531" max="2532" width="27.21875" style="11" customWidth="1"/>
     <col min="2533" max="2533" width="25" style="11" customWidth="1"/>
-    <col min="2534" max="2534" width="8.81640625" style="11" customWidth="1"/>
-    <col min="2535" max="2535" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2536" max="2536" width="10.26953125" style="11" customWidth="1"/>
-    <col min="2537" max="2537" width="21.1796875" style="11" customWidth="1"/>
-    <col min="2538" max="2538" width="17.81640625" style="11" customWidth="1"/>
+    <col min="2534" max="2534" width="8.77734375" style="11" customWidth="1"/>
+    <col min="2535" max="2536" width="10.21875" style="11" customWidth="1"/>
+    <col min="2537" max="2537" width="21.21875" style="11" customWidth="1"/>
+    <col min="2538" max="2538" width="17.77734375" style="11" customWidth="1"/>
     <col min="2539" max="2539" width="13" style="11" customWidth="1"/>
-    <col min="2540" max="2540" width="17.7265625" style="11" customWidth="1"/>
-    <col min="2541" max="2541" width="14.54296875" style="11" customWidth="1"/>
+    <col min="2540" max="2540" width="17.77734375" style="11" customWidth="1"/>
+    <col min="2541" max="2541" width="14.5546875" style="11" customWidth="1"/>
     <col min="2542" max="2542" width="16" style="11" customWidth="1"/>
-    <col min="2543" max="2543" width="17.54296875" style="11" customWidth="1"/>
-    <col min="2544" max="2544" width="11.26953125" style="11" customWidth="1"/>
+    <col min="2543" max="2543" width="17.5546875" style="11" customWidth="1"/>
+    <col min="2544" max="2544" width="11.21875" style="11" customWidth="1"/>
     <col min="2545" max="2545" width="25" style="11" customWidth="1"/>
-    <col min="2546" max="2546" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2547" max="2547" width="28.7265625" style="11" customWidth="1"/>
-    <col min="2548" max="2548" width="19.1796875" style="11" customWidth="1"/>
-    <col min="2549" max="2549" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2550" max="2550" width="22.1796875" style="11" customWidth="1"/>
-    <col min="2551" max="2554" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2546" max="2546" width="10.21875" style="11" customWidth="1"/>
+    <col min="2547" max="2547" width="28.77734375" style="11" customWidth="1"/>
+    <col min="2548" max="2548" width="19.21875" style="11" customWidth="1"/>
+    <col min="2549" max="2549" width="10.21875" style="11" customWidth="1"/>
+    <col min="2550" max="2550" width="22.21875" style="11" customWidth="1"/>
+    <col min="2551" max="2554" width="10.21875" style="11" customWidth="1"/>
     <col min="2555" max="2555" width="9" style="11" customWidth="1"/>
-    <col min="2556" max="2557" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2556" max="2557" width="10.21875" style="11" customWidth="1"/>
     <col min="2558" max="2558" width="9" style="11" customWidth="1"/>
-    <col min="2559" max="2559" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2560" max="2560" width="16.26953125" style="11" customWidth="1"/>
-    <col min="2561" max="2561" width="20.54296875" style="11" customWidth="1"/>
-    <col min="2562" max="2562" width="14.54296875" style="11" customWidth="1"/>
-    <col min="2563" max="2563" width="9.1796875" style="11"/>
-    <col min="2564" max="2564" width="12.54296875" style="11" customWidth="1"/>
-    <col min="2565" max="2782" width="9.1796875" style="11"/>
-    <col min="2783" max="2783" width="11.453125" style="11" customWidth="1"/>
-    <col min="2784" max="2784" width="10.453125" style="11" customWidth="1"/>
-    <col min="2785" max="2785" width="12.81640625" style="11" customWidth="1"/>
-    <col min="2786" max="2786" width="12.7265625" style="11" customWidth="1"/>
-    <col min="2787" max="2788" width="27.26953125" style="11" customWidth="1"/>
+    <col min="2559" max="2559" width="10.21875" style="11" customWidth="1"/>
+    <col min="2560" max="2560" width="16.21875" style="11" customWidth="1"/>
+    <col min="2561" max="2561" width="20.5546875" style="11" customWidth="1"/>
+    <col min="2562" max="2562" width="14.5546875" style="11" customWidth="1"/>
+    <col min="2563" max="2563" width="9.21875" style="11"/>
+    <col min="2564" max="2564" width="12.5546875" style="11" customWidth="1"/>
+    <col min="2565" max="2782" width="9.21875" style="11"/>
+    <col min="2783" max="2783" width="11.44140625" style="11" customWidth="1"/>
+    <col min="2784" max="2784" width="10.44140625" style="11" customWidth="1"/>
+    <col min="2785" max="2786" width="12.77734375" style="11" customWidth="1"/>
+    <col min="2787" max="2788" width="27.21875" style="11" customWidth="1"/>
     <col min="2789" max="2789" width="25" style="11" customWidth="1"/>
-    <col min="2790" max="2790" width="8.81640625" style="11" customWidth="1"/>
-    <col min="2791" max="2791" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2792" max="2792" width="10.26953125" style="11" customWidth="1"/>
-    <col min="2793" max="2793" width="21.1796875" style="11" customWidth="1"/>
-    <col min="2794" max="2794" width="17.81640625" style="11" customWidth="1"/>
+    <col min="2790" max="2790" width="8.77734375" style="11" customWidth="1"/>
+    <col min="2791" max="2792" width="10.21875" style="11" customWidth="1"/>
+    <col min="2793" max="2793" width="21.21875" style="11" customWidth="1"/>
+    <col min="2794" max="2794" width="17.77734375" style="11" customWidth="1"/>
     <col min="2795" max="2795" width="13" style="11" customWidth="1"/>
-    <col min="2796" max="2796" width="17.7265625" style="11" customWidth="1"/>
-    <col min="2797" max="2797" width="14.54296875" style="11" customWidth="1"/>
+    <col min="2796" max="2796" width="17.77734375" style="11" customWidth="1"/>
+    <col min="2797" max="2797" width="14.5546875" style="11" customWidth="1"/>
     <col min="2798" max="2798" width="16" style="11" customWidth="1"/>
-    <col min="2799" max="2799" width="17.54296875" style="11" customWidth="1"/>
-    <col min="2800" max="2800" width="11.26953125" style="11" customWidth="1"/>
+    <col min="2799" max="2799" width="17.5546875" style="11" customWidth="1"/>
+    <col min="2800" max="2800" width="11.21875" style="11" customWidth="1"/>
     <col min="2801" max="2801" width="25" style="11" customWidth="1"/>
-    <col min="2802" max="2802" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2803" max="2803" width="28.7265625" style="11" customWidth="1"/>
-    <col min="2804" max="2804" width="19.1796875" style="11" customWidth="1"/>
-    <col min="2805" max="2805" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2806" max="2806" width="22.1796875" style="11" customWidth="1"/>
-    <col min="2807" max="2810" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2802" max="2802" width="10.21875" style="11" customWidth="1"/>
+    <col min="2803" max="2803" width="28.77734375" style="11" customWidth="1"/>
+    <col min="2804" max="2804" width="19.21875" style="11" customWidth="1"/>
+    <col min="2805" max="2805" width="10.21875" style="11" customWidth="1"/>
+    <col min="2806" max="2806" width="22.21875" style="11" customWidth="1"/>
+    <col min="2807" max="2810" width="10.21875" style="11" customWidth="1"/>
     <col min="2811" max="2811" width="9" style="11" customWidth="1"/>
-    <col min="2812" max="2813" width="10.1796875" style="11" customWidth="1"/>
+    <col min="2812" max="2813" width="10.21875" style="11" customWidth="1"/>
     <col min="2814" max="2814" width="9" style="11" customWidth="1"/>
-    <col min="2815" max="2815" width="10.1796875" style="11" customWidth="1"/>
-    <col min="2816" max="2816" width="16.26953125" style="11" customWidth="1"/>
-    <col min="2817" max="2817" width="20.54296875" style="11" customWidth="1"/>
-    <col min="2818" max="2818" width="14.54296875" style="11" customWidth="1"/>
-    <col min="2819" max="2819" width="9.1796875" style="11"/>
-    <col min="2820" max="2820" width="12.54296875" style="11" customWidth="1"/>
-    <col min="2821" max="3038" width="9.1796875" style="11"/>
-    <col min="3039" max="3039" width="11.453125" style="11" customWidth="1"/>
-    <col min="3040" max="3040" width="10.453125" style="11" customWidth="1"/>
-    <col min="3041" max="3041" width="12.81640625" style="11" customWidth="1"/>
-    <col min="3042" max="3042" width="12.7265625" style="11" customWidth="1"/>
-    <col min="3043" max="3044" width="27.26953125" style="11" customWidth="1"/>
+    <col min="2815" max="2815" width="10.21875" style="11" customWidth="1"/>
+    <col min="2816" max="2816" width="16.21875" style="11" customWidth="1"/>
+    <col min="2817" max="2817" width="20.5546875" style="11" customWidth="1"/>
+    <col min="2818" max="2818" width="14.5546875" style="11" customWidth="1"/>
+    <col min="2819" max="2819" width="9.21875" style="11"/>
+    <col min="2820" max="2820" width="12.5546875" style="11" customWidth="1"/>
+    <col min="2821" max="3038" width="9.21875" style="11"/>
+    <col min="3039" max="3039" width="11.44140625" style="11" customWidth="1"/>
+    <col min="3040" max="3040" width="10.44140625" style="11" customWidth="1"/>
+    <col min="3041" max="3042" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3043" max="3044" width="27.21875" style="11" customWidth="1"/>
     <col min="3045" max="3045" width="25" style="11" customWidth="1"/>
-    <col min="3046" max="3046" width="8.81640625" style="11" customWidth="1"/>
-    <col min="3047" max="3047" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3048" max="3048" width="10.26953125" style="11" customWidth="1"/>
-    <col min="3049" max="3049" width="21.1796875" style="11" customWidth="1"/>
-    <col min="3050" max="3050" width="17.81640625" style="11" customWidth="1"/>
+    <col min="3046" max="3046" width="8.77734375" style="11" customWidth="1"/>
+    <col min="3047" max="3048" width="10.21875" style="11" customWidth="1"/>
+    <col min="3049" max="3049" width="21.21875" style="11" customWidth="1"/>
+    <col min="3050" max="3050" width="17.77734375" style="11" customWidth="1"/>
     <col min="3051" max="3051" width="13" style="11" customWidth="1"/>
-    <col min="3052" max="3052" width="17.7265625" style="11" customWidth="1"/>
-    <col min="3053" max="3053" width="14.54296875" style="11" customWidth="1"/>
+    <col min="3052" max="3052" width="17.77734375" style="11" customWidth="1"/>
+    <col min="3053" max="3053" width="14.5546875" style="11" customWidth="1"/>
     <col min="3054" max="3054" width="16" style="11" customWidth="1"/>
-    <col min="3055" max="3055" width="17.54296875" style="11" customWidth="1"/>
-    <col min="3056" max="3056" width="11.26953125" style="11" customWidth="1"/>
+    <col min="3055" max="3055" width="17.5546875" style="11" customWidth="1"/>
+    <col min="3056" max="3056" width="11.21875" style="11" customWidth="1"/>
     <col min="3057" max="3057" width="25" style="11" customWidth="1"/>
-    <col min="3058" max="3058" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3059" max="3059" width="28.7265625" style="11" customWidth="1"/>
-    <col min="3060" max="3060" width="19.1796875" style="11" customWidth="1"/>
-    <col min="3061" max="3061" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3062" max="3062" width="22.1796875" style="11" customWidth="1"/>
-    <col min="3063" max="3066" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3058" max="3058" width="10.21875" style="11" customWidth="1"/>
+    <col min="3059" max="3059" width="28.77734375" style="11" customWidth="1"/>
+    <col min="3060" max="3060" width="19.21875" style="11" customWidth="1"/>
+    <col min="3061" max="3061" width="10.21875" style="11" customWidth="1"/>
+    <col min="3062" max="3062" width="22.21875" style="11" customWidth="1"/>
+    <col min="3063" max="3066" width="10.21875" style="11" customWidth="1"/>
     <col min="3067" max="3067" width="9" style="11" customWidth="1"/>
-    <col min="3068" max="3069" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3068" max="3069" width="10.21875" style="11" customWidth="1"/>
     <col min="3070" max="3070" width="9" style="11" customWidth="1"/>
-    <col min="3071" max="3071" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3072" max="3072" width="16.26953125" style="11" customWidth="1"/>
-    <col min="3073" max="3073" width="20.54296875" style="11" customWidth="1"/>
-    <col min="3074" max="3074" width="14.54296875" style="11" customWidth="1"/>
-    <col min="3075" max="3075" width="9.1796875" style="11"/>
-    <col min="3076" max="3076" width="12.54296875" style="11" customWidth="1"/>
-    <col min="3077" max="3294" width="9.1796875" style="11"/>
-    <col min="3295" max="3295" width="11.453125" style="11" customWidth="1"/>
-    <col min="3296" max="3296" width="10.453125" style="11" customWidth="1"/>
-    <col min="3297" max="3297" width="12.81640625" style="11" customWidth="1"/>
-    <col min="3298" max="3298" width="12.7265625" style="11" customWidth="1"/>
-    <col min="3299" max="3300" width="27.26953125" style="11" customWidth="1"/>
+    <col min="3071" max="3071" width="10.21875" style="11" customWidth="1"/>
+    <col min="3072" max="3072" width="16.21875" style="11" customWidth="1"/>
+    <col min="3073" max="3073" width="20.5546875" style="11" customWidth="1"/>
+    <col min="3074" max="3074" width="14.5546875" style="11" customWidth="1"/>
+    <col min="3075" max="3075" width="9.21875" style="11"/>
+    <col min="3076" max="3076" width="12.5546875" style="11" customWidth="1"/>
+    <col min="3077" max="3294" width="9.21875" style="11"/>
+    <col min="3295" max="3295" width="11.44140625" style="11" customWidth="1"/>
+    <col min="3296" max="3296" width="10.44140625" style="11" customWidth="1"/>
+    <col min="3297" max="3298" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3299" max="3300" width="27.21875" style="11" customWidth="1"/>
     <col min="3301" max="3301" width="25" style="11" customWidth="1"/>
-    <col min="3302" max="3302" width="8.81640625" style="11" customWidth="1"/>
-    <col min="3303" max="3303" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3304" max="3304" width="10.26953125" style="11" customWidth="1"/>
-    <col min="3305" max="3305" width="21.1796875" style="11" customWidth="1"/>
-    <col min="3306" max="3306" width="17.81640625" style="11" customWidth="1"/>
+    <col min="3302" max="3302" width="8.77734375" style="11" customWidth="1"/>
+    <col min="3303" max="3304" width="10.21875" style="11" customWidth="1"/>
+    <col min="3305" max="3305" width="21.21875" style="11" customWidth="1"/>
+    <col min="3306" max="3306" width="17.77734375" style="11" customWidth="1"/>
     <col min="3307" max="3307" width="13" style="11" customWidth="1"/>
-    <col min="3308" max="3308" width="17.7265625" style="11" customWidth="1"/>
-    <col min="3309" max="3309" width="14.54296875" style="11" customWidth="1"/>
+    <col min="3308" max="3308" width="17.77734375" style="11" customWidth="1"/>
+    <col min="3309" max="3309" width="14.5546875" style="11" customWidth="1"/>
     <col min="3310" max="3310" width="16" style="11" customWidth="1"/>
-    <col min="3311" max="3311" width="17.54296875" style="11" customWidth="1"/>
-    <col min="3312" max="3312" width="11.26953125" style="11" customWidth="1"/>
+    <col min="3311" max="3311" width="17.5546875" style="11" customWidth="1"/>
+    <col min="3312" max="3312" width="11.21875" style="11" customWidth="1"/>
     <col min="3313" max="3313" width="25" style="11" customWidth="1"/>
-    <col min="3314" max="3314" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3315" max="3315" width="28.7265625" style="11" customWidth="1"/>
-    <col min="3316" max="3316" width="19.1796875" style="11" customWidth="1"/>
-    <col min="3317" max="3317" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3318" max="3318" width="22.1796875" style="11" customWidth="1"/>
-    <col min="3319" max="3322" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3314" max="3314" width="10.21875" style="11" customWidth="1"/>
+    <col min="3315" max="3315" width="28.77734375" style="11" customWidth="1"/>
+    <col min="3316" max="3316" width="19.21875" style="11" customWidth="1"/>
+    <col min="3317" max="3317" width="10.21875" style="11" customWidth="1"/>
+    <col min="3318" max="3318" width="22.21875" style="11" customWidth="1"/>
+    <col min="3319" max="3322" width="10.21875" style="11" customWidth="1"/>
     <col min="3323" max="3323" width="9" style="11" customWidth="1"/>
-    <col min="3324" max="3325" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3324" max="3325" width="10.21875" style="11" customWidth="1"/>
     <col min="3326" max="3326" width="9" style="11" customWidth="1"/>
-    <col min="3327" max="3327" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3328" max="3328" width="16.26953125" style="11" customWidth="1"/>
-    <col min="3329" max="3329" width="20.54296875" style="11" customWidth="1"/>
-    <col min="3330" max="3330" width="14.54296875" style="11" customWidth="1"/>
-    <col min="3331" max="3331" width="9.1796875" style="11"/>
-    <col min="3332" max="3332" width="12.54296875" style="11" customWidth="1"/>
-    <col min="3333" max="3550" width="9.1796875" style="11"/>
-    <col min="3551" max="3551" width="11.453125" style="11" customWidth="1"/>
-    <col min="3552" max="3552" width="10.453125" style="11" customWidth="1"/>
-    <col min="3553" max="3553" width="12.81640625" style="11" customWidth="1"/>
-    <col min="3554" max="3554" width="12.7265625" style="11" customWidth="1"/>
-    <col min="3555" max="3556" width="27.26953125" style="11" customWidth="1"/>
+    <col min="3327" max="3327" width="10.21875" style="11" customWidth="1"/>
+    <col min="3328" max="3328" width="16.21875" style="11" customWidth="1"/>
+    <col min="3329" max="3329" width="20.5546875" style="11" customWidth="1"/>
+    <col min="3330" max="3330" width="14.5546875" style="11" customWidth="1"/>
+    <col min="3331" max="3331" width="9.21875" style="11"/>
+    <col min="3332" max="3332" width="12.5546875" style="11" customWidth="1"/>
+    <col min="3333" max="3550" width="9.21875" style="11"/>
+    <col min="3551" max="3551" width="11.44140625" style="11" customWidth="1"/>
+    <col min="3552" max="3552" width="10.44140625" style="11" customWidth="1"/>
+    <col min="3553" max="3554" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3555" max="3556" width="27.21875" style="11" customWidth="1"/>
     <col min="3557" max="3557" width="25" style="11" customWidth="1"/>
-    <col min="3558" max="3558" width="8.81640625" style="11" customWidth="1"/>
-    <col min="3559" max="3559" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3560" max="3560" width="10.26953125" style="11" customWidth="1"/>
-    <col min="3561" max="3561" width="21.1796875" style="11" customWidth="1"/>
-    <col min="3562" max="3562" width="17.81640625" style="11" customWidth="1"/>
+    <col min="3558" max="3558" width="8.77734375" style="11" customWidth="1"/>
+    <col min="3559" max="3560" width="10.21875" style="11" customWidth="1"/>
+    <col min="3561" max="3561" width="21.21875" style="11" customWidth="1"/>
+    <col min="3562" max="3562" width="17.77734375" style="11" customWidth="1"/>
     <col min="3563" max="3563" width="13" style="11" customWidth="1"/>
-    <col min="3564" max="3564" width="17.7265625" style="11" customWidth="1"/>
-    <col min="3565" max="3565" width="14.54296875" style="11" customWidth="1"/>
+    <col min="3564" max="3564" width="17.77734375" style="11" customWidth="1"/>
+    <col min="3565" max="3565" width="14.5546875" style="11" customWidth="1"/>
     <col min="3566" max="3566" width="16" style="11" customWidth="1"/>
-    <col min="3567" max="3567" width="17.54296875" style="11" customWidth="1"/>
-    <col min="3568" max="3568" width="11.26953125" style="11" customWidth="1"/>
+    <col min="3567" max="3567" width="17.5546875" style="11" customWidth="1"/>
+    <col min="3568" max="3568" width="11.21875" style="11" customWidth="1"/>
     <col min="3569" max="3569" width="25" style="11" customWidth="1"/>
-    <col min="3570" max="3570" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3571" max="3571" width="28.7265625" style="11" customWidth="1"/>
-    <col min="3572" max="3572" width="19.1796875" style="11" customWidth="1"/>
-    <col min="3573" max="3573" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3574" max="3574" width="22.1796875" style="11" customWidth="1"/>
-    <col min="3575" max="3578" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3570" max="3570" width="10.21875" style="11" customWidth="1"/>
+    <col min="3571" max="3571" width="28.77734375" style="11" customWidth="1"/>
+    <col min="3572" max="3572" width="19.21875" style="11" customWidth="1"/>
+    <col min="3573" max="3573" width="10.21875" style="11" customWidth="1"/>
+    <col min="3574" max="3574" width="22.21875" style="11" customWidth="1"/>
+    <col min="3575" max="3578" width="10.21875" style="11" customWidth="1"/>
     <col min="3579" max="3579" width="9" style="11" customWidth="1"/>
-    <col min="3580" max="3581" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3580" max="3581" width="10.21875" style="11" customWidth="1"/>
     <col min="3582" max="3582" width="9" style="11" customWidth="1"/>
-    <col min="3583" max="3583" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3584" max="3584" width="16.26953125" style="11" customWidth="1"/>
-    <col min="3585" max="3585" width="20.54296875" style="11" customWidth="1"/>
-    <col min="3586" max="3586" width="14.54296875" style="11" customWidth="1"/>
-    <col min="3587" max="3587" width="9.1796875" style="11"/>
-    <col min="3588" max="3588" width="12.54296875" style="11" customWidth="1"/>
-    <col min="3589" max="3806" width="9.1796875" style="11"/>
-    <col min="3807" max="3807" width="11.453125" style="11" customWidth="1"/>
-    <col min="3808" max="3808" width="10.453125" style="11" customWidth="1"/>
-    <col min="3809" max="3809" width="12.81640625" style="11" customWidth="1"/>
-    <col min="3810" max="3810" width="12.7265625" style="11" customWidth="1"/>
-    <col min="3811" max="3812" width="27.26953125" style="11" customWidth="1"/>
+    <col min="3583" max="3583" width="10.21875" style="11" customWidth="1"/>
+    <col min="3584" max="3584" width="16.21875" style="11" customWidth="1"/>
+    <col min="3585" max="3585" width="20.5546875" style="11" customWidth="1"/>
+    <col min="3586" max="3586" width="14.5546875" style="11" customWidth="1"/>
+    <col min="3587" max="3587" width="9.21875" style="11"/>
+    <col min="3588" max="3588" width="12.5546875" style="11" customWidth="1"/>
+    <col min="3589" max="3806" width="9.21875" style="11"/>
+    <col min="3807" max="3807" width="11.44140625" style="11" customWidth="1"/>
+    <col min="3808" max="3808" width="10.44140625" style="11" customWidth="1"/>
+    <col min="3809" max="3810" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3811" max="3812" width="27.21875" style="11" customWidth="1"/>
     <col min="3813" max="3813" width="25" style="11" customWidth="1"/>
-    <col min="3814" max="3814" width="8.81640625" style="11" customWidth="1"/>
-    <col min="3815" max="3815" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3816" max="3816" width="10.26953125" style="11" customWidth="1"/>
-    <col min="3817" max="3817" width="21.1796875" style="11" customWidth="1"/>
-    <col min="3818" max="3818" width="17.81640625" style="11" customWidth="1"/>
+    <col min="3814" max="3814" width="8.77734375" style="11" customWidth="1"/>
+    <col min="3815" max="3816" width="10.21875" style="11" customWidth="1"/>
+    <col min="3817" max="3817" width="21.21875" style="11" customWidth="1"/>
+    <col min="3818" max="3818" width="17.77734375" style="11" customWidth="1"/>
     <col min="3819" max="3819" width="13" style="11" customWidth="1"/>
-    <col min="3820" max="3820" width="17.7265625" style="11" customWidth="1"/>
-    <col min="3821" max="3821" width="14.54296875" style="11" customWidth="1"/>
+    <col min="3820" max="3820" width="17.77734375" style="11" customWidth="1"/>
+    <col min="3821" max="3821" width="14.5546875" style="11" customWidth="1"/>
     <col min="3822" max="3822" width="16" style="11" customWidth="1"/>
-    <col min="3823" max="3823" width="17.54296875" style="11" customWidth="1"/>
-    <col min="3824" max="3824" width="11.26953125" style="11" customWidth="1"/>
+    <col min="3823" max="3823" width="17.5546875" style="11" customWidth="1"/>
+    <col min="3824" max="3824" width="11.21875" style="11" customWidth="1"/>
     <col min="3825" max="3825" width="25" style="11" customWidth="1"/>
-    <col min="3826" max="3826" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3827" max="3827" width="28.7265625" style="11" customWidth="1"/>
-    <col min="3828" max="3828" width="19.1796875" style="11" customWidth="1"/>
-    <col min="3829" max="3829" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3830" max="3830" width="22.1796875" style="11" customWidth="1"/>
-    <col min="3831" max="3834" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3826" max="3826" width="10.21875" style="11" customWidth="1"/>
+    <col min="3827" max="3827" width="28.77734375" style="11" customWidth="1"/>
+    <col min="3828" max="3828" width="19.21875" style="11" customWidth="1"/>
+    <col min="3829" max="3829" width="10.21875" style="11" customWidth="1"/>
+    <col min="3830" max="3830" width="22.21875" style="11" customWidth="1"/>
+    <col min="3831" max="3834" width="10.21875" style="11" customWidth="1"/>
     <col min="3835" max="3835" width="9" style="11" customWidth="1"/>
-    <col min="3836" max="3837" width="10.1796875" style="11" customWidth="1"/>
+    <col min="3836" max="3837" width="10.21875" style="11" customWidth="1"/>
     <col min="3838" max="3838" width="9" style="11" customWidth="1"/>
-    <col min="3839" max="3839" width="10.1796875" style="11" customWidth="1"/>
-    <col min="3840" max="3840" width="16.26953125" style="11" customWidth="1"/>
-    <col min="3841" max="3841" width="20.54296875" style="11" customWidth="1"/>
-    <col min="3842" max="3842" width="14.54296875" style="11" customWidth="1"/>
-    <col min="3843" max="3843" width="9.1796875" style="11"/>
-    <col min="3844" max="3844" width="12.54296875" style="11" customWidth="1"/>
-    <col min="3845" max="4062" width="9.1796875" style="11"/>
-    <col min="4063" max="4063" width="11.453125" style="11" customWidth="1"/>
-    <col min="4064" max="4064" width="10.453125" style="11" customWidth="1"/>
-    <col min="4065" max="4065" width="12.81640625" style="11" customWidth="1"/>
-    <col min="4066" max="4066" width="12.7265625" style="11" customWidth="1"/>
-    <col min="4067" max="4068" width="27.26953125" style="11" customWidth="1"/>
+    <col min="3839" max="3839" width="10.21875" style="11" customWidth="1"/>
+    <col min="3840" max="3840" width="16.21875" style="11" customWidth="1"/>
+    <col min="3841" max="3841" width="20.5546875" style="11" customWidth="1"/>
+    <col min="3842" max="3842" width="14.5546875" style="11" customWidth="1"/>
+    <col min="3843" max="3843" width="9.21875" style="11"/>
+    <col min="3844" max="3844" width="12.5546875" style="11" customWidth="1"/>
+    <col min="3845" max="4062" width="9.21875" style="11"/>
+    <col min="4063" max="4063" width="11.44140625" style="11" customWidth="1"/>
+    <col min="4064" max="4064" width="10.44140625" style="11" customWidth="1"/>
+    <col min="4065" max="4066" width="12.77734375" style="11" customWidth="1"/>
+    <col min="4067" max="4068" width="27.21875" style="11" customWidth="1"/>
     <col min="4069" max="4069" width="25" style="11" customWidth="1"/>
-    <col min="4070" max="4070" width="8.81640625" style="11" customWidth="1"/>
-    <col min="4071" max="4071" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4072" max="4072" width="10.26953125" style="11" customWidth="1"/>
-    <col min="4073" max="4073" width="21.1796875" style="11" customWidth="1"/>
-    <col min="4074" max="4074" width="17.81640625" style="11" customWidth="1"/>
+    <col min="4070" max="4070" width="8.77734375" style="11" customWidth="1"/>
+    <col min="4071" max="4072" width="10.21875" style="11" customWidth="1"/>
+    <col min="4073" max="4073" width="21.21875" style="11" customWidth="1"/>
+    <col min="4074" max="4074" width="17.77734375" style="11" customWidth="1"/>
     <col min="4075" max="4075" width="13" style="11" customWidth="1"/>
-    <col min="4076" max="4076" width="17.7265625" style="11" customWidth="1"/>
-    <col min="4077" max="4077" width="14.54296875" style="11" customWidth="1"/>
+    <col min="4076" max="4076" width="17.77734375" style="11" customWidth="1"/>
+    <col min="4077" max="4077" width="14.5546875" style="11" customWidth="1"/>
     <col min="4078" max="4078" width="16" style="11" customWidth="1"/>
-    <col min="4079" max="4079" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4080" max="4080" width="11.26953125" style="11" customWidth="1"/>
+    <col min="4079" max="4079" width="17.5546875" style="11" customWidth="1"/>
+    <col min="4080" max="4080" width="11.21875" style="11" customWidth="1"/>
     <col min="4081" max="4081" width="25" style="11" customWidth="1"/>
-    <col min="4082" max="4082" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4083" max="4083" width="28.7265625" style="11" customWidth="1"/>
-    <col min="4084" max="4084" width="19.1796875" style="11" customWidth="1"/>
-    <col min="4085" max="4085" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4086" max="4086" width="22.1796875" style="11" customWidth="1"/>
-    <col min="4087" max="4090" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4082" max="4082" width="10.21875" style="11" customWidth="1"/>
+    <col min="4083" max="4083" width="28.77734375" style="11" customWidth="1"/>
+    <col min="4084" max="4084" width="19.21875" style="11" customWidth="1"/>
+    <col min="4085" max="4085" width="10.21875" style="11" customWidth="1"/>
+    <col min="4086" max="4086" width="22.21875" style="11" customWidth="1"/>
+    <col min="4087" max="4090" width="10.21875" style="11" customWidth="1"/>
     <col min="4091" max="4091" width="9" style="11" customWidth="1"/>
-    <col min="4092" max="4093" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4092" max="4093" width="10.21875" style="11" customWidth="1"/>
     <col min="4094" max="4094" width="9" style="11" customWidth="1"/>
-    <col min="4095" max="4095" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4096" max="4096" width="16.26953125" style="11" customWidth="1"/>
-    <col min="4097" max="4097" width="20.54296875" style="11" customWidth="1"/>
-    <col min="4098" max="4098" width="14.54296875" style="11" customWidth="1"/>
-    <col min="4099" max="4099" width="9.1796875" style="11"/>
-    <col min="4100" max="4100" width="12.54296875" style="11" customWidth="1"/>
-    <col min="4101" max="4318" width="9.1796875" style="11"/>
-    <col min="4319" max="4319" width="11.453125" style="11" customWidth="1"/>
-    <col min="4320" max="4320" width="10.453125" style="11" customWidth="1"/>
-    <col min="4321" max="4321" width="12.81640625" style="11" customWidth="1"/>
-    <col min="4322" max="4322" width="12.7265625" style="11" customWidth="1"/>
-    <col min="4323" max="4324" width="27.26953125" style="11" customWidth="1"/>
+    <col min="4095" max="4095" width="10.21875" style="11" customWidth="1"/>
+    <col min="4096" max="4096" width="16.21875" style="11" customWidth="1"/>
+    <col min="4097" max="4097" width="20.5546875" style="11" customWidth="1"/>
+    <col min="4098" max="4098" width="14.5546875" style="11" customWidth="1"/>
+    <col min="4099" max="4099" width="9.21875" style="11"/>
+    <col min="4100" max="4100" width="12.5546875" style="11" customWidth="1"/>
+    <col min="4101" max="4318" width="9.21875" style="11"/>
+    <col min="4319" max="4319" width="11.44140625" style="11" customWidth="1"/>
+    <col min="4320" max="4320" width="10.44140625" style="11" customWidth="1"/>
+    <col min="4321" max="4322" width="12.77734375" style="11" customWidth="1"/>
+    <col min="4323" max="4324" width="27.21875" style="11" customWidth="1"/>
     <col min="4325" max="4325" width="25" style="11" customWidth="1"/>
-    <col min="4326" max="4326" width="8.81640625" style="11" customWidth="1"/>
-    <col min="4327" max="4327" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4328" max="4328" width="10.26953125" style="11" customWidth="1"/>
-    <col min="4329" max="4329" width="21.1796875" style="11" customWidth="1"/>
-    <col min="4330" max="4330" width="17.81640625" style="11" customWidth="1"/>
+    <col min="4326" max="4326" width="8.77734375" style="11" customWidth="1"/>
+    <col min="4327" max="4328" width="10.21875" style="11" customWidth="1"/>
+    <col min="4329" max="4329" width="21.21875" style="11" customWidth="1"/>
+    <col min="4330" max="4330" width="17.77734375" style="11" customWidth="1"/>
     <col min="4331" max="4331" width="13" style="11" customWidth="1"/>
-    <col min="4332" max="4332" width="17.7265625" style="11" customWidth="1"/>
-    <col min="4333" max="4333" width="14.54296875" style="11" customWidth="1"/>
+    <col min="4332" max="4332" width="17.77734375" style="11" customWidth="1"/>
+    <col min="4333" max="4333" width="14.5546875" style="11" customWidth="1"/>
     <col min="4334" max="4334" width="16" style="11" customWidth="1"/>
-    <col min="4335" max="4335" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4336" max="4336" width="11.26953125" style="11" customWidth="1"/>
+    <col min="4335" max="4335" width="17.5546875" style="11" customWidth="1"/>
+    <col min="4336" max="4336" width="11.21875" style="11" customWidth="1"/>
     <col min="4337" max="4337" width="25" style="11" customWidth="1"/>
-    <col min="4338" max="4338" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4339" max="4339" width="28.7265625" style="11" customWidth="1"/>
-    <col min="4340" max="4340" width="19.1796875" style="11" customWidth="1"/>
-    <col min="4341" max="4341" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4342" max="4342" width="22.1796875" style="11" customWidth="1"/>
-    <col min="4343" max="4346" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4338" max="4338" width="10.21875" style="11" customWidth="1"/>
+    <col min="4339" max="4339" width="28.77734375" style="11" customWidth="1"/>
+    <col min="4340" max="4340" width="19.21875" style="11" customWidth="1"/>
+    <col min="4341" max="4341" width="10.21875" style="11" customWidth="1"/>
+    <col min="4342" max="4342" width="22.21875" style="11" customWidth="1"/>
+    <col min="4343" max="4346" width="10.21875" style="11" customWidth="1"/>
     <col min="4347" max="4347" width="9" style="11" customWidth="1"/>
-    <col min="4348" max="4349" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4348" max="4349" width="10.21875" style="11" customWidth="1"/>
     <col min="4350" max="4350" width="9" style="11" customWidth="1"/>
-    <col min="4351" max="4351" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4352" max="4352" width="16.26953125" style="11" customWidth="1"/>
-    <col min="4353" max="4353" width="20.54296875" style="11" customWidth="1"/>
-    <col min="4354" max="4354" width="14.54296875" style="11" customWidth="1"/>
-    <col min="4355" max="4355" width="9.1796875" style="11"/>
-    <col min="4356" max="4356" width="12.54296875" style="11" customWidth="1"/>
-    <col min="4357" max="4574" width="9.1796875" style="11"/>
-    <col min="4575" max="4575" width="11.453125" style="11" customWidth="1"/>
-    <col min="4576" max="4576" width="10.453125" style="11" customWidth="1"/>
-    <col min="4577" max="4577" width="12.81640625" style="11" customWidth="1"/>
-    <col min="4578" max="4578" width="12.7265625" style="11" customWidth="1"/>
-    <col min="4579" max="4580" width="27.26953125" style="11" customWidth="1"/>
+    <col min="4351" max="4351" width="10.21875" style="11" customWidth="1"/>
+    <col min="4352" max="4352" width="16.21875" style="11" customWidth="1"/>
+    <col min="4353" max="4353" width="20.5546875" style="11" customWidth="1"/>
+    <col min="4354" max="4354" width="14.5546875" style="11" customWidth="1"/>
+    <col min="4355" max="4355" width="9.21875" style="11"/>
+    <col min="4356" max="4356" width="12.5546875" style="11" customWidth="1"/>
+    <col min="4357" max="4574" width="9.21875" style="11"/>
+    <col min="4575" max="4575" width="11.44140625" style="11" customWidth="1"/>
+    <col min="4576" max="4576" width="10.44140625" style="11" customWidth="1"/>
+    <col min="4577" max="4578" width="12.77734375" style="11" customWidth="1"/>
+    <col min="4579" max="4580" width="27.21875" style="11" customWidth="1"/>
     <col min="4581" max="4581" width="25" style="11" customWidth="1"/>
-    <col min="4582" max="4582" width="8.81640625" style="11" customWidth="1"/>
-    <col min="4583" max="4583" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4584" max="4584" width="10.26953125" style="11" customWidth="1"/>
-    <col min="4585" max="4585" width="21.1796875" style="11" customWidth="1"/>
-    <col min="4586" max="4586" width="17.81640625" style="11" customWidth="1"/>
+    <col min="4582" max="4582" width="8.77734375" style="11" customWidth="1"/>
+    <col min="4583" max="4584" width="10.21875" style="11" customWidth="1"/>
+    <col min="4585" max="4585" width="21.21875" style="11" customWidth="1"/>
+    <col min="4586" max="4586" width="17.77734375" style="11" customWidth="1"/>
     <col min="4587" max="4587" width="13" style="11" customWidth="1"/>
-    <col min="4588" max="4588" width="17.7265625" style="11" customWidth="1"/>
-    <col min="4589" max="4589" width="14.54296875" style="11" customWidth="1"/>
+    <col min="4588" max="4588" width="17.77734375" style="11" customWidth="1"/>
+    <col min="4589" max="4589" width="14.5546875" style="11" customWidth="1"/>
     <col min="4590" max="4590" width="16" style="11" customWidth="1"/>
-    <col min="4591" max="4591" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4592" max="4592" width="11.26953125" style="11" customWidth="1"/>
+    <col min="4591" max="4591" width="17.5546875" style="11" customWidth="1"/>
+    <col min="4592" max="4592" width="11.21875" style="11" customWidth="1"/>
     <col min="4593" max="4593" width="25" style="11" customWidth="1"/>
-    <col min="4594" max="4594" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4595" max="4595" width="28.7265625" style="11" customWidth="1"/>
-    <col min="4596" max="4596" width="19.1796875" style="11" customWidth="1"/>
-    <col min="4597" max="4597" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4598" max="4598" width="22.1796875" style="11" customWidth="1"/>
-    <col min="4599" max="4602" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4594" max="4594" width="10.21875" style="11" customWidth="1"/>
+    <col min="4595" max="4595" width="28.77734375" style="11" customWidth="1"/>
+    <col min="4596" max="4596" width="19.21875" style="11" customWidth="1"/>
+    <col min="4597" max="4597" width="10.21875" style="11" customWidth="1"/>
+    <col min="4598" max="4598" width="22.21875" style="11" customWidth="1"/>
+    <col min="4599" max="4602" width="10.21875" style="11" customWidth="1"/>
     <col min="4603" max="4603" width="9" style="11" customWidth="1"/>
-    <col min="4604" max="4605" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4604" max="4605" width="10.21875" style="11" customWidth="1"/>
     <col min="4606" max="4606" width="9" style="11" customWidth="1"/>
-    <col min="4607" max="4607" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4608" max="4608" width="16.26953125" style="11" customWidth="1"/>
-    <col min="4609" max="4609" width="20.54296875" style="11" customWidth="1"/>
-    <col min="4610" max="4610" width="14.54296875" style="11" customWidth="1"/>
-    <col min="4611" max="4611" width="9.1796875" style="11"/>
-    <col min="4612" max="4612" width="12.54296875" style="11" customWidth="1"/>
-    <col min="4613" max="4830" width="9.1796875" style="11"/>
-    <col min="4831" max="4831" width="11.453125" style="11" customWidth="1"/>
-    <col min="4832" max="4832" width="10.453125" style="11" customWidth="1"/>
-    <col min="4833" max="4833" width="12.81640625" style="11" customWidth="1"/>
-    <col min="4834" max="4834" width="12.7265625" style="11" customWidth="1"/>
-    <col min="4835" max="4836" width="27.26953125" style="11" customWidth="1"/>
+    <col min="4607" max="4607" width="10.21875" style="11" customWidth="1"/>
+    <col min="4608" max="4608" width="16.21875" style="11" customWidth="1"/>
+    <col min="4609" max="4609" width="20.5546875" style="11" customWidth="1"/>
+    <col min="4610" max="4610" width="14.5546875" style="11" customWidth="1"/>
+    <col min="4611" max="4611" width="9.21875" style="11"/>
+    <col min="4612" max="4612" width="12.5546875" style="11" customWidth="1"/>
+    <col min="4613" max="4830" width="9.21875" style="11"/>
+    <col min="4831" max="4831" width="11.44140625" style="11" customWidth="1"/>
+    <col min="4832" max="4832" width="10.44140625" style="11" customWidth="1"/>
+    <col min="4833" max="4834" width="12.77734375" style="11" customWidth="1"/>
+    <col min="4835" max="4836" width="27.21875" style="11" customWidth="1"/>
     <col min="4837" max="4837" width="25" style="11" customWidth="1"/>
-    <col min="4838" max="4838" width="8.81640625" style="11" customWidth="1"/>
-    <col min="4839" max="4839" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4840" max="4840" width="10.26953125" style="11" customWidth="1"/>
-    <col min="4841" max="4841" width="21.1796875" style="11" customWidth="1"/>
-    <col min="4842" max="4842" width="17.81640625" style="11" customWidth="1"/>
+    <col min="4838" max="4838" width="8.77734375" style="11" customWidth="1"/>
+    <col min="4839" max="4840" width="10.21875" style="11" customWidth="1"/>
+    <col min="4841" max="4841" width="21.21875" style="11" customWidth="1"/>
+    <col min="4842" max="4842" width="17.77734375" style="11" customWidth="1"/>
     <col min="4843" max="4843" width="13" style="11" customWidth="1"/>
-    <col min="4844" max="4844" width="17.7265625" style="11" customWidth="1"/>
-    <col min="4845" max="4845" width="14.54296875" style="11" customWidth="1"/>
+    <col min="4844" max="4844" width="17.77734375" style="11" customWidth="1"/>
+    <col min="4845" max="4845" width="14.5546875" style="11" customWidth="1"/>
     <col min="4846" max="4846" width="16" style="11" customWidth="1"/>
-    <col min="4847" max="4847" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4848" max="4848" width="11.26953125" style="11" customWidth="1"/>
+    <col min="4847" max="4847" width="17.5546875" style="11" customWidth="1"/>
+    <col min="4848" max="4848" width="11.21875" style="11" customWidth="1"/>
     <col min="4849" max="4849" width="25" style="11" customWidth="1"/>
-    <col min="4850" max="4850" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4851" max="4851" width="28.7265625" style="11" customWidth="1"/>
-    <col min="4852" max="4852" width="19.1796875" style="11" customWidth="1"/>
-    <col min="4853" max="4853" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4854" max="4854" width="22.1796875" style="11" customWidth="1"/>
-    <col min="4855" max="4858" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4850" max="4850" width="10.21875" style="11" customWidth="1"/>
+    <col min="4851" max="4851" width="28.77734375" style="11" customWidth="1"/>
+    <col min="4852" max="4852" width="19.21875" style="11" customWidth="1"/>
+    <col min="4853" max="4853" width="10.21875" style="11" customWidth="1"/>
+    <col min="4854" max="4854" width="22.21875" style="11" customWidth="1"/>
+    <col min="4855" max="4858" width="10.21875" style="11" customWidth="1"/>
     <col min="4859" max="4859" width="9" style="11" customWidth="1"/>
-    <col min="4860" max="4861" width="10.1796875" style="11" customWidth="1"/>
+    <col min="4860" max="4861" width="10.21875" style="11" customWidth="1"/>
     <col min="4862" max="4862" width="9" style="11" customWidth="1"/>
-    <col min="4863" max="4863" width="10.1796875" style="11" customWidth="1"/>
-    <col min="4864" max="4864" width="16.26953125" style="11" customWidth="1"/>
-    <col min="4865" max="4865" width="20.54296875" style="11" customWidth="1"/>
-    <col min="4866" max="4866" width="14.54296875" style="11" customWidth="1"/>
-    <col min="4867" max="4867" width="9.1796875" style="11"/>
-    <col min="4868" max="4868" width="12.54296875" style="11" customWidth="1"/>
-    <col min="4869" max="5086" width="9.1796875" style="11"/>
-    <col min="5087" max="5087" width="11.453125" style="11" customWidth="1"/>
-    <col min="5088" max="5088" width="10.453125" style="11" customWidth="1"/>
-    <col min="5089" max="5089" width="12.81640625" style="11" customWidth="1"/>
-    <col min="5090" max="5090" width="12.7265625" style="11" customWidth="1"/>
-    <col min="5091" max="5092" width="27.26953125" style="11" customWidth="1"/>
+    <col min="4863" max="4863" width="10.21875" style="11" customWidth="1"/>
+    <col min="4864" max="4864" width="16.21875" style="11" customWidth="1"/>
+    <col min="4865" max="4865" width="20.5546875" style="11" customWidth="1"/>
+    <col min="4866" max="4866" width="14.5546875" style="11" customWidth="1"/>
+    <col min="4867" max="4867" width="9.21875" style="11"/>
+    <col min="4868" max="4868" width="12.5546875" style="11" customWidth="1"/>
+    <col min="4869" max="5086" width="9.21875" style="11"/>
+    <col min="5087" max="5087" width="11.44140625" style="11" customWidth="1"/>
+    <col min="5088" max="5088" width="10.44140625" style="11" customWidth="1"/>
+    <col min="5089" max="5090" width="12.77734375" style="11" customWidth="1"/>
+    <col min="5091" max="5092" width="27.21875" style="11" customWidth="1"/>
     <col min="5093" max="5093" width="25" style="11" customWidth="1"/>
-    <col min="5094" max="5094" width="8.81640625" style="11" customWidth="1"/>
-    <col min="5095" max="5095" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5096" max="5096" width="10.26953125" style="11" customWidth="1"/>
-    <col min="5097" max="5097" width="21.1796875" style="11" customWidth="1"/>
-    <col min="5098" max="5098" width="17.81640625" style="11" customWidth="1"/>
+    <col min="5094" max="5094" width="8.77734375" style="11" customWidth="1"/>
+    <col min="5095" max="5096" width="10.21875" style="11" customWidth="1"/>
+    <col min="5097" max="5097" width="21.21875" style="11" customWidth="1"/>
+    <col min="5098" max="5098" width="17.77734375" style="11" customWidth="1"/>
     <col min="5099" max="5099" width="13" style="11" customWidth="1"/>
-    <col min="5100" max="5100" width="17.7265625" style="11" customWidth="1"/>
-    <col min="5101" max="5101" width="14.54296875" style="11" customWidth="1"/>
+    <col min="5100" max="5100" width="17.77734375" style="11" customWidth="1"/>
+    <col min="5101" max="5101" width="14.5546875" style="11" customWidth="1"/>
     <col min="5102" max="5102" width="16" style="11" customWidth="1"/>
-    <col min="5103" max="5103" width="17.54296875" style="11" customWidth="1"/>
-    <col min="5104" max="5104" width="11.26953125" style="11" customWidth="1"/>
+    <col min="5103" max="5103" width="17.5546875" style="11" customWidth="1"/>
+    <col min="5104" max="5104" width="11.21875" style="11" customWidth="1"/>
     <col min="5105" max="5105" width="25" style="11" customWidth="1"/>
-    <col min="5106" max="5106" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5107" max="5107" width="28.7265625" style="11" customWidth="1"/>
-    <col min="5108" max="5108" width="19.1796875" style="11" customWidth="1"/>
-    <col min="5109" max="5109" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5110" max="5110" width="22.1796875" style="11" customWidth="1"/>
-    <col min="5111" max="5114" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5106" max="5106" width="10.21875" style="11" customWidth="1"/>
+    <col min="5107" max="5107" width="28.77734375" style="11" customWidth="1"/>
+    <col min="5108" max="5108" width="19.21875" style="11" customWidth="1"/>
+    <col min="5109" max="5109" width="10.21875" style="11" customWidth="1"/>
+    <col min="5110" max="5110" width="22.21875" style="11" customWidth="1"/>
+    <col min="5111" max="5114" width="10.21875" style="11" customWidth="1"/>
     <col min="5115" max="5115" width="9" style="11" customWidth="1"/>
-    <col min="5116" max="5117" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5116" max="5117" width="10.21875" style="11" customWidth="1"/>
     <col min="5118" max="5118" width="9" style="11" customWidth="1"/>
-    <col min="5119" max="5119" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5120" max="5120" width="16.26953125" style="11" customWidth="1"/>
-    <col min="5121" max="5121" width="20.54296875" style="11" customWidth="1"/>
-    <col min="5122" max="5122" width="14.54296875" style="11" customWidth="1"/>
-    <col min="5123" max="5123" width="9.1796875" style="11"/>
-    <col min="5124" max="5124" width="12.54296875" style="11" customWidth="1"/>
-    <col min="5125" max="5342" width="9.1796875" style="11"/>
-    <col min="5343" max="5343" width="11.453125" style="11" customWidth="1"/>
-    <col min="5344" max="5344" width="10.453125" style="11" customWidth="1"/>
-    <col min="5345" max="5345" width="12.81640625" style="11" customWidth="1"/>
-    <col min="5346" max="5346" width="12.7265625" style="11" customWidth="1"/>
-    <col min="5347" max="5348" width="27.26953125" style="11" customWidth="1"/>
+    <col min="5119" max="5119" width="10.21875" style="11" customWidth="1"/>
+    <col min="5120" max="5120" width="16.21875" style="11" customWidth="1"/>
+    <col min="5121" max="5121" width="20.5546875" style="11" customWidth="1"/>
+    <col min="5122" max="5122" width="14.5546875" style="11" customWidth="1"/>
+    <col min="5123" max="5123" width="9.21875" style="11"/>
+    <col min="5124" max="5124" width="12.5546875" style="11" customWidth="1"/>
+    <col min="5125" max="5342" width="9.21875" style="11"/>
+    <col min="5343" max="5343" width="11.44140625" style="11" customWidth="1"/>
+    <col min="5344" max="5344" width="10.44140625" style="11" customWidth="1"/>
+    <col min="5345" max="5346" width="12.77734375" style="11" customWidth="1"/>
+    <col min="5347" max="5348" width="27.21875" style="11" customWidth="1"/>
     <col min="5349" max="5349" width="25" style="11" customWidth="1"/>
-    <col min="5350" max="5350" width="8.81640625" style="11" customWidth="1"/>
-    <col min="5351" max="5351" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5352" max="5352" width="10.26953125" style="11" customWidth="1"/>
-    <col min="5353" max="5353" width="21.1796875" style="11" customWidth="1"/>
-    <col min="5354" max="5354" width="17.81640625" style="11" customWidth="1"/>
+    <col min="5350" max="5350" width="8.77734375" style="11" customWidth="1"/>
+    <col min="5351" max="5352" width="10.21875" style="11" customWidth="1"/>
+    <col min="5353" max="5353" width="21.21875" style="11" customWidth="1"/>
+    <col min="5354" max="5354" width="17.77734375" style="11" customWidth="1"/>
     <col min="5355" max="5355" width="13" style="11" customWidth="1"/>
-    <col min="5356" max="5356" width="17.7265625" style="11" customWidth="1"/>
-    <col min="5357" max="5357" width="14.54296875" style="11" customWidth="1"/>
+    <col min="5356" max="5356" width="17.77734375" style="11" customWidth="1"/>
+    <col min="5357" max="5357" width="14.5546875" style="11" customWidth="1"/>
     <col min="5358" max="5358" width="16" style="11" customWidth="1"/>
-    <col min="5359" max="5359" width="17.54296875" style="11" customWidth="1"/>
-    <col min="5360" max="5360" width="11.26953125" style="11" customWidth="1"/>
+    <col min="5359" max="5359" width="17.5546875" style="11" customWidth="1"/>
+    <col min="5360" max="5360" width="11.21875" style="11" customWidth="1"/>
     <col min="5361" max="5361" width="25" style="11" customWidth="1"/>
-    <col min="5362" max="5362" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5363" max="5363" width="28.7265625" style="11" customWidth="1"/>
-    <col min="5364" max="5364" width="19.1796875" style="11" customWidth="1"/>
-    <col min="5365" max="5365" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5366" max="5366" width="22.1796875" style="11" customWidth="1"/>
-    <col min="5367" max="5370" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5362" max="5362" width="10.21875" style="11" customWidth="1"/>
+    <col min="5363" max="5363" width="28.77734375" style="11" customWidth="1"/>
+    <col min="5364" max="5364" width="19.21875" style="11" customWidth="1"/>
+    <col min="5365" max="5365" width="10.21875" style="11" customWidth="1"/>
+    <col min="5366" max="5366" width="22.21875" style="11" customWidth="1"/>
+    <col min="5367" max="5370" width="10.21875" style="11" customWidth="1"/>
     <col min="5371" max="5371" width="9" style="11" customWidth="1"/>
-    <col min="5372" max="5373" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5372" max="5373" width="10.21875" style="11" customWidth="1"/>
     <col min="5374" max="5374" width="9" style="11" customWidth="1"/>
-    <col min="5375" max="5375" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5376" max="5376" width="16.26953125" style="11" customWidth="1"/>
-    <col min="5377" max="5377" width="20.54296875" style="11" customWidth="1"/>
-    <col min="5378" max="5378" width="14.54296875" style="11" customWidth="1"/>
-    <col min="5379" max="5379" width="9.1796875" style="11"/>
-    <col min="5380" max="5380" width="12.54296875" style="11" customWidth="1"/>
-    <col min="5381" max="5598" width="9.1796875" style="11"/>
-    <col min="5599" max="5599" width="11.453125" style="11" customWidth="1"/>
-    <col min="5600" max="5600" width="10.453125" style="11" customWidth="1"/>
-    <col min="5601" max="5601" width="12.81640625" style="11" customWidth="1"/>
-    <col min="5602" max="5602" width="12.7265625" style="11" customWidth="1"/>
-    <col min="5603" max="5604" width="27.26953125" style="11" customWidth="1"/>
+    <col min="5375" max="5375" width="10.21875" style="11" customWidth="1"/>
+    <col min="5376" max="5376" width="16.21875" style="11" customWidth="1"/>
+    <col min="5377" max="5377" width="20.5546875" style="11" customWidth="1"/>
+    <col min="5378" max="5378" width="14.5546875" style="11" customWidth="1"/>
+    <col min="5379" max="5379" width="9.21875" style="11"/>
+    <col min="5380" max="5380" width="12.5546875" style="11" customWidth="1"/>
+    <col min="5381" max="5598" width="9.21875" style="11"/>
+    <col min="5599" max="5599" width="11.44140625" style="11" customWidth="1"/>
+    <col min="5600" max="5600" width="10.44140625" style="11" customWidth="1"/>
+    <col min="5601" max="5602" width="12.77734375" style="11" customWidth="1"/>
+    <col min="5603" max="5604" width="27.21875" style="11" customWidth="1"/>
     <col min="5605" max="5605" width="25" style="11" customWidth="1"/>
-    <col min="5606" max="5606" width="8.81640625" style="11" customWidth="1"/>
-    <col min="5607" max="5607" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5608" max="5608" width="10.26953125" style="11" customWidth="1"/>
-    <col min="5609" max="5609" width="21.1796875" style="11" customWidth="1"/>
-    <col min="5610" max="5610" width="17.81640625" style="11" customWidth="1"/>
+    <col min="5606" max="5606" width="8.77734375" style="11" customWidth="1"/>
+    <col min="5607" max="5608" width="10.21875" style="11" customWidth="1"/>
+    <col min="5609" max="5609" width="21.21875" style="11" customWidth="1"/>
+    <col min="5610" max="5610" width="17.77734375" style="11" customWidth="1"/>
     <col min="5611" max="5611" width="13" style="11" customWidth="1"/>
-    <col min="5612" max="5612" width="17.7265625" style="11" customWidth="1"/>
-    <col min="5613" max="5613" width="14.54296875" style="11" customWidth="1"/>
+    <col min="5612" max="5612" width="17.77734375" style="11" customWidth="1"/>
+    <col min="5613" max="5613" width="14.5546875" style="11" customWidth="1"/>
     <col min="5614" max="5614" width="16" style="11" customWidth="1"/>
-    <col min="5615" max="5615" width="17.54296875" style="11" customWidth="1"/>
-    <col min="5616" max="5616" width="11.26953125" style="11" customWidth="1"/>
+    <col min="5615" max="5615" width="17.5546875" style="11" customWidth="1"/>
+    <col min="5616" max="5616" width="11.21875" style="11" customWidth="1"/>
     <col min="5617" max="5617" width="25" style="11" customWidth="1"/>
-    <col min="5618" max="5618" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5619" max="5619" width="28.7265625" style="11" customWidth="1"/>
-    <col min="5620" max="5620" width="19.1796875" style="11" customWidth="1"/>
-    <col min="5621" max="5621" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5622" max="5622" width="22.1796875" style="11" customWidth="1"/>
-    <col min="5623" max="5626" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5618" max="5618" width="10.21875" style="11" customWidth="1"/>
+    <col min="5619" max="5619" width="28.77734375" style="11" customWidth="1"/>
+    <col min="5620" max="5620" width="19.21875" style="11" customWidth="1"/>
+    <col min="5621" max="5621" width="10.21875" style="11" customWidth="1"/>
+    <col min="5622" max="5622" width="22.21875" style="11" customWidth="1"/>
+    <col min="5623" max="5626" width="10.21875" style="11" customWidth="1"/>
     <col min="5627" max="5627" width="9" style="11" customWidth="1"/>
-    <col min="5628" max="5629" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5628" max="5629" width="10.21875" style="11" customWidth="1"/>
     <col min="5630" max="5630" width="9" style="11" customWidth="1"/>
-    <col min="5631" max="5631" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5632" max="5632" width="16.26953125" style="11" customWidth="1"/>
-    <col min="5633" max="5633" width="20.54296875" style="11" customWidth="1"/>
-    <col min="5634" max="5634" width="14.54296875" style="11" customWidth="1"/>
-    <col min="5635" max="5635" width="9.1796875" style="11"/>
-    <col min="5636" max="5636" width="12.54296875" style="11" customWidth="1"/>
-    <col min="5637" max="5854" width="9.1796875" style="11"/>
-    <col min="5855" max="5855" width="11.453125" style="11" customWidth="1"/>
-    <col min="5856" max="5856" width="10.453125" style="11" customWidth="1"/>
-    <col min="5857" max="5857" width="12.81640625" style="11" customWidth="1"/>
-    <col min="5858" max="5858" width="12.7265625" style="11" customWidth="1"/>
-    <col min="5859" max="5860" width="27.26953125" style="11" customWidth="1"/>
+    <col min="5631" max="5631" width="10.21875" style="11" customWidth="1"/>
+    <col min="5632" max="5632" width="16.21875" style="11" customWidth="1"/>
+    <col min="5633" max="5633" width="20.5546875" style="11" customWidth="1"/>
+    <col min="5634" max="5634" width="14.5546875" style="11" customWidth="1"/>
+    <col min="5635" max="5635" width="9.21875" style="11"/>
+    <col min="5636" max="5636" width="12.5546875" style="11" customWidth="1"/>
+    <col min="5637" max="5854" width="9.21875" style="11"/>
+    <col min="5855" max="5855" width="11.44140625" style="11" customWidth="1"/>
+    <col min="5856" max="5856" width="10.44140625" style="11" customWidth="1"/>
+    <col min="5857" max="5858" width="12.77734375" style="11" customWidth="1"/>
+    <col min="5859" max="5860" width="27.21875" style="11" customWidth="1"/>
     <col min="5861" max="5861" width="25" style="11" customWidth="1"/>
-    <col min="5862" max="5862" width="8.81640625" style="11" customWidth="1"/>
-    <col min="5863" max="5863" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5864" max="5864" width="10.26953125" style="11" customWidth="1"/>
-    <col min="5865" max="5865" width="21.1796875" style="11" customWidth="1"/>
-    <col min="5866" max="5866" width="17.81640625" style="11" customWidth="1"/>
+    <col min="5862" max="5862" width="8.77734375" style="11" customWidth="1"/>
+    <col min="5863" max="5864" width="10.21875" style="11" customWidth="1"/>
+    <col min="5865" max="5865" width="21.21875" style="11" customWidth="1"/>
+    <col min="5866" max="5866" width="17.77734375" style="11" customWidth="1"/>
     <col min="5867" max="5867" width="13" style="11" customWidth="1"/>
-    <col min="5868" max="5868" width="17.7265625" style="11" customWidth="1"/>
-    <col min="5869" max="5869" width="14.54296875" style="11" customWidth="1"/>
+    <col min="5868" max="5868" width="17.77734375" style="11" customWidth="1"/>
+    <col min="5869" max="5869" width="14.5546875" style="11" customWidth="1"/>
     <col min="5870" max="5870" width="16" style="11" customWidth="1"/>
-    <col min="5871" max="5871" width="17.54296875" style="11" customWidth="1"/>
-    <col min="5872" max="5872" width="11.26953125" style="11" customWidth="1"/>
+    <col min="5871" max="5871" width="17.5546875" style="11" customWidth="1"/>
+    <col min="5872" max="5872" width="11.21875" style="11" customWidth="1"/>
     <col min="5873" max="5873" width="25" style="11" customWidth="1"/>
-    <col min="5874" max="5874" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5875" max="5875" width="28.7265625" style="11" customWidth="1"/>
-    <col min="5876" max="5876" width="19.1796875" style="11" customWidth="1"/>
-    <col min="5877" max="5877" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5878" max="5878" width="22.1796875" style="11" customWidth="1"/>
-    <col min="5879" max="5882" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5874" max="5874" width="10.21875" style="11" customWidth="1"/>
+    <col min="5875" max="5875" width="28.77734375" style="11" customWidth="1"/>
+    <col min="5876" max="5876" width="19.21875" style="11" customWidth="1"/>
+    <col min="5877" max="5877" width="10.21875" style="11" customWidth="1"/>
+    <col min="5878" max="5878" width="22.21875" style="11" customWidth="1"/>
+    <col min="5879" max="5882" width="10.21875" style="11" customWidth="1"/>
     <col min="5883" max="5883" width="9" style="11" customWidth="1"/>
-    <col min="5884" max="5885" width="10.1796875" style="11" customWidth="1"/>
+    <col min="5884" max="5885" width="10.21875" style="11" customWidth="1"/>
     <col min="5886" max="5886" width="9" style="11" customWidth="1"/>
-    <col min="5887" max="5887" width="10.1796875" style="11" customWidth="1"/>
-    <col min="5888" max="5888" width="16.26953125" style="11" customWidth="1"/>
-    <col min="5889" max="5889" width="20.54296875" style="11" customWidth="1"/>
-    <col min="5890" max="5890" width="14.54296875" style="11" customWidth="1"/>
-    <col min="5891" max="5891" width="9.1796875" style="11"/>
-    <col min="5892" max="5892" width="12.54296875" style="11" customWidth="1"/>
-    <col min="5893" max="6110" width="9.1796875" style="11"/>
-    <col min="6111" max="6111" width="11.453125" style="11" customWidth="1"/>
-    <col min="6112" max="6112" width="10.453125" style="11" customWidth="1"/>
-    <col min="6113" max="6113" width="12.81640625" style="11" customWidth="1"/>
-    <col min="6114" max="6114" width="12.7265625" style="11" customWidth="1"/>
-    <col min="6115" max="6116" width="27.26953125" style="11" customWidth="1"/>
+    <col min="5887" max="5887" width="10.21875" style="11" customWidth="1"/>
+    <col min="5888" max="5888" width="16.21875" style="11" customWidth="1"/>
+    <col min="5889" max="5889" width="20.5546875" style="11" customWidth="1"/>
+    <col min="5890" max="5890" width="14.5546875" style="11" customWidth="1"/>
+    <col min="5891" max="5891" width="9.21875" style="11"/>
+    <col min="5892" max="5892" width="12.5546875" style="11" customWidth="1"/>
+    <col min="5893" max="6110" width="9.21875" style="11"/>
+    <col min="6111" max="6111" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6112" max="6112" width="10.44140625" style="11" customWidth="1"/>
+    <col min="6113" max="6114" width="12.77734375" style="11" customWidth="1"/>
+    <col min="6115" max="6116" width="27.21875" style="11" customWidth="1"/>
     <col min="6117" max="6117" width="25" style="11" customWidth="1"/>
-    <col min="6118" max="6118" width="8.81640625" style="11" customWidth="1"/>
-    <col min="6119" max="6119" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6120" max="6120" width="10.26953125" style="11" customWidth="1"/>
-    <col min="6121" max="6121" width="21.1796875" style="11" customWidth="1"/>
-    <col min="6122" max="6122" width="17.81640625" style="11" customWidth="1"/>
+    <col min="6118" max="6118" width="8.77734375" style="11" customWidth="1"/>
+    <col min="6119" max="6120" width="10.21875" style="11" customWidth="1"/>
+    <col min="6121" max="6121" width="21.21875" style="11" customWidth="1"/>
+    <col min="6122" max="6122" width="17.77734375" style="11" customWidth="1"/>
     <col min="6123" max="6123" width="13" style="11" customWidth="1"/>
-    <col min="6124" max="6124" width="17.7265625" style="11" customWidth="1"/>
-    <col min="6125" max="6125" width="14.54296875" style="11" customWidth="1"/>
+    <col min="6124" max="6124" width="17.77734375" style="11" customWidth="1"/>
+    <col min="6125" max="6125" width="14.5546875" style="11" customWidth="1"/>
     <col min="6126" max="6126" width="16" style="11" customWidth="1"/>
-    <col min="6127" max="6127" width="17.54296875" style="11" customWidth="1"/>
-    <col min="6128" max="6128" width="11.26953125" style="11" customWidth="1"/>
+    <col min="6127" max="6127" width="17.5546875" style="11" customWidth="1"/>
+    <col min="6128" max="6128" width="11.21875" style="11" customWidth="1"/>
     <col min="6129" max="6129" width="25" style="11" customWidth="1"/>
-    <col min="6130" max="6130" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6131" max="6131" width="28.7265625" style="11" customWidth="1"/>
-    <col min="6132" max="6132" width="19.1796875" style="11" customWidth="1"/>
-    <col min="6133" max="6133" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6134" max="6134" width="22.1796875" style="11" customWidth="1"/>
-    <col min="6135" max="6138" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6130" max="6130" width="10.21875" style="11" customWidth="1"/>
+    <col min="6131" max="6131" width="28.77734375" style="11" customWidth="1"/>
+    <col min="6132" max="6132" width="19.21875" style="11" customWidth="1"/>
+    <col min="6133" max="6133" width="10.21875" style="11" customWidth="1"/>
+    <col min="6134" max="6134" width="22.21875" style="11" customWidth="1"/>
+    <col min="6135" max="6138" width="10.21875" style="11" customWidth="1"/>
     <col min="6139" max="6139" width="9" style="11" customWidth="1"/>
-    <col min="6140" max="6141" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6140" max="6141" width="10.21875" style="11" customWidth="1"/>
     <col min="6142" max="6142" width="9" style="11" customWidth="1"/>
-    <col min="6143" max="6143" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6144" max="6144" width="16.26953125" style="11" customWidth="1"/>
-    <col min="6145" max="6145" width="20.54296875" style="11" customWidth="1"/>
-    <col min="6146" max="6146" width="14.54296875" style="11" customWidth="1"/>
-    <col min="6147" max="6147" width="9.1796875" style="11"/>
-    <col min="6148" max="6148" width="12.54296875" style="11" customWidth="1"/>
-    <col min="6149" max="6366" width="9.1796875" style="11"/>
-    <col min="6367" max="6367" width="11.453125" style="11" customWidth="1"/>
-    <col min="6368" max="6368" width="10.453125" style="11" customWidth="1"/>
-    <col min="6369" max="6369" width="12.81640625" style="11" customWidth="1"/>
-    <col min="6370" max="6370" width="12.7265625" style="11" customWidth="1"/>
-    <col min="6371" max="6372" width="27.26953125" style="11" customWidth="1"/>
+    <col min="6143" max="6143" width="10.21875" style="11" customWidth="1"/>
+    <col min="6144" max="6144" width="16.21875" style="11" customWidth="1"/>
+    <col min="6145" max="6145" width="20.5546875" style="11" customWidth="1"/>
+    <col min="6146" max="6146" width="14.5546875" style="11" customWidth="1"/>
+    <col min="6147" max="6147" width="9.21875" style="11"/>
+    <col min="6148" max="6148" width="12.5546875" style="11" customWidth="1"/>
+    <col min="6149" max="6366" width="9.21875" style="11"/>
+    <col min="6367" max="6367" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6368" max="6368" width="10.44140625" style="11" customWidth="1"/>
+    <col min="6369" max="6370" width="12.77734375" style="11" customWidth="1"/>
+    <col min="6371" max="6372" width="27.21875" style="11" customWidth="1"/>
     <col min="6373" max="6373" width="25" style="11" customWidth="1"/>
-    <col min="6374" max="6374" width="8.81640625" style="11" customWidth="1"/>
-    <col min="6375" max="6375" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6376" max="6376" width="10.26953125" style="11" customWidth="1"/>
-    <col min="6377" max="6377" width="21.1796875" style="11" customWidth="1"/>
-    <col min="6378" max="6378" width="17.81640625" style="11" customWidth="1"/>
+    <col min="6374" max="6374" width="8.77734375" style="11" customWidth="1"/>
+    <col min="6375" max="6376" width="10.21875" style="11" customWidth="1"/>
+    <col min="6377" max="6377" width="21.21875" style="11" customWidth="1"/>
+    <col min="6378" max="6378" width="17.77734375" style="11" customWidth="1"/>
     <col min="6379" max="6379" width="13" style="11" customWidth="1"/>
-    <col min="6380" max="6380" width="17.7265625" style="11" customWidth="1"/>
-    <col min="6381" max="6381" width="14.54296875" style="11" customWidth="1"/>
+    <col min="6380" max="6380" width="17.77734375" style="11" customWidth="1"/>
+    <col min="6381" max="6381" width="14.5546875" style="11" customWidth="1"/>
     <col min="6382" max="6382" width="16" style="11" customWidth="1"/>
-    <col min="6383" max="6383" width="17.54296875" style="11" customWidth="1"/>
-    <col min="6384" max="6384" width="11.26953125" style="11" customWidth="1"/>
+    <col min="6383" max="6383" width="17.5546875" style="11" customWidth="1"/>
+    <col min="6384" max="6384" width="11.21875" style="11" customWidth="1"/>
     <col min="6385" max="6385" width="25" style="11" customWidth="1"/>
-    <col min="6386" max="6386" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6387" max="6387" width="28.7265625" style="11" customWidth="1"/>
-    <col min="6388" max="6388" width="19.1796875" style="11" customWidth="1"/>
-    <col min="6389" max="6389" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6390" max="6390" width="22.1796875" style="11" customWidth="1"/>
-    <col min="6391" max="6394" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6386" max="6386" width="10.21875" style="11" customWidth="1"/>
+    <col min="6387" max="6387" width="28.77734375" style="11" customWidth="1"/>
+    <col min="6388" max="6388" width="19.21875" style="11" customWidth="1"/>
+    <col min="6389" max="6389" width="10.21875" style="11" customWidth="1"/>
+    <col min="6390" max="6390" width="22.21875" style="11" customWidth="1"/>
+    <col min="6391" max="6394" width="10.21875" style="11" customWidth="1"/>
     <col min="6395" max="6395" width="9" style="11" customWidth="1"/>
-    <col min="6396" max="6397" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6396" max="6397" width="10.21875" style="11" customWidth="1"/>
     <col min="6398" max="6398" width="9" style="11" customWidth="1"/>
-    <col min="6399" max="6399" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6400" max="6400" width="16.26953125" style="11" customWidth="1"/>
-    <col min="6401" max="6401" width="20.54296875" style="11" customWidth="1"/>
-    <col min="6402" max="6402" width="14.54296875" style="11" customWidth="1"/>
-    <col min="6403" max="6403" width="9.1796875" style="11"/>
-    <col min="6404" max="6404" width="12.54296875" style="11" customWidth="1"/>
-    <col min="6405" max="6622" width="9.1796875" style="11"/>
-    <col min="6623" max="6623" width="11.453125" style="11" customWidth="1"/>
-    <col min="6624" max="6624" width="10.453125" style="11" customWidth="1"/>
-    <col min="6625" max="6625" width="12.81640625" style="11" customWidth="1"/>
-    <col min="6626" max="6626" width="12.7265625" style="11" customWidth="1"/>
-    <col min="6627" max="6628" width="27.26953125" style="11" customWidth="1"/>
+    <col min="6399" max="6399" width="10.21875" style="11" customWidth="1"/>
+    <col min="6400" max="6400" width="16.21875" style="11" customWidth="1"/>
+    <col min="6401" max="6401" width="20.5546875" style="11" customWidth="1"/>
+    <col min="6402" max="6402" width="14.5546875" style="11" customWidth="1"/>
+    <col min="6403" max="6403" width="9.21875" style="11"/>
+    <col min="6404" max="6404" width="12.5546875" style="11" customWidth="1"/>
+    <col min="6405" max="6622" width="9.21875" style="11"/>
+    <col min="6623" max="6623" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6624" max="6624" width="10.44140625" style="11" customWidth="1"/>
+    <col min="6625" max="6626" width="12.77734375" style="11" customWidth="1"/>
+    <col min="6627" max="6628" width="27.21875" style="11" customWidth="1"/>
     <col min="6629" max="6629" width="25" style="11" customWidth="1"/>
-    <col min="6630" max="6630" width="8.81640625" style="11" customWidth="1"/>
-    <col min="6631" max="6631" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6632" max="6632" width="10.26953125" style="11" customWidth="1"/>
-    <col min="6633" max="6633" width="21.1796875" style="11" customWidth="1"/>
-    <col min="6634" max="6634" width="17.81640625" style="11" customWidth="1"/>
+    <col min="6630" max="6630" width="8.77734375" style="11" customWidth="1"/>
+    <col min="6631" max="6632" width="10.21875" style="11" customWidth="1"/>
+    <col min="6633" max="6633" width="21.21875" style="11" customWidth="1"/>
+    <col min="6634" max="6634" width="17.77734375" style="11" customWidth="1"/>
     <col min="6635" max="6635" width="13" style="11" customWidth="1"/>
-    <col min="6636" max="6636" width="17.7265625" style="11" customWidth="1"/>
-    <col min="6637" max="6637" width="14.54296875" style="11" customWidth="1"/>
+    <col min="6636" max="6636" width="17.77734375" style="11" customWidth="1"/>
+    <col min="6637" max="6637" width="14.5546875" style="11" customWidth="1"/>
     <col min="6638" max="6638" width="16" style="11" customWidth="1"/>
-    <col min="6639" max="6639" width="17.54296875" style="11" customWidth="1"/>
-    <col min="6640" max="6640" width="11.26953125" style="11" customWidth="1"/>
+    <col min="6639" max="6639" width="17.5546875" style="11" customWidth="1"/>
+    <col min="6640" max="6640" width="11.21875" style="11" customWidth="1"/>
     <col min="6641" max="6641" width="25" style="11" customWidth="1"/>
-    <col min="6642" max="6642" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6643" max="6643" width="28.7265625" style="11" customWidth="1"/>
-    <col min="6644" max="6644" width="19.1796875" style="11" customWidth="1"/>
-    <col min="6645" max="6645" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6646" max="6646" width="22.1796875" style="11" customWidth="1"/>
-    <col min="6647" max="6650" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6642" max="6642" width="10.21875" style="11" customWidth="1"/>
+    <col min="6643" max="6643" width="28.77734375" style="11" customWidth="1"/>
+    <col min="6644" max="6644" width="19.21875" style="11" customWidth="1"/>
+    <col min="6645" max="6645" width="10.21875" style="11" customWidth="1"/>
+    <col min="6646" max="6646" width="22.21875" style="11" customWidth="1"/>
+    <col min="6647" max="6650" width="10.21875" style="11" customWidth="1"/>
     <col min="6651" max="6651" width="9" style="11" customWidth="1"/>
-    <col min="6652" max="6653" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6652" max="6653" width="10.21875" style="11" customWidth="1"/>
     <col min="6654" max="6654" width="9" style="11" customWidth="1"/>
-    <col min="6655" max="6655" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6656" max="6656" width="16.26953125" style="11" customWidth="1"/>
-    <col min="6657" max="6657" width="20.54296875" style="11" customWidth="1"/>
-    <col min="6658" max="6658" width="14.54296875" style="11" customWidth="1"/>
-    <col min="6659" max="6659" width="9.1796875" style="11"/>
-    <col min="6660" max="6660" width="12.54296875" style="11" customWidth="1"/>
-    <col min="6661" max="6878" width="9.1796875" style="11"/>
-    <col min="6879" max="6879" width="11.453125" style="11" customWidth="1"/>
-    <col min="6880" max="6880" width="10.453125" style="11" customWidth="1"/>
-    <col min="6881" max="6881" width="12.81640625" style="11" customWidth="1"/>
-    <col min="6882" max="6882" width="12.7265625" style="11" customWidth="1"/>
-    <col min="6883" max="6884" width="27.26953125" style="11" customWidth="1"/>
+    <col min="6655" max="6655" width="10.21875" style="11" customWidth="1"/>
+    <col min="6656" max="6656" width="16.21875" style="11" customWidth="1"/>
+    <col min="6657" max="6657" width="20.5546875" style="11" customWidth="1"/>
+    <col min="6658" max="6658" width="14.5546875" style="11" customWidth="1"/>
+    <col min="6659" max="6659" width="9.21875" style="11"/>
+    <col min="6660" max="6660" width="12.5546875" style="11" customWidth="1"/>
+    <col min="6661" max="6878" width="9.21875" style="11"/>
+    <col min="6879" max="6879" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6880" max="6880" width="10.44140625" style="11" customWidth="1"/>
+    <col min="6881" max="6882" width="12.77734375" style="11" customWidth="1"/>
+    <col min="6883" max="6884" width="27.21875" style="11" customWidth="1"/>
     <col min="6885" max="6885" width="25" style="11" customWidth="1"/>
-    <col min="6886" max="6886" width="8.81640625" style="11" customWidth="1"/>
-    <col min="6887" max="6887" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6888" max="6888" width="10.26953125" style="11" customWidth="1"/>
-    <col min="6889" max="6889" width="21.1796875" style="11" customWidth="1"/>
-    <col min="6890" max="6890" width="17.81640625" style="11" customWidth="1"/>
+    <col min="6886" max="6886" width="8.77734375" style="11" customWidth="1"/>
+    <col min="6887" max="6888" width="10.21875" style="11" customWidth="1"/>
+    <col min="6889" max="6889" width="21.21875" style="11" customWidth="1"/>
+    <col min="6890" max="6890" width="17.77734375" style="11" customWidth="1"/>
     <col min="6891" max="6891" width="13" style="11" customWidth="1"/>
-    <col min="6892" max="6892" width="17.7265625" style="11" customWidth="1"/>
-    <col min="6893" max="6893" width="14.54296875" style="11" customWidth="1"/>
+    <col min="6892" max="6892" width="17.77734375" style="11" customWidth="1"/>
+    <col min="6893" max="6893" width="14.5546875" style="11" customWidth="1"/>
     <col min="6894" max="6894" width="16" style="11" customWidth="1"/>
-    <col min="6895" max="6895" width="17.54296875" style="11" customWidth="1"/>
-    <col min="6896" max="6896" width="11.26953125" style="11" customWidth="1"/>
+    <col min="6895" max="6895" width="17.5546875" style="11" customWidth="1"/>
+    <col min="6896" max="6896" width="11.21875" style="11" customWidth="1"/>
     <col min="6897" max="6897" width="25" style="11" customWidth="1"/>
-    <col min="6898" max="6898" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6899" max="6899" width="28.7265625" style="11" customWidth="1"/>
-    <col min="6900" max="6900" width="19.1796875" style="11" customWidth="1"/>
-    <col min="6901" max="6901" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6902" max="6902" width="22.1796875" style="11" customWidth="1"/>
-    <col min="6903" max="6906" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6898" max="6898" width="10.21875" style="11" customWidth="1"/>
+    <col min="6899" max="6899" width="28.77734375" style="11" customWidth="1"/>
+    <col min="6900" max="6900" width="19.21875" style="11" customWidth="1"/>
+    <col min="6901" max="6901" width="10.21875" style="11" customWidth="1"/>
+    <col min="6902" max="6902" width="22.21875" style="11" customWidth="1"/>
+    <col min="6903" max="6906" width="10.21875" style="11" customWidth="1"/>
     <col min="6907" max="6907" width="9" style="11" customWidth="1"/>
-    <col min="6908" max="6909" width="10.1796875" style="11" customWidth="1"/>
+    <col min="6908" max="6909" width="10.21875" style="11" customWidth="1"/>
     <col min="6910" max="6910" width="9" style="11" customWidth="1"/>
-    <col min="6911" max="6911" width="10.1796875" style="11" customWidth="1"/>
-    <col min="6912" max="6912" width="16.26953125" style="11" customWidth="1"/>
-    <col min="6913" max="6913" width="20.54296875" style="11" customWidth="1"/>
-    <col min="6914" max="6914" width="14.54296875" style="11" customWidth="1"/>
-    <col min="6915" max="6915" width="9.1796875" style="11"/>
-    <col min="6916" max="6916" width="12.54296875" style="11" customWidth="1"/>
-    <col min="6917" max="7134" width="9.1796875" style="11"/>
-    <col min="7135" max="7135" width="11.453125" style="11" customWidth="1"/>
-    <col min="7136" max="7136" width="10.453125" style="11" customWidth="1"/>
-    <col min="7137" max="7137" width="12.81640625" style="11" customWidth="1"/>
-    <col min="7138" max="7138" width="12.7265625" style="11" customWidth="1"/>
-    <col min="7139" max="7140" width="27.26953125" style="11" customWidth="1"/>
+    <col min="6911" max="6911" width="10.21875" style="11" customWidth="1"/>
+    <col min="6912" max="6912" width="16.21875" style="11" customWidth="1"/>
+    <col min="6913" max="6913" width="20.5546875" style="11" customWidth="1"/>
+    <col min="6914" max="6914" width="14.5546875" style="11" customWidth="1"/>
+    <col min="6915" max="6915" width="9.21875" style="11"/>
+    <col min="6916" max="6916" width="12.5546875" style="11" customWidth="1"/>
+    <col min="6917" max="7134" width="9.21875" style="11"/>
+    <col min="7135" max="7135" width="11.44140625" style="11" customWidth="1"/>
+    <col min="7136" max="7136" width="10.44140625" style="11" customWidth="1"/>
+    <col min="7137" max="7138" width="12.77734375" style="11" customWidth="1"/>
+    <col min="7139" max="7140" width="27.21875" style="11" customWidth="1"/>
     <col min="7141" max="7141" width="25" style="11" customWidth="1"/>
-    <col min="7142" max="7142" width="8.81640625" style="11" customWidth="1"/>
-    <col min="7143" max="7143" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7144" max="7144" width="10.26953125" style="11" customWidth="1"/>
-    <col min="7145" max="7145" width="21.1796875" style="11" customWidth="1"/>
-    <col min="7146" max="7146" width="17.81640625" style="11" customWidth="1"/>
+    <col min="7142" max="7142" width="8.77734375" style="11" customWidth="1"/>
+    <col min="7143" max="7144" width="10.21875" style="11" customWidth="1"/>
+    <col min="7145" max="7145" width="21.21875" style="11" customWidth="1"/>
+    <col min="7146" max="7146" width="17.77734375" style="11" customWidth="1"/>
     <col min="7147" max="7147" width="13" style="11" customWidth="1"/>
-    <col min="7148" max="7148" width="17.7265625" style="11" customWidth="1"/>
-    <col min="7149" max="7149" width="14.54296875" style="11" customWidth="1"/>
+    <col min="7148" max="7148" width="17.77734375" style="11" customWidth="1"/>
+    <col min="7149" max="7149" width="14.5546875" style="11" customWidth="1"/>
     <col min="7150" max="7150" width="16" style="11" customWidth="1"/>
-    <col min="7151" max="7151" width="17.54296875" style="11" customWidth="1"/>
-    <col min="7152" max="7152" width="11.26953125" style="11" customWidth="1"/>
+    <col min="7151" max="7151" width="17.5546875" style="11" customWidth="1"/>
+    <col min="7152" max="7152" width="11.21875" style="11" customWidth="1"/>
     <col min="7153" max="7153" width="25" style="11" customWidth="1"/>
-    <col min="7154" max="7154" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7155" max="7155" width="28.7265625" style="11" customWidth="1"/>
-    <col min="7156" max="7156" width="19.1796875" style="11" customWidth="1"/>
-    <col min="7157" max="7157" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7158" max="7158" width="22.1796875" style="11" customWidth="1"/>
-    <col min="7159" max="7162" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7154" max="7154" width="10.21875" style="11" customWidth="1"/>
+    <col min="7155" max="7155" width="28.77734375" style="11" customWidth="1"/>
+    <col min="7156" max="7156" width="19.21875" style="11" customWidth="1"/>
+    <col min="7157" max="7157" width="10.21875" style="11" customWidth="1"/>
+    <col min="7158" max="7158" width="22.21875" style="11" customWidth="1"/>
+    <col min="7159" max="7162" width="10.21875" style="11" customWidth="1"/>
     <col min="7163" max="7163" width="9" style="11" customWidth="1"/>
-    <col min="7164" max="7165" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7164" max="7165" width="10.21875" style="11" customWidth="1"/>
     <col min="7166" max="7166" width="9" style="11" customWidth="1"/>
-    <col min="7167" max="7167" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7168" max="7168" width="16.26953125" style="11" customWidth="1"/>
-    <col min="7169" max="7169" width="20.54296875" style="11" customWidth="1"/>
-    <col min="7170" max="7170" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7171" max="7171" width="9.1796875" style="11"/>
-    <col min="7172" max="7172" width="12.54296875" style="11" customWidth="1"/>
-    <col min="7173" max="7390" width="9.1796875" style="11"/>
-    <col min="7391" max="7391" width="11.453125" style="11" customWidth="1"/>
-    <col min="7392" max="7392" width="10.453125" style="11" customWidth="1"/>
-    <col min="7393" max="7393" width="12.81640625" style="11" customWidth="1"/>
-    <col min="7394" max="7394" width="12.7265625" style="11" customWidth="1"/>
-    <col min="7395" max="7396" width="27.26953125" style="11" customWidth="1"/>
+    <col min="7167" max="7167" width="10.21875" style="11" customWidth="1"/>
+    <col min="7168" max="7168" width="16.21875" style="11" customWidth="1"/>
+    <col min="7169" max="7169" width="20.5546875" style="11" customWidth="1"/>
+    <col min="7170" max="7170" width="14.5546875" style="11" customWidth="1"/>
+    <col min="7171" max="7171" width="9.21875" style="11"/>
+    <col min="7172" max="7172" width="12.5546875" style="11" customWidth="1"/>
+    <col min="7173" max="7390" width="9.21875" style="11"/>
+    <col min="7391" max="7391" width="11.44140625" style="11" customWidth="1"/>
+    <col min="7392" max="7392" width="10.44140625" style="11" customWidth="1"/>
+    <col min="7393" max="7394" width="12.77734375" style="11" customWidth="1"/>
+    <col min="7395" max="7396" width="27.21875" style="11" customWidth="1"/>
     <col min="7397" max="7397" width="25" style="11" customWidth="1"/>
-    <col min="7398" max="7398" width="8.81640625" style="11" customWidth="1"/>
-    <col min="7399" max="7399" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7400" max="7400" width="10.26953125" style="11" customWidth="1"/>
-    <col min="7401" max="7401" width="21.1796875" style="11" customWidth="1"/>
-    <col min="7402" max="7402" width="17.81640625" style="11" customWidth="1"/>
+    <col min="7398" max="7398" width="8.77734375" style="11" customWidth="1"/>
+    <col min="7399" max="7400" width="10.21875" style="11" customWidth="1"/>
+    <col min="7401" max="7401" width="21.21875" style="11" customWidth="1"/>
+    <col min="7402" max="7402" width="17.77734375" style="11" customWidth="1"/>
     <col min="7403" max="7403" width="13" style="11" customWidth="1"/>
-    <col min="7404" max="7404" width="17.7265625" style="11" customWidth="1"/>
-    <col min="7405" max="7405" width="14.54296875" style="11" customWidth="1"/>
+    <col min="7404" max="7404" width="17.77734375" style="11" customWidth="1"/>
+    <col min="7405" max="7405" width="14.5546875" style="11" customWidth="1"/>
     <col min="7406" max="7406" width="16" style="11" customWidth="1"/>
-    <col min="7407" max="7407" width="17.54296875" style="11" customWidth="1"/>
-    <col min="7408" max="7408" width="11.26953125" style="11" customWidth="1"/>
+    <col min="7407" max="7407" width="17.5546875" style="11" customWidth="1"/>
+    <col min="7408" max="7408" width="11.21875" style="11" customWidth="1"/>
     <col min="7409" max="7409" width="25" style="11" customWidth="1"/>
-    <col min="7410" max="7410" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7411" max="7411" width="28.7265625" style="11" customWidth="1"/>
-    <col min="7412" max="7412" width="19.1796875" style="11" customWidth="1"/>
-    <col min="7413" max="7413" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7414" max="7414" width="22.1796875" style="11" customWidth="1"/>
-    <col min="7415" max="7418" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7410" max="7410" width="10.21875" style="11" customWidth="1"/>
+    <col min="7411" max="7411" width="28.77734375" style="11" customWidth="1"/>
+    <col min="7412" max="7412" width="19.21875" style="11" customWidth="1"/>
+    <col min="7413" max="7413" width="10.21875" style="11" customWidth="1"/>
+    <col min="7414" max="7414" width="22.21875" style="11" customWidth="1"/>
+    <col min="7415" max="7418" width="10.21875" style="11" customWidth="1"/>
     <col min="7419" max="7419" width="9" style="11" customWidth="1"/>
-    <col min="7420" max="7421" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7420" max="7421" width="10.21875" style="11" customWidth="1"/>
     <col min="7422" max="7422" width="9" style="11" customWidth="1"/>
-    <col min="7423" max="7423" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7424" max="7424" width="16.26953125" style="11" customWidth="1"/>
-    <col min="7425" max="7425" width="20.54296875" style="11" customWidth="1"/>
-    <col min="7426" max="7426" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7427" max="7427" width="9.1796875" style="11"/>
-    <col min="7428" max="7428" width="12.54296875" style="11" customWidth="1"/>
-    <col min="7429" max="7646" width="9.1796875" style="11"/>
-    <col min="7647" max="7647" width="11.453125" style="11" customWidth="1"/>
-    <col min="7648" max="7648" width="10.453125" style="11" customWidth="1"/>
-    <col min="7649" max="7649" width="12.81640625" style="11" customWidth="1"/>
-    <col min="7650" max="7650" width="12.7265625" style="11" customWidth="1"/>
-    <col min="7651" max="7652" width="27.26953125" style="11" customWidth="1"/>
+    <col min="7423" max="7423" width="10.21875" style="11" customWidth="1"/>
+    <col min="7424" max="7424" width="16.21875" style="11" customWidth="1"/>
+    <col min="7425" max="7425" width="20.5546875" style="11" customWidth="1"/>
+    <col min="7426" max="7426" width="14.5546875" style="11" customWidth="1"/>
+    <col min="7427" max="7427" width="9.21875" style="11"/>
+    <col min="7428" max="7428" width="12.5546875" style="11" customWidth="1"/>
+    <col min="7429" max="7646" width="9.21875" style="11"/>
+    <col min="7647" max="7647" width="11.44140625" style="11" customWidth="1"/>
+    <col min="7648" max="7648" width="10.44140625" style="11" customWidth="1"/>
+    <col min="7649" max="7650" width="12.77734375" style="11" customWidth="1"/>
+    <col min="7651" max="7652" width="27.21875" style="11" customWidth="1"/>
     <col min="7653" max="7653" width="25" style="11" customWidth="1"/>
-    <col min="7654" max="7654" width="8.81640625" style="11" customWidth="1"/>
-    <col min="7655" max="7655" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7656" max="7656" width="10.26953125" style="11" customWidth="1"/>
-    <col min="7657" max="7657" width="21.1796875" style="11" customWidth="1"/>
-    <col min="7658" max="7658" width="17.81640625" style="11" customWidth="1"/>
+    <col min="7654" max="7654" width="8.77734375" style="11" customWidth="1"/>
+    <col min="7655" max="7656" width="10.21875" style="11" customWidth="1"/>
+    <col min="7657" max="7657" width="21.21875" style="11" customWidth="1"/>
+    <col min="7658" max="7658" width="17.77734375" style="11" customWidth="1"/>
     <col min="7659" max="7659" width="13" style="11" customWidth="1"/>
-    <col min="7660" max="7660" width="17.7265625" style="11" customWidth="1"/>
-    <col min="7661" max="7661" width="14.54296875" style="11" customWidth="1"/>
+    <col min="7660" max="7660" width="17.77734375" style="11" customWidth="1"/>
+    <col min="7661" max="7661" width="14.5546875" style="11" customWidth="1"/>
     <col min="7662" max="7662" width="16" style="11" customWidth="1"/>
-    <col min="7663" max="7663" width="17.54296875" style="11" customWidth="1"/>
-    <col min="7664" max="7664" width="11.26953125" style="11" customWidth="1"/>
+    <col min="7663" max="7663" width="17.5546875" style="11" customWidth="1"/>
+    <col min="7664" max="7664" width="11.21875" style="11" customWidth="1"/>
     <col min="7665" max="7665" width="25" style="11" customWidth="1"/>
-    <col min="7666" max="7666" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7667" max="7667" width="28.7265625" style="11" customWidth="1"/>
-    <col min="7668" max="7668" width="19.1796875" style="11" customWidth="1"/>
-    <col min="7669" max="7669" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7670" max="7670" width="22.1796875" style="11" customWidth="1"/>
-    <col min="7671" max="7674" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7666" max="7666" width="10.21875" style="11" customWidth="1"/>
+    <col min="7667" max="7667" width="28.77734375" style="11" customWidth="1"/>
+    <col min="7668" max="7668" width="19.21875" style="11" customWidth="1"/>
+    <col min="7669" max="7669" width="10.21875" style="11" customWidth="1"/>
+    <col min="7670" max="7670" width="22.21875" style="11" customWidth="1"/>
+    <col min="7671" max="7674" width="10.21875" style="11" customWidth="1"/>
     <col min="7675" max="7675" width="9" style="11" customWidth="1"/>
-    <col min="7676" max="7677" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7676" max="7677" width="10.21875" style="11" customWidth="1"/>
     <col min="7678" max="7678" width="9" style="11" customWidth="1"/>
-    <col min="7679" max="7679" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7680" max="7680" width="16.26953125" style="11" customWidth="1"/>
-    <col min="7681" max="7681" width="20.54296875" style="11" customWidth="1"/>
-    <col min="7682" max="7682" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7683" max="7683" width="9.1796875" style="11"/>
-    <col min="7684" max="7684" width="12.54296875" style="11" customWidth="1"/>
-    <col min="7685" max="7902" width="9.1796875" style="11"/>
-    <col min="7903" max="7903" width="11.453125" style="11" customWidth="1"/>
-    <col min="7904" max="7904" width="10.453125" style="11" customWidth="1"/>
-    <col min="7905" max="7905" width="12.81640625" style="11" customWidth="1"/>
-    <col min="7906" max="7906" width="12.7265625" style="11" customWidth="1"/>
-    <col min="7907" max="7908" width="27.26953125" style="11" customWidth="1"/>
+    <col min="7679" max="7679" width="10.21875" style="11" customWidth="1"/>
+    <col min="7680" max="7680" width="16.21875" style="11" customWidth="1"/>
+    <col min="7681" max="7681" width="20.5546875" style="11" customWidth="1"/>
+    <col min="7682" max="7682" width="14.5546875" style="11" customWidth="1"/>
+    <col min="7683" max="7683" width="9.21875" style="11"/>
+    <col min="7684" max="7684" width="12.5546875" style="11" customWidth="1"/>
+    <col min="7685" max="7902" width="9.21875" style="11"/>
+    <col min="7903" max="7903" width="11.44140625" style="11" customWidth="1"/>
+    <col min="7904" max="7904" width="10.44140625" style="11" customWidth="1"/>
+    <col min="7905" max="7906" width="12.77734375" style="11" customWidth="1"/>
+    <col min="7907" max="7908" width="27.21875" style="11" customWidth="1"/>
     <col min="7909" max="7909" width="25" style="11" customWidth="1"/>
-    <col min="7910" max="7910" width="8.81640625" style="11" customWidth="1"/>
-    <col min="7911" max="7911" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7912" max="7912" width="10.26953125" style="11" customWidth="1"/>
-    <col min="7913" max="7913" width="21.1796875" style="11" customWidth="1"/>
-    <col min="7914" max="7914" width="17.81640625" style="11" customWidth="1"/>
+    <col min="7910" max="7910" width="8.77734375" style="11" customWidth="1"/>
+    <col min="7911" max="7912" width="10.21875" style="11" customWidth="1"/>
+    <col min="7913" max="7913" width="21.21875" style="11" customWidth="1"/>
+    <col min="7914" max="7914" width="17.77734375" style="11" customWidth="1"/>
     <col min="7915" max="7915" width="13" style="11" customWidth="1"/>
-    <col min="7916" max="7916" width="17.7265625" style="11" customWidth="1"/>
-    <col min="7917" max="7917" width="14.54296875" style="11" customWidth="1"/>
+    <col min="7916" max="7916" width="17.77734375" style="11" customWidth="1"/>
+    <col min="7917" max="7917" width="14.5546875" style="11" customWidth="1"/>
     <col min="7918" max="7918" width="16" style="11" customWidth="1"/>
-    <col min="7919" max="7919" width="17.54296875" style="11" customWidth="1"/>
-    <col min="7920" max="7920" width="11.26953125" style="11" customWidth="1"/>
+    <col min="7919" max="7919" width="17.5546875" style="11" customWidth="1"/>
+    <col min="7920" max="7920" width="11.21875" style="11" customWidth="1"/>
     <col min="7921" max="7921" width="25" style="11" customWidth="1"/>
-    <col min="7922" max="7922" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7923" max="7923" width="28.7265625" style="11" customWidth="1"/>
-    <col min="7924" max="7924" width="19.1796875" style="11" customWidth="1"/>
-    <col min="7925" max="7925" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7926" max="7926" width="22.1796875" style="11" customWidth="1"/>
-    <col min="7927" max="7930" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7922" max="7922" width="10.21875" style="11" customWidth="1"/>
+    <col min="7923" max="7923" width="28.77734375" style="11" customWidth="1"/>
+    <col min="7924" max="7924" width="19.21875" style="11" customWidth="1"/>
+    <col min="7925" max="7925" width="10.21875" style="11" customWidth="1"/>
+    <col min="7926" max="7926" width="22.21875" style="11" customWidth="1"/>
+    <col min="7927" max="7930" width="10.21875" style="11" customWidth="1"/>
     <col min="7931" max="7931" width="9" style="11" customWidth="1"/>
-    <col min="7932" max="7933" width="10.1796875" style="11" customWidth="1"/>
+    <col min="7932" max="7933" width="10.21875" style="11" customWidth="1"/>
     <col min="7934" max="7934" width="9" style="11" customWidth="1"/>
-    <col min="7935" max="7935" width="10.1796875" style="11" customWidth="1"/>
-    <col min="7936" max="7936" width="16.26953125" style="11" customWidth="1"/>
-    <col min="7937" max="7937" width="20.54296875" style="11" customWidth="1"/>
-    <col min="7938" max="7938" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7939" max="7939" width="9.1796875" style="11"/>
-    <col min="7940" max="7940" width="12.54296875" style="11" customWidth="1"/>
-    <col min="7941" max="8158" width="9.1796875" style="11"/>
-    <col min="8159" max="8159" width="11.453125" style="11" customWidth="1"/>
-    <col min="8160" max="8160" width="10.453125" style="11" customWidth="1"/>
-    <col min="8161" max="8161" width="12.81640625" style="11" customWidth="1"/>
-    <col min="8162" max="8162" width="12.7265625" style="11" customWidth="1"/>
-    <col min="8163" max="8164" width="27.26953125" style="11" customWidth="1"/>
+    <col min="7935" max="7935" width="10.21875" style="11" customWidth="1"/>
+    <col min="7936" max="7936" width="16.21875" style="11" customWidth="1"/>
+    <col min="7937" max="7937" width="20.5546875" style="11" customWidth="1"/>
+    <col min="7938" max="7938" width="14.5546875" style="11" customWidth="1"/>
+    <col min="7939" max="7939" width="9.21875" style="11"/>
+    <col min="7940" max="7940" width="12.5546875" style="11" customWidth="1"/>
+    <col min="7941" max="8158" width="9.21875" style="11"/>
+    <col min="8159" max="8159" width="11.44140625" style="11" customWidth="1"/>
+    <col min="8160" max="8160" width="10.44140625" style="11" customWidth="1"/>
+    <col min="8161" max="8162" width="12.77734375" style="11" customWidth="1"/>
+    <col min="8163" max="8164" width="27.21875" style="11" customWidth="1"/>
     <col min="8165" max="8165" width="25" style="11" customWidth="1"/>
-    <col min="8166" max="8166" width="8.81640625" style="11" customWidth="1"/>
-    <col min="8167" max="8167" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8168" max="8168" width="10.26953125" style="11" customWidth="1"/>
-    <col min="8169" max="8169" width="21.1796875" style="11" customWidth="1"/>
-    <col min="8170" max="8170" width="17.81640625" style="11" customWidth="1"/>
+    <col min="8166" max="8166" width="8.77734375" style="11" customWidth="1"/>
+    <col min="8167" max="8168" width="10.21875" style="11" customWidth="1"/>
+    <col min="8169" max="8169" width="21.21875" style="11" customWidth="1"/>
+    <col min="8170" max="8170" width="17.77734375" style="11" customWidth="1"/>
     <col min="8171" max="8171" width="13" style="11" customWidth="1"/>
-    <col min="8172" max="8172" width="17.7265625" style="11" customWidth="1"/>
-    <col min="8173" max="8173" width="14.54296875" style="11" customWidth="1"/>
+    <col min="8172" max="8172" width="17.77734375" style="11" customWidth="1"/>
+    <col min="8173" max="8173" width="14.5546875" style="11" customWidth="1"/>
     <col min="8174" max="8174" width="16" style="11" customWidth="1"/>
-    <col min="8175" max="8175" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8176" max="8176" width="11.26953125" style="11" customWidth="1"/>
+    <col min="8175" max="8175" width="17.5546875" style="11" customWidth="1"/>
+    <col min="8176" max="8176" width="11.21875" style="11" customWidth="1"/>
     <col min="8177" max="8177" width="25" style="11" customWidth="1"/>
-    <col min="8178" max="8178" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8179" max="8179" width="28.7265625" style="11" customWidth="1"/>
-    <col min="8180" max="8180" width="19.1796875" style="11" customWidth="1"/>
-    <col min="8181" max="8181" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8182" max="8182" width="22.1796875" style="11" customWidth="1"/>
-    <col min="8183" max="8186" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8178" max="8178" width="10.21875" style="11" customWidth="1"/>
+    <col min="8179" max="8179" width="28.77734375" style="11" customWidth="1"/>
+    <col min="8180" max="8180" width="19.21875" style="11" customWidth="1"/>
+    <col min="8181" max="8181" width="10.21875" style="11" customWidth="1"/>
+    <col min="8182" max="8182" width="22.21875" style="11" customWidth="1"/>
+    <col min="8183" max="8186" width="10.21875" style="11" customWidth="1"/>
     <col min="8187" max="8187" width="9" style="11" customWidth="1"/>
-    <col min="8188" max="8189" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8188" max="8189" width="10.21875" style="11" customWidth="1"/>
     <col min="8190" max="8190" width="9" style="11" customWidth="1"/>
-    <col min="8191" max="8191" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8192" max="8192" width="16.26953125" style="11" customWidth="1"/>
-    <col min="8193" max="8193" width="20.54296875" style="11" customWidth="1"/>
-    <col min="8194" max="8194" width="14.54296875" style="11" customWidth="1"/>
-    <col min="8195" max="8195" width="9.1796875" style="11"/>
-    <col min="8196" max="8196" width="12.54296875" style="11" customWidth="1"/>
-    <col min="8197" max="8414" width="9.1796875" style="11"/>
-    <col min="8415" max="8415" width="11.453125" style="11" customWidth="1"/>
-    <col min="8416" max="8416" width="10.453125" style="11" customWidth="1"/>
-    <col min="8417" max="8417" width="12.81640625" style="11" customWidth="1"/>
-    <col min="8418" max="8418" width="12.7265625" style="11" customWidth="1"/>
-    <col min="8419" max="8420" width="27.26953125" style="11" customWidth="1"/>
+    <col min="8191" max="8191" width="10.21875" style="11" customWidth="1"/>
+    <col min="8192" max="8192" width="16.21875" style="11" customWidth="1"/>
+    <col min="8193" max="8193" width="20.5546875" style="11" customWidth="1"/>
+    <col min="8194" max="8194" width="14.5546875" style="11" customWidth="1"/>
+    <col min="8195" max="8195" width="9.21875" style="11"/>
+    <col min="8196" max="8196" width="12.5546875" style="11" customWidth="1"/>
+    <col min="8197" max="8414" width="9.21875" style="11"/>
+    <col min="8415" max="8415" width="11.44140625" style="11" customWidth="1"/>
+    <col min="8416" max="8416" width="10.44140625" style="11" customWidth="1"/>
+    <col min="8417" max="8418" width="12.77734375" style="11" customWidth="1"/>
+    <col min="8419" max="8420" width="27.21875" style="11" customWidth="1"/>
     <col min="8421" max="8421" width="25" style="11" customWidth="1"/>
-    <col min="8422" max="8422" width="8.81640625" style="11" customWidth="1"/>
-    <col min="8423" max="8423" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8424" max="8424" width="10.26953125" style="11" customWidth="1"/>
-    <col min="8425" max="8425" width="21.1796875" style="11" customWidth="1"/>
-    <col min="8426" max="8426" width="17.81640625" style="11" customWidth="1"/>
+    <col min="8422" max="8422" width="8.77734375" style="11" customWidth="1"/>
+    <col min="8423" max="8424" width="10.21875" style="11" customWidth="1"/>
+    <col min="8425" max="8425" width="21.21875" style="11" customWidth="1"/>
+    <col min="8426" max="8426" width="17.77734375" style="11" customWidth="1"/>
     <col min="8427" max="8427" width="13" style="11" customWidth="1"/>
-    <col min="8428" max="8428" width="17.7265625" style="11" customWidth="1"/>
-    <col min="8429" max="8429" width="14.54296875" style="11" customWidth="1"/>
+    <col min="8428" max="8428" width="17.77734375" style="11" customWidth="1"/>
+    <col min="8429" max="8429" width="14.5546875" style="11" customWidth="1"/>
     <col min="8430" max="8430" width="16" style="11" customWidth="1"/>
-    <col min="8431" max="8431" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8432" max="8432" width="11.26953125" style="11" customWidth="1"/>
+    <col min="8431" max="8431" width="17.5546875" style="11" customWidth="1"/>
+    <col min="8432" max="8432" width="11.21875" style="11" customWidth="1"/>
     <col min="8433" max="8433" width="25" style="11" customWidth="1"/>
-    <col min="8434" max="8434" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8435" max="8435" width="28.7265625" style="11" customWidth="1"/>
-    <col min="8436" max="8436" width="19.1796875" style="11" customWidth="1"/>
-    <col min="8437" max="8437" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8438" max="8438" width="22.1796875" style="11" customWidth="1"/>
-    <col min="8439" max="8442" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8434" max="8434" width="10.21875" style="11" customWidth="1"/>
+    <col min="8435" max="8435" width="28.77734375" style="11" customWidth="1"/>
+    <col min="8436" max="8436" width="19.21875" style="11" customWidth="1"/>
+    <col min="8437" max="8437" width="10.21875" style="11" customWidth="1"/>
+    <col min="8438" max="8438" width="22.21875" style="11" customWidth="1"/>
+    <col min="8439" max="8442" width="10.21875" style="11" customWidth="1"/>
     <col min="8443" max="8443" width="9" style="11" customWidth="1"/>
-    <col min="8444" max="8445" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8444" max="8445" width="10.21875" style="11" customWidth="1"/>
     <col min="8446" max="8446" width="9" style="11" customWidth="1"/>
-    <col min="8447" max="8447" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8448" max="8448" width="16.26953125" style="11" customWidth="1"/>
-    <col min="8449" max="8449" width="20.54296875" style="11" customWidth="1"/>
-    <col min="8450" max="8450" width="14.54296875" style="11" customWidth="1"/>
-    <col min="8451" max="8451" width="9.1796875" style="11"/>
-    <col min="8452" max="8452" width="12.54296875" style="11" customWidth="1"/>
-    <col min="8453" max="8670" width="9.1796875" style="11"/>
-    <col min="8671" max="8671" width="11.453125" style="11" customWidth="1"/>
-    <col min="8672" max="8672" width="10.453125" style="11" customWidth="1"/>
-    <col min="8673" max="8673" width="12.81640625" style="11" customWidth="1"/>
-    <col min="8674" max="8674" width="12.7265625" style="11" customWidth="1"/>
-    <col min="8675" max="8676" width="27.26953125" style="11" customWidth="1"/>
+    <col min="8447" max="8447" width="10.21875" style="11" customWidth="1"/>
+    <col min="8448" max="8448" width="16.21875" style="11" customWidth="1"/>
+    <col min="8449" max="8449" width="20.5546875" style="11" customWidth="1"/>
+    <col min="8450" max="8450" width="14.5546875" style="11" customWidth="1"/>
+    <col min="8451" max="8451" width="9.21875" style="11"/>
+    <col min="8452" max="8452" width="12.5546875" style="11" customWidth="1"/>
+    <col min="8453" max="8670" width="9.21875" style="11"/>
+    <col min="8671" max="8671" width="11.44140625" style="11" customWidth="1"/>
+    <col min="8672" max="8672" width="10.44140625" style="11" customWidth="1"/>
+    <col min="8673" max="8674" width="12.77734375" style="11" customWidth="1"/>
+    <col min="8675" max="8676" width="27.21875" style="11" customWidth="1"/>
     <col min="8677" max="8677" width="25" style="11" customWidth="1"/>
-    <col min="8678" max="8678" width="8.81640625" style="11" customWidth="1"/>
-    <col min="8679" max="8679" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8680" max="8680" width="10.26953125" style="11" customWidth="1"/>
-    <col min="8681" max="8681" width="21.1796875" style="11" customWidth="1"/>
-    <col min="8682" max="8682" width="17.81640625" style="11" customWidth="1"/>
+    <col min="8678" max="8678" width="8.77734375" style="11" customWidth="1"/>
+    <col min="8679" max="8680" width="10.21875" style="11" customWidth="1"/>
+    <col min="8681" max="8681" width="21.21875" style="11" customWidth="1"/>
+    <col min="8682" max="8682" width="17.77734375" style="11" customWidth="1"/>
     <col min="8683" max="8683" width="13" style="11" customWidth="1"/>
-    <col min="8684" max="8684" width="17.7265625" style="11" customWidth="1"/>
-    <col min="8685" max="8685" width="14.54296875" style="11" customWidth="1"/>
+    <col min="8684" max="8684" width="17.77734375" style="11" customWidth="1"/>
+    <col min="8685" max="8685" width="14.5546875" style="11" customWidth="1"/>
     <col min="8686" max="8686" width="16" style="11" customWidth="1"/>
-    <col min="8687" max="8687" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8688" max="8688" width="11.26953125" style="11" customWidth="1"/>
+    <col min="8687" max="8687" width="17.5546875" style="11" customWidth="1"/>
+    <col min="8688" max="8688" width="11.21875" style="11" customWidth="1"/>
     <col min="8689" max="8689" width="25" style="11" customWidth="1"/>
-    <col min="8690" max="8690" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8691" max="8691" width="28.7265625" style="11" customWidth="1"/>
-    <col min="8692" max="8692" width="19.1796875" style="11" customWidth="1"/>
-    <col min="8693" max="8693" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8694" max="8694" width="22.1796875" style="11" customWidth="1"/>
-    <col min="8695" max="8698" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8690" max="8690" width="10.21875" style="11" customWidth="1"/>
+    <col min="8691" max="8691" width="28.77734375" style="11" customWidth="1"/>
+    <col min="8692" max="8692" width="19.21875" style="11" customWidth="1"/>
+    <col min="8693" max="8693" width="10.21875" style="11" customWidth="1"/>
+    <col min="8694" max="8694" width="22.21875" style="11" customWidth="1"/>
+    <col min="8695" max="8698" width="10.21875" style="11" customWidth="1"/>
     <col min="8699" max="8699" width="9" style="11" customWidth="1"/>
-    <col min="8700" max="8701" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8700" max="8701" width="10.21875" style="11" customWidth="1"/>
     <col min="8702" max="8702" width="9" style="11" customWidth="1"/>
-    <col min="8703" max="8703" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8704" max="8704" width="16.26953125" style="11" customWidth="1"/>
-    <col min="8705" max="8705" width="20.54296875" style="11" customWidth="1"/>
-    <col min="8706" max="8706" width="14.54296875" style="11" customWidth="1"/>
-    <col min="8707" max="8707" width="9.1796875" style="11"/>
-    <col min="8708" max="8708" width="12.54296875" style="11" customWidth="1"/>
-    <col min="8709" max="8926" width="9.1796875" style="11"/>
-    <col min="8927" max="8927" width="11.453125" style="11" customWidth="1"/>
-    <col min="8928" max="8928" width="10.453125" style="11" customWidth="1"/>
-    <col min="8929" max="8929" width="12.81640625" style="11" customWidth="1"/>
-    <col min="8930" max="8930" width="12.7265625" style="11" customWidth="1"/>
-    <col min="8931" max="8932" width="27.26953125" style="11" customWidth="1"/>
+    <col min="8703" max="8703" width="10.21875" style="11" customWidth="1"/>
+    <col min="8704" max="8704" width="16.21875" style="11" customWidth="1"/>
+    <col min="8705" max="8705" width="20.5546875" style="11" customWidth="1"/>
+    <col min="8706" max="8706" width="14.5546875" style="11" customWidth="1"/>
+    <col min="8707" max="8707" width="9.21875" style="11"/>
+    <col min="8708" max="8708" width="12.5546875" style="11" customWidth="1"/>
+    <col min="8709" max="8926" width="9.21875" style="11"/>
+    <col min="8927" max="8927" width="11.44140625" style="11" customWidth="1"/>
+    <col min="8928" max="8928" width="10.44140625" style="11" customWidth="1"/>
+    <col min="8929" max="8930" width="12.77734375" style="11" customWidth="1"/>
+    <col min="8931" max="8932" width="27.21875" style="11" customWidth="1"/>
     <col min="8933" max="8933" width="25" style="11" customWidth="1"/>
-    <col min="8934" max="8934" width="8.81640625" style="11" customWidth="1"/>
-    <col min="8935" max="8935" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8936" max="8936" width="10.26953125" style="11" customWidth="1"/>
-    <col min="8937" max="8937" width="21.1796875" style="11" customWidth="1"/>
-    <col min="8938" max="8938" width="17.81640625" style="11" customWidth="1"/>
+    <col min="8934" max="8934" width="8.77734375" style="11" customWidth="1"/>
+    <col min="8935" max="8936" width="10.21875" style="11" customWidth="1"/>
+    <col min="8937" max="8937" width="21.21875" style="11" customWidth="1"/>
+    <col min="8938" max="8938" width="17.77734375" style="11" customWidth="1"/>
     <col min="8939" max="8939" width="13" style="11" customWidth="1"/>
-    <col min="8940" max="8940" width="17.7265625" style="11" customWidth="1"/>
-    <col min="8941" max="8941" width="14.54296875" style="11" customWidth="1"/>
+    <col min="8940" max="8940" width="17.77734375" style="11" customWidth="1"/>
+    <col min="8941" max="8941" width="14.5546875" style="11" customWidth="1"/>
     <col min="8942" max="8942" width="16" style="11" customWidth="1"/>
-    <col min="8943" max="8943" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8944" max="8944" width="11.26953125" style="11" customWidth="1"/>
+    <col min="8943" max="8943" width="17.5546875" style="11" customWidth="1"/>
+    <col min="8944" max="8944" width="11.21875" style="11" customWidth="1"/>
     <col min="8945" max="8945" width="25" style="11" customWidth="1"/>
-    <col min="8946" max="8946" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8947" max="8947" width="28.7265625" style="11" customWidth="1"/>
-    <col min="8948" max="8948" width="19.1796875" style="11" customWidth="1"/>
-    <col min="8949" max="8949" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8950" max="8950" width="22.1796875" style="11" customWidth="1"/>
-    <col min="8951" max="8954" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8946" max="8946" width="10.21875" style="11" customWidth="1"/>
+    <col min="8947" max="8947" width="28.77734375" style="11" customWidth="1"/>
+    <col min="8948" max="8948" width="19.21875" style="11" customWidth="1"/>
+    <col min="8949" max="8949" width="10.21875" style="11" customWidth="1"/>
+    <col min="8950" max="8950" width="22.21875" style="11" customWidth="1"/>
+    <col min="8951" max="8954" width="10.21875" style="11" customWidth="1"/>
     <col min="8955" max="8955" width="9" style="11" customWidth="1"/>
-    <col min="8956" max="8957" width="10.1796875" style="11" customWidth="1"/>
+    <col min="8956" max="8957" width="10.21875" style="11" customWidth="1"/>
     <col min="8958" max="8958" width="9" style="11" customWidth="1"/>
-    <col min="8959" max="8959" width="10.1796875" style="11" customWidth="1"/>
-    <col min="8960" max="8960" width="16.26953125" style="11" customWidth="1"/>
-    <col min="8961" max="8961" width="20.54296875" style="11" customWidth="1"/>
-    <col min="8962" max="8962" width="14.54296875" style="11" customWidth="1"/>
-    <col min="8963" max="8963" width="9.1796875" style="11"/>
-    <col min="8964" max="8964" width="12.54296875" style="11" customWidth="1"/>
-    <col min="8965" max="9182" width="9.1796875" style="11"/>
-    <col min="9183" max="9183" width="11.453125" style="11" customWidth="1"/>
-    <col min="9184" max="9184" width="10.453125" style="11" customWidth="1"/>
-    <col min="9185" max="9185" width="12.81640625" style="11" customWidth="1"/>
-    <col min="9186" max="9186" width="12.7265625" style="11" customWidth="1"/>
-    <col min="9187" max="9188" width="27.26953125" style="11" customWidth="1"/>
+    <col min="8959" max="8959" width="10.21875" style="11" customWidth="1"/>
+    <col min="8960" max="8960" width="16.21875" style="11" customWidth="1"/>
+    <col min="8961" max="8961" width="20.5546875" style="11" customWidth="1"/>
+    <col min="8962" max="8962" width="14.5546875" style="11" customWidth="1"/>
+    <col min="8963" max="8963" width="9.21875" style="11"/>
+    <col min="8964" max="8964" width="12.5546875" style="11" customWidth="1"/>
+    <col min="8965" max="9182" width="9.21875" style="11"/>
+    <col min="9183" max="9183" width="11.44140625" style="11" customWidth="1"/>
+    <col min="9184" max="9184" width="10.44140625" style="11" customWidth="1"/>
+    <col min="9185" max="9186" width="12.77734375" style="11" customWidth="1"/>
+    <col min="9187" max="9188" width="27.21875" style="11" customWidth="1"/>
     <col min="9189" max="9189" width="25" style="11" customWidth="1"/>
-    <col min="9190" max="9190" width="8.81640625" style="11" customWidth="1"/>
-    <col min="9191" max="9191" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9192" max="9192" width="10.26953125" style="11" customWidth="1"/>
-    <col min="9193" max="9193" width="21.1796875" style="11" customWidth="1"/>
-    <col min="9194" max="9194" width="17.81640625" style="11" customWidth="1"/>
+    <col min="9190" max="9190" width="8.77734375" style="11" customWidth="1"/>
+    <col min="9191" max="9192" width="10.21875" style="11" customWidth="1"/>
+    <col min="9193" max="9193" width="21.21875" style="11" customWidth="1"/>
+    <col min="9194" max="9194" width="17.77734375" style="11" customWidth="1"/>
     <col min="9195" max="9195" width="13" style="11" customWidth="1"/>
-    <col min="9196" max="9196" width="17.7265625" style="11" customWidth="1"/>
-    <col min="9197" max="9197" width="14.54296875" style="11" customWidth="1"/>
+    <col min="9196" max="9196" width="17.77734375" style="11" customWidth="1"/>
+    <col min="9197" max="9197" width="14.5546875" style="11" customWidth="1"/>
     <col min="9198" max="9198" width="16" style="11" customWidth="1"/>
-    <col min="9199" max="9199" width="17.54296875" style="11" customWidth="1"/>
-    <col min="9200" max="9200" width="11.26953125" style="11" customWidth="1"/>
+    <col min="9199" max="9199" width="17.5546875" style="11" customWidth="1"/>
+    <col min="9200" max="9200" width="11.21875" style="11" customWidth="1"/>
     <col min="9201" max="9201" width="25" style="11" customWidth="1"/>
-    <col min="9202" max="9202" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9203" max="9203" width="28.7265625" style="11" customWidth="1"/>
-    <col min="9204" max="9204" width="19.1796875" style="11" customWidth="1"/>
-    <col min="9205" max="9205" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9206" max="9206" width="22.1796875" style="11" customWidth="1"/>
-    <col min="9207" max="9210" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9202" max="9202" width="10.21875" style="11" customWidth="1"/>
+    <col min="9203" max="9203" width="28.77734375" style="11" customWidth="1"/>
+    <col min="9204" max="9204" width="19.21875" style="11" customWidth="1"/>
+    <col min="9205" max="9205" width="10.21875" style="11" customWidth="1"/>
+    <col min="9206" max="9206" width="22.21875" style="11" customWidth="1"/>
+    <col min="9207" max="9210" width="10.21875" style="11" customWidth="1"/>
     <col min="9211" max="9211" width="9" style="11" customWidth="1"/>
-    <col min="9212" max="9213" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9212" max="9213" width="10.21875" style="11" customWidth="1"/>
     <col min="9214" max="9214" width="9" style="11" customWidth="1"/>
-    <col min="9215" max="9215" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9216" max="9216" width="16.26953125" style="11" customWidth="1"/>
-    <col min="9217" max="9217" width="20.54296875" style="11" customWidth="1"/>
-    <col min="9218" max="9218" width="14.54296875" style="11" customWidth="1"/>
-    <col min="9219" max="9219" width="9.1796875" style="11"/>
-    <col min="9220" max="9220" width="12.54296875" style="11" customWidth="1"/>
-    <col min="9221" max="9438" width="9.1796875" style="11"/>
-    <col min="9439" max="9439" width="11.453125" style="11" customWidth="1"/>
-    <col min="9440" max="9440" width="10.453125" style="11" customWidth="1"/>
-    <col min="9441" max="9441" width="12.81640625" style="11" customWidth="1"/>
-    <col min="9442" max="9442" width="12.7265625" style="11" customWidth="1"/>
-    <col min="9443" max="9444" width="27.26953125" style="11" customWidth="1"/>
+    <col min="9215" max="9215" width="10.21875" style="11" customWidth="1"/>
+    <col min="9216" max="9216" width="16.21875" style="11" customWidth="1"/>
+    <col min="9217" max="9217" width="20.5546875" style="11" customWidth="1"/>
+    <col min="9218" max="9218" width="14.5546875" style="11" customWidth="1"/>
+    <col min="9219" max="9219" width="9.21875" style="11"/>
+    <col min="9220" max="9220" width="12.5546875" style="11" customWidth="1"/>
+    <col min="9221" max="9438" width="9.21875" style="11"/>
+    <col min="9439" max="9439" width="11.44140625" style="11" customWidth="1"/>
+    <col min="9440" max="9440" width="10.44140625" style="11" customWidth="1"/>
+    <col min="9441" max="9442" width="12.77734375" style="11" customWidth="1"/>
+    <col min="9443" max="9444" width="27.21875" style="11" customWidth="1"/>
     <col min="9445" max="9445" width="25" style="11" customWidth="1"/>
-    <col min="9446" max="9446" width="8.81640625" style="11" customWidth="1"/>
-    <col min="9447" max="9447" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9448" max="9448" width="10.26953125" style="11" customWidth="1"/>
-    <col min="9449" max="9449" width="21.1796875" style="11" customWidth="1"/>
-    <col min="9450" max="9450" width="17.81640625" style="11" customWidth="1"/>
+    <col min="9446" max="9446" width="8.77734375" style="11" customWidth="1"/>
+    <col min="9447" max="9448" width="10.21875" style="11" customWidth="1"/>
+    <col min="9449" max="9449" width="21.21875" style="11" customWidth="1"/>
+    <col min="9450" max="9450" width="17.77734375" style="11" customWidth="1"/>
     <col min="9451" max="9451" width="13" style="11" customWidth="1"/>
-    <col min="9452" max="9452" width="17.7265625" style="11" customWidth="1"/>
-    <col min="9453" max="9453" width="14.54296875" style="11" customWidth="1"/>
+    <col min="9452" max="9452" width="17.77734375" style="11" customWidth="1"/>
+    <col min="9453" max="9453" width="14.5546875" style="11" customWidth="1"/>
     <col min="9454" max="9454" width="16" style="11" customWidth="1"/>
-    <col min="9455" max="9455" width="17.54296875" style="11" customWidth="1"/>
-    <col min="9456" max="9456" width="11.26953125" style="11" customWidth="1"/>
+    <col min="9455" max="9455" width="17.5546875" style="11" customWidth="1"/>
+    <col min="9456" max="9456" width="11.21875" style="11" customWidth="1"/>
     <col min="9457" max="9457" width="25" style="11" customWidth="1"/>
-    <col min="9458" max="9458" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9459" max="9459" width="28.7265625" style="11" customWidth="1"/>
-    <col min="9460" max="9460" width="19.1796875" style="11" customWidth="1"/>
-    <col min="9461" max="9461" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9462" max="9462" width="22.1796875" style="11" customWidth="1"/>
-    <col min="9463" max="9466" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9458" max="9458" width="10.21875" style="11" customWidth="1"/>
+    <col min="9459" max="9459" width="28.77734375" style="11" customWidth="1"/>
+    <col min="9460" max="9460" width="19.21875" style="11" customWidth="1"/>
+    <col min="9461" max="9461" width="10.21875" style="11" customWidth="1"/>
+    <col min="9462" max="9462" width="22.21875" style="11" customWidth="1"/>
+    <col min="9463" max="9466" width="10.21875" style="11" customWidth="1"/>
     <col min="9467" max="9467" width="9" style="11" customWidth="1"/>
-    <col min="9468" max="9469" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9468" max="9469" width="10.21875" style="11" customWidth="1"/>
     <col min="9470" max="9470" width="9" style="11" customWidth="1"/>
-    <col min="9471" max="9471" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9472" max="9472" width="16.26953125" style="11" customWidth="1"/>
-    <col min="9473" max="9473" width="20.54296875" style="11" customWidth="1"/>
-    <col min="9474" max="9474" width="14.54296875" style="11" customWidth="1"/>
-    <col min="9475" max="9475" width="9.1796875" style="11"/>
-    <col min="9476" max="9476" width="12.54296875" style="11" customWidth="1"/>
-    <col min="9477" max="9694" width="9.1796875" style="11"/>
-    <col min="9695" max="9695" width="11.453125" style="11" customWidth="1"/>
-    <col min="9696" max="9696" width="10.453125" style="11" customWidth="1"/>
-    <col min="9697" max="9697" width="12.81640625" style="11" customWidth="1"/>
-    <col min="9698" max="9698" width="12.7265625" style="11" customWidth="1"/>
-    <col min="9699" max="9700" width="27.26953125" style="11" customWidth="1"/>
+    <col min="9471" max="9471" width="10.21875" style="11" customWidth="1"/>
+    <col min="9472" max="9472" width="16.21875" style="11" customWidth="1"/>
+    <col min="9473" max="9473" width="20.5546875" style="11" customWidth="1"/>
+    <col min="9474" max="9474" width="14.5546875" style="11" customWidth="1"/>
+    <col min="9475" max="9475" width="9.21875" style="11"/>
+    <col min="9476" max="9476" width="12.5546875" style="11" customWidth="1"/>
+    <col min="9477" max="9694" width="9.21875" style="11"/>
+    <col min="9695" max="9695" width="11.44140625" style="11" customWidth="1"/>
+    <col min="9696" max="9696" width="10.44140625" style="11" customWidth="1"/>
+    <col min="9697" max="9698" width="12.77734375" style="11" customWidth="1"/>
+    <col min="9699" max="9700" width="27.21875" style="11" customWidth="1"/>
     <col min="9701" max="9701" width="25" style="11" customWidth="1"/>
-    <col min="9702" max="9702" width="8.81640625" style="11" customWidth="1"/>
-    <col min="9703" max="9703" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9704" max="9704" width="10.26953125" style="11" customWidth="1"/>
-    <col min="9705" max="9705" width="21.1796875" style="11" customWidth="1"/>
-    <col min="9706" max="9706" width="17.81640625" style="11" customWidth="1"/>
+    <col min="9702" max="9702" width="8.77734375" style="11" customWidth="1"/>
+    <col min="9703" max="9704" width="10.21875" style="11" customWidth="1"/>
+    <col min="9705" max="9705" width="21.21875" style="11" customWidth="1"/>
+    <col min="9706" max="9706" width="17.77734375" style="11" customWidth="1"/>
     <col min="9707" max="9707" width="13" style="11" customWidth="1"/>
-    <col min="9708" max="9708" width="17.7265625" style="11" customWidth="1"/>
-    <col min="9709" max="9709" width="14.54296875" style="11" customWidth="1"/>
+    <col min="9708" max="9708" width="17.77734375" style="11" customWidth="1"/>
+    <col min="9709" max="9709" width="14.5546875" style="11" customWidth="1"/>
     <col min="9710" max="9710" width="16" style="11" customWidth="1"/>
-    <col min="9711" max="9711" width="17.54296875" style="11" customWidth="1"/>
-    <col min="9712" max="9712" width="11.26953125" style="11" customWidth="1"/>
+    <col min="9711" max="9711" width="17.5546875" style="11" customWidth="1"/>
+    <col min="9712" max="9712" width="11.21875" style="11" customWidth="1"/>
     <col min="9713" max="9713" width="25" style="11" customWidth="1"/>
-    <col min="9714" max="9714" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9715" max="9715" width="28.7265625" style="11" customWidth="1"/>
-    <col min="9716" max="9716" width="19.1796875" style="11" customWidth="1"/>
-    <col min="9717" max="9717" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9718" max="9718" width="22.1796875" style="11" customWidth="1"/>
-    <col min="9719" max="9722" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9714" max="9714" width="10.21875" style="11" customWidth="1"/>
+    <col min="9715" max="9715" width="28.77734375" style="11" customWidth="1"/>
+    <col min="9716" max="9716" width="19.21875" style="11" customWidth="1"/>
+    <col min="9717" max="9717" width="10.21875" style="11" customWidth="1"/>
+    <col min="9718" max="9718" width="22.21875" style="11" customWidth="1"/>
+    <col min="9719" max="9722" width="10.21875" style="11" customWidth="1"/>
     <col min="9723" max="9723" width="9" style="11" customWidth="1"/>
-    <col min="9724" max="9725" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9724" max="9725" width="10.21875" style="11" customWidth="1"/>
     <col min="9726" max="9726" width="9" style="11" customWidth="1"/>
-    <col min="9727" max="9727" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9728" max="9728" width="16.26953125" style="11" customWidth="1"/>
-    <col min="9729" max="9729" width="20.54296875" style="11" customWidth="1"/>
-    <col min="9730" max="9730" width="14.54296875" style="11" customWidth="1"/>
-    <col min="9731" max="9731" width="9.1796875" style="11"/>
-    <col min="9732" max="9732" width="12.54296875" style="11" customWidth="1"/>
-    <col min="9733" max="9950" width="9.1796875" style="11"/>
-    <col min="9951" max="9951" width="11.453125" style="11" customWidth="1"/>
-    <col min="9952" max="9952" width="10.453125" style="11" customWidth="1"/>
-    <col min="9953" max="9953" width="12.81640625" style="11" customWidth="1"/>
-    <col min="9954" max="9954" width="12.7265625" style="11" customWidth="1"/>
-    <col min="9955" max="9956" width="27.26953125" style="11" customWidth="1"/>
+    <col min="9727" max="9727" width="10.21875" style="11" customWidth="1"/>
+    <col min="9728" max="9728" width="16.21875" style="11" customWidth="1"/>
+    <col min="9729" max="9729" width="20.5546875" style="11" customWidth="1"/>
+    <col min="9730" max="9730" width="14.5546875" style="11" customWidth="1"/>
+    <col min="9731" max="9731" width="9.21875" style="11"/>
+    <col min="9732" max="9732" width="12.5546875" style="11" customWidth="1"/>
+    <col min="9733" max="9950" width="9.21875" style="11"/>
+    <col min="9951" max="9951" width="11.44140625" style="11" customWidth="1"/>
+    <col min="9952" max="9952" width="10.44140625" style="11" customWidth="1"/>
+    <col min="9953" max="9954" width="12.77734375" style="11" customWidth="1"/>
+    <col min="9955" max="9956" width="27.21875" style="11" customWidth="1"/>
     <col min="9957" max="9957" width="25" style="11" customWidth="1"/>
-    <col min="9958" max="9958" width="8.81640625" style="11" customWidth="1"/>
-    <col min="9959" max="9959" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9960" max="9960" width="10.26953125" style="11" customWidth="1"/>
-    <col min="9961" max="9961" width="21.1796875" style="11" customWidth="1"/>
-    <col min="9962" max="9962" width="17.81640625" style="11" customWidth="1"/>
+    <col min="9958" max="9958" width="8.77734375" style="11" customWidth="1"/>
+    <col min="9959" max="9960" width="10.21875" style="11" customWidth="1"/>
+    <col min="9961" max="9961" width="21.21875" style="11" customWidth="1"/>
+    <col min="9962" max="9962" width="17.77734375" style="11" customWidth="1"/>
     <col min="9963" max="9963" width="13" style="11" customWidth="1"/>
-    <col min="9964" max="9964" width="17.7265625" style="11" customWidth="1"/>
-    <col min="9965" max="9965" width="14.54296875" style="11" customWidth="1"/>
+    <col min="9964" max="9964" width="17.77734375" style="11" customWidth="1"/>
+    <col min="9965" max="9965" width="14.5546875" style="11" customWidth="1"/>
     <col min="9966" max="9966" width="16" style="11" customWidth="1"/>
-    <col min="9967" max="9967" width="17.54296875" style="11" customWidth="1"/>
-    <col min="9968" max="9968" width="11.26953125" style="11" customWidth="1"/>
+    <col min="9967" max="9967" width="17.5546875" style="11" customWidth="1"/>
+    <col min="9968" max="9968" width="11.21875" style="11" customWidth="1"/>
     <col min="9969" max="9969" width="25" style="11" customWidth="1"/>
-    <col min="9970" max="9970" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9971" max="9971" width="28.7265625" style="11" customWidth="1"/>
-    <col min="9972" max="9972" width="19.1796875" style="11" customWidth="1"/>
-    <col min="9973" max="9973" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9974" max="9974" width="22.1796875" style="11" customWidth="1"/>
-    <col min="9975" max="9978" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9970" max="9970" width="10.21875" style="11" customWidth="1"/>
+    <col min="9971" max="9971" width="28.77734375" style="11" customWidth="1"/>
+    <col min="9972" max="9972" width="19.21875" style="11" customWidth="1"/>
+    <col min="9973" max="9973" width="10.21875" style="11" customWidth="1"/>
+    <col min="9974" max="9974" width="22.21875" style="11" customWidth="1"/>
+    <col min="9975" max="9978" width="10.21875" style="11" customWidth="1"/>
     <col min="9979" max="9979" width="9" style="11" customWidth="1"/>
-    <col min="9980" max="9981" width="10.1796875" style="11" customWidth="1"/>
+    <col min="9980" max="9981" width="10.21875" style="11" customWidth="1"/>
     <col min="9982" max="9982" width="9" style="11" customWidth="1"/>
-    <col min="9983" max="9983" width="10.1796875" style="11" customWidth="1"/>
-    <col min="9984" max="9984" width="16.26953125" style="11" customWidth="1"/>
-    <col min="9985" max="9985" width="20.54296875" style="11" customWidth="1"/>
-    <col min="9986" max="9986" width="14.54296875" style="11" customWidth="1"/>
-    <col min="9987" max="9987" width="9.1796875" style="11"/>
-    <col min="9988" max="9988" width="12.54296875" style="11" customWidth="1"/>
-    <col min="9989" max="10206" width="9.1796875" style="11"/>
-    <col min="10207" max="10207" width="11.453125" style="11" customWidth="1"/>
-    <col min="10208" max="10208" width="10.453125" style="11" customWidth="1"/>
-    <col min="10209" max="10209" width="12.81640625" style="11" customWidth="1"/>
-    <col min="10210" max="10210" width="12.7265625" style="11" customWidth="1"/>
-    <col min="10211" max="10212" width="27.26953125" style="11" customWidth="1"/>
+    <col min="9983" max="9983" width="10.21875" style="11" customWidth="1"/>
+    <col min="9984" max="9984" width="16.21875" style="11" customWidth="1"/>
+    <col min="9985" max="9985" width="20.5546875" style="11" customWidth="1"/>
+    <col min="9986" max="9986" width="14.5546875" style="11" customWidth="1"/>
+    <col min="9987" max="9987" width="9.21875" style="11"/>
+    <col min="9988" max="9988" width="12.5546875" style="11" customWidth="1"/>
+    <col min="9989" max="10206" width="9.21875" style="11"/>
+    <col min="10207" max="10207" width="11.44140625" style="11" customWidth="1"/>
+    <col min="10208" max="10208" width="10.44140625" style="11" customWidth="1"/>
+    <col min="10209" max="10210" width="12.77734375" style="11" customWidth="1"/>
+    <col min="10211" max="10212" width="27.21875" style="11" customWidth="1"/>
     <col min="10213" max="10213" width="25" style="11" customWidth="1"/>
-    <col min="10214" max="10214" width="8.81640625" style="11" customWidth="1"/>
-    <col min="10215" max="10215" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10216" max="10216" width="10.26953125" style="11" customWidth="1"/>
-    <col min="10217" max="10217" width="21.1796875" style="11" customWidth="1"/>
-    <col min="10218" max="10218" width="17.81640625" style="11" customWidth="1"/>
+    <col min="10214" max="10214" width="8.77734375" style="11" customWidth="1"/>
+    <col min="10215" max="10216" width="10.21875" style="11" customWidth="1"/>
+    <col min="10217" max="10217" width="21.21875" style="11" customWidth="1"/>
+    <col min="10218" max="10218" width="17.77734375" style="11" customWidth="1"/>
     <col min="10219" max="10219" width="13" style="11" customWidth="1"/>
-    <col min="10220" max="10220" width="17.7265625" style="11" customWidth="1"/>
-    <col min="10221" max="10221" width="14.54296875" style="11" customWidth="1"/>
+    <col min="10220" max="10220" width="17.77734375" style="11" customWidth="1"/>
+    <col min="10221" max="10221" width="14.5546875" style="11" customWidth="1"/>
     <col min="10222" max="10222" width="16" style="11" customWidth="1"/>
-    <col min="10223" max="10223" width="17.54296875" style="11" customWidth="1"/>
-    <col min="10224" max="10224" width="11.26953125" style="11" customWidth="1"/>
+    <col min="10223" max="10223" width="17.5546875" style="11" customWidth="1"/>
+    <col min="10224" max="10224" width="11.21875" style="11" customWidth="1"/>
     <col min="10225" max="10225" width="25" style="11" customWidth="1"/>
-    <col min="10226" max="10226" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10227" max="10227" width="28.7265625" style="11" customWidth="1"/>
-    <col min="10228" max="10228" width="19.1796875" style="11" customWidth="1"/>
-    <col min="10229" max="10229" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10230" max="10230" width="22.1796875" style="11" customWidth="1"/>
-    <col min="10231" max="10234" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10226" max="10226" width="10.21875" style="11" customWidth="1"/>
+    <col min="10227" max="10227" width="28.77734375" style="11" customWidth="1"/>
+    <col min="10228" max="10228" width="19.21875" style="11" customWidth="1"/>
+    <col min="10229" max="10229" width="10.21875" style="11" customWidth="1"/>
+    <col min="10230" max="10230" width="22.21875" style="11" customWidth="1"/>
+    <col min="10231" max="10234" width="10.21875" style="11" customWidth="1"/>
     <col min="10235" max="10235" width="9" style="11" customWidth="1"/>
-    <col min="10236" max="10237" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10236" max="10237" width="10.21875" style="11" customWidth="1"/>
     <col min="10238" max="10238" width="9" style="11" customWidth="1"/>
-    <col min="10239" max="10239" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10240" max="10240" width="16.26953125" style="11" customWidth="1"/>
-    <col min="10241" max="10241" width="20.54296875" style="11" customWidth="1"/>
-    <col min="10242" max="10242" width="14.54296875" style="11" customWidth="1"/>
-    <col min="10243" max="10243" width="9.1796875" style="11"/>
-    <col min="10244" max="10244" width="12.54296875" style="11" customWidth="1"/>
-    <col min="10245" max="10462" width="9.1796875" style="11"/>
-    <col min="10463" max="10463" width="11.453125" style="11" customWidth="1"/>
-    <col min="10464" max="10464" width="10.453125" style="11" customWidth="1"/>
-    <col min="10465" max="10465" width="12.81640625" style="11" customWidth="1"/>
-    <col min="10466" max="10466" width="12.7265625" style="11" customWidth="1"/>
-    <col min="10467" max="10468" width="27.26953125" style="11" customWidth="1"/>
+    <col min="10239" max="10239" width="10.21875" style="11" customWidth="1"/>
+    <col min="10240" max="10240" width="16.21875" style="11" customWidth="1"/>
+    <col min="10241" max="10241" width="20.5546875" style="11" customWidth="1"/>
+    <col min="10242" max="10242" width="14.5546875" style="11" customWidth="1"/>
+    <col min="10243" max="10243" width="9.21875" style="11"/>
+    <col min="10244" max="10244" width="12.5546875" style="11" customWidth="1"/>
+    <col min="10245" max="10462" width="9.21875" style="11"/>
+    <col min="10463" max="10463" width="11.44140625" style="11" customWidth="1"/>
+    <col min="10464" max="10464" width="10.44140625" style="11" customWidth="1"/>
+    <col min="10465" max="10466" width="12.77734375" style="11" customWidth="1"/>
+    <col min="10467" max="10468" width="27.21875" style="11" customWidth="1"/>
     <col min="10469" max="10469" width="25" style="11" customWidth="1"/>
-    <col min="10470" max="10470" width="8.81640625" style="11" customWidth="1"/>
-    <col min="10471" max="10471" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10472" max="10472" width="10.26953125" style="11" customWidth="1"/>
-    <col min="10473" max="10473" width="21.1796875" style="11" customWidth="1"/>
-    <col min="10474" max="10474" width="17.81640625" style="11" customWidth="1"/>
+    <col min="10470" max="10470" width="8.77734375" style="11" customWidth="1"/>
+    <col min="10471" max="10472" width="10.21875" style="11" customWidth="1"/>
+    <col min="10473" max="10473" width="21.21875" style="11" customWidth="1"/>
+    <col min="10474" max="10474" width="17.77734375" style="11" customWidth="1"/>
     <col min="10475" max="10475" width="13" style="11" customWidth="1"/>
-    <col min="10476" max="10476" width="17.7265625" style="11" customWidth="1"/>
-    <col min="10477" max="10477" width="14.54296875" style="11" customWidth="1"/>
+    <col min="10476" max="10476" width="17.77734375" style="11" customWidth="1"/>
+    <col min="10477" max="10477" width="14.5546875" style="11" customWidth="1"/>
     <col min="10478" max="10478" width="16" style="11" customWidth="1"/>
-    <col min="10479" max="10479" width="17.54296875" style="11" customWidth="1"/>
-    <col min="10480" max="10480" width="11.26953125" style="11" customWidth="1"/>
+    <col min="10479" max="10479" width="17.5546875" style="11" customWidth="1"/>
+    <col min="10480" max="10480" width="11.21875" style="11" customWidth="1"/>
     <col min="10481" max="10481" width="25" style="11" customWidth="1"/>
-    <col min="10482" max="10482" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10483" max="10483" width="28.7265625" style="11" customWidth="1"/>
-    <col min="10484" max="10484" width="19.1796875" style="11" customWidth="1"/>
-    <col min="10485" max="10485" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10486" max="10486" width="22.1796875" style="11" customWidth="1"/>
-    <col min="10487" max="10490" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10482" max="10482" width="10.21875" style="11" customWidth="1"/>
+    <col min="10483" max="10483" width="28.77734375" style="11" customWidth="1"/>
+    <col min="10484" max="10484" width="19.21875" style="11" customWidth="1"/>
+    <col min="10485" max="10485" width="10.21875" style="11" customWidth="1"/>
+    <col min="10486" max="10486" width="22.21875" style="11" customWidth="1"/>
+    <col min="10487" max="10490" width="10.21875" style="11" customWidth="1"/>
     <col min="10491" max="10491" width="9" style="11" customWidth="1"/>
-    <col min="10492" max="10493" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10492" max="10493" width="10.21875" style="11" customWidth="1"/>
     <col min="10494" max="10494" width="9" style="11" customWidth="1"/>
-    <col min="10495" max="10495" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10496" max="10496" width="16.26953125" style="11" customWidth="1"/>
-    <col min="10497" max="10497" width="20.54296875" style="11" customWidth="1"/>
-    <col min="10498" max="10498" width="14.54296875" style="11" customWidth="1"/>
-    <col min="10499" max="10499" width="9.1796875" style="11"/>
-    <col min="10500" max="10500" width="12.54296875" style="11" customWidth="1"/>
-    <col min="10501" max="10718" width="9.1796875" style="11"/>
-    <col min="10719" max="10719" width="11.453125" style="11" customWidth="1"/>
-    <col min="10720" max="10720" width="10.453125" style="11" customWidth="1"/>
-    <col min="10721" max="10721" width="12.81640625" style="11" customWidth="1"/>
-    <col min="10722" max="10722" width="12.7265625" style="11" customWidth="1"/>
-    <col min="10723" max="10724" width="27.26953125" style="11" customWidth="1"/>
+    <col min="10495" max="10495" width="10.21875" style="11" customWidth="1"/>
+    <col min="10496" max="10496" width="16.21875" style="11" customWidth="1"/>
+    <col min="10497" max="10497" width="20.5546875" style="11" customWidth="1"/>
+    <col min="10498" max="10498" width="14.5546875" style="11" customWidth="1"/>
+    <col min="10499" max="10499" width="9.21875" style="11"/>
+    <col min="10500" max="10500" width="12.5546875" style="11" customWidth="1"/>
+    <col min="10501" max="10718" width="9.21875" style="11"/>
+    <col min="10719" max="10719" width="11.44140625" style="11" customWidth="1"/>
+    <col min="10720" max="10720" width="10.44140625" style="11" customWidth="1"/>
+    <col min="10721" max="10722" width="12.77734375" style="11" customWidth="1"/>
+    <col min="10723" max="10724" width="27.21875" style="11" customWidth="1"/>
     <col min="10725" max="10725" width="25" style="11" customWidth="1"/>
-    <col min="10726" max="10726" width="8.81640625" style="11" customWidth="1"/>
-    <col min="10727" max="10727" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10728" max="10728" width="10.26953125" style="11" customWidth="1"/>
-    <col min="10729" max="10729" width="21.1796875" style="11" customWidth="1"/>
-    <col min="10730" max="10730" width="17.81640625" style="11" customWidth="1"/>
+    <col min="10726" max="10726" width="8.77734375" style="11" customWidth="1"/>
+    <col min="10727" max="10728" width="10.21875" style="11" customWidth="1"/>
+    <col min="10729" max="10729" width="21.21875" style="11" customWidth="1"/>
+    <col min="10730" max="10730" width="17.77734375" style="11" customWidth="1"/>
     <col min="10731" max="10731" width="13" style="11" customWidth="1"/>
-    <col min="10732" max="10732" width="17.7265625" style="11" customWidth="1"/>
-    <col min="10733" max="10733" width="14.54296875" style="11" customWidth="1"/>
+    <col min="10732" max="10732" width="17.77734375" style="11" customWidth="1"/>
+    <col min="10733" max="10733" width="14.5546875" style="11" customWidth="1"/>
     <col min="10734" max="10734" width="16" style="11" customWidth="1"/>
-    <col min="10735" max="10735" width="17.54296875" style="11" customWidth="1"/>
-    <col min="10736" max="10736" width="11.26953125" style="11" customWidth="1"/>
+    <col min="10735" max="10735" width="17.5546875" style="11" customWidth="1"/>
+    <col min="10736" max="10736" width="11.21875" style="11" customWidth="1"/>
     <col min="10737" max="10737" width="25" style="11" customWidth="1"/>
-    <col min="10738" max="10738" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10739" max="10739" width="28.7265625" style="11" customWidth="1"/>
-    <col min="10740" max="10740" width="19.1796875" style="11" customWidth="1"/>
-    <col min="10741" max="10741" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10742" max="10742" width="22.1796875" style="11" customWidth="1"/>
-    <col min="10743" max="10746" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10738" max="10738" width="10.21875" style="11" customWidth="1"/>
+    <col min="10739" max="10739" width="28.77734375" style="11" customWidth="1"/>
+    <col min="10740" max="10740" width="19.21875" style="11" customWidth="1"/>
+    <col min="10741" max="10741" width="10.21875" style="11" customWidth="1"/>
+    <col min="10742" max="10742" width="22.21875" style="11" customWidth="1"/>
+    <col min="10743" max="10746" width="10.21875" style="11" customWidth="1"/>
     <col min="10747" max="10747" width="9" style="11" customWidth="1"/>
-    <col min="10748" max="10749" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10748" max="10749" width="10.21875" style="11" customWidth="1"/>
     <col min="10750" max="10750" width="9" style="11" customWidth="1"/>
-    <col min="10751" max="10751" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10752" max="10752" width="16.26953125" style="11" customWidth="1"/>
-    <col min="10753" max="10753" width="20.54296875" style="11" customWidth="1"/>
-    <col min="10754" max="10754" width="14.54296875" style="11" customWidth="1"/>
-    <col min="10755" max="10755" width="9.1796875" style="11"/>
-    <col min="10756" max="10756" width="12.54296875" style="11" customWidth="1"/>
-    <col min="10757" max="10974" width="9.1796875" style="11"/>
-    <col min="10975" max="10975" width="11.453125" style="11" customWidth="1"/>
-    <col min="10976" max="10976" width="10.453125" style="11" customWidth="1"/>
-    <col min="10977" max="10977" width="12.81640625" style="11" customWidth="1"/>
-    <col min="10978" max="10978" width="12.7265625" style="11" customWidth="1"/>
-    <col min="10979" max="10980" width="27.26953125" style="11" customWidth="1"/>
+    <col min="10751" max="10751" width="10.21875" style="11" customWidth="1"/>
+    <col min="10752" max="10752" width="16.21875" style="11" customWidth="1"/>
+    <col min="10753" max="10753" width="20.5546875" style="11" customWidth="1"/>
+    <col min="10754" max="10754" width="14.5546875" style="11" customWidth="1"/>
+    <col min="10755" max="10755" width="9.21875" style="11"/>
+    <col min="10756" max="10756" width="12.5546875" style="11" customWidth="1"/>
+    <col min="10757" max="10974" width="9.21875" style="11"/>
+    <col min="10975" max="10975" width="11.44140625" style="11" customWidth="1"/>
+    <col min="10976" max="10976" width="10.44140625" style="11" customWidth="1"/>
+    <col min="10977" max="10978" width="12.77734375" style="11" customWidth="1"/>
+    <col min="10979" max="10980" width="27.21875" style="11" customWidth="1"/>
     <col min="10981" max="10981" width="25" style="11" customWidth="1"/>
-    <col min="10982" max="10982" width="8.81640625" style="11" customWidth="1"/>
-    <col min="10983" max="10983" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10984" max="10984" width="10.26953125" style="11" customWidth="1"/>
-    <col min="10985" max="10985" width="21.1796875" style="11" customWidth="1"/>
-    <col min="10986" max="10986" width="17.81640625" style="11" customWidth="1"/>
+    <col min="10982" max="10982" width="8.77734375" style="11" customWidth="1"/>
+    <col min="10983" max="10984" width="10.21875" style="11" customWidth="1"/>
+    <col min="10985" max="10985" width="21.21875" style="11" customWidth="1"/>
+    <col min="10986" max="10986" width="17.77734375" style="11" customWidth="1"/>
     <col min="10987" max="10987" width="13" style="11" customWidth="1"/>
-    <col min="10988" max="10988" width="17.7265625" style="11" customWidth="1"/>
-    <col min="10989" max="10989" width="14.54296875" style="11" customWidth="1"/>
+    <col min="10988" max="10988" width="17.77734375" style="11" customWidth="1"/>
+    <col min="10989" max="10989" width="14.5546875" style="11" customWidth="1"/>
     <col min="10990" max="10990" width="16" style="11" customWidth="1"/>
-    <col min="10991" max="10991" width="17.54296875" style="11" customWidth="1"/>
-    <col min="10992" max="10992" width="11.26953125" style="11" customWidth="1"/>
+    <col min="10991" max="10991" width="17.5546875" style="11" customWidth="1"/>
+    <col min="10992" max="10992" width="11.21875" style="11" customWidth="1"/>
     <col min="10993" max="10993" width="25" style="11" customWidth="1"/>
-    <col min="10994" max="10994" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10995" max="10995" width="28.7265625" style="11" customWidth="1"/>
-    <col min="10996" max="10996" width="19.1796875" style="11" customWidth="1"/>
-    <col min="10997" max="10997" width="10.1796875" style="11" customWidth="1"/>
-    <col min="10998" max="10998" width="22.1796875" style="11" customWidth="1"/>
-    <col min="10999" max="11002" width="10.1796875" style="11" customWidth="1"/>
+    <col min="10994" max="10994" width="10.21875" style="11" customWidth="1"/>
+    <col min="10995" max="10995" width="28.77734375" style="11" customWidth="1"/>
+    <col min="10996" max="10996" width="19.21875" style="11" customWidth="1"/>
+    <col min="10997" max="10997" width="10.21875" style="11" customWidth="1"/>
+    <col min="10998" max="10998" width="22.21875" style="11" customWidth="1"/>
+    <col min="10999" max="11002" width="10.21875" style="11" customWidth="1"/>
     <col min="11003" max="11003" width="9" style="11" customWidth="1"/>
-    <col min="11004" max="11005" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11004" max="11005" width="10.21875" style="11" customWidth="1"/>
     <col min="11006" max="11006" width="9" style="11" customWidth="1"/>
-    <col min="11007" max="11007" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11008" max="11008" width="16.26953125" style="11" customWidth="1"/>
-    <col min="11009" max="11009" width="20.54296875" style="11" customWidth="1"/>
-    <col min="11010" max="11010" width="14.54296875" style="11" customWidth="1"/>
-    <col min="11011" max="11011" width="9.1796875" style="11"/>
-    <col min="11012" max="11012" width="12.54296875" style="11" customWidth="1"/>
-    <col min="11013" max="11230" width="9.1796875" style="11"/>
-    <col min="11231" max="11231" width="11.453125" style="11" customWidth="1"/>
-    <col min="11232" max="11232" width="10.453125" style="11" customWidth="1"/>
-    <col min="11233" max="11233" width="12.81640625" style="11" customWidth="1"/>
-    <col min="11234" max="11234" width="12.7265625" style="11" customWidth="1"/>
-    <col min="11235" max="11236" width="27.26953125" style="11" customWidth="1"/>
+    <col min="11007" max="11007" width="10.21875" style="11" customWidth="1"/>
+    <col min="11008" max="11008" width="16.21875" style="11" customWidth="1"/>
+    <col min="11009" max="11009" width="20.5546875" style="11" customWidth="1"/>
+    <col min="11010" max="11010" width="14.5546875" style="11" customWidth="1"/>
+    <col min="11011" max="11011" width="9.21875" style="11"/>
+    <col min="11012" max="11012" width="12.5546875" style="11" customWidth="1"/>
+    <col min="11013" max="11230" width="9.21875" style="11"/>
+    <col min="11231" max="11231" width="11.44140625" style="11" customWidth="1"/>
+    <col min="11232" max="11232" width="10.44140625" style="11" customWidth="1"/>
+    <col min="11233" max="11234" width="12.77734375" style="11" customWidth="1"/>
+    <col min="11235" max="11236" width="27.21875" style="11" customWidth="1"/>
     <col min="11237" max="11237" width="25" style="11" customWidth="1"/>
-    <col min="11238" max="11238" width="8.81640625" style="11" customWidth="1"/>
-    <col min="11239" max="11239" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11240" max="11240" width="10.26953125" style="11" customWidth="1"/>
-    <col min="11241" max="11241" width="21.1796875" style="11" customWidth="1"/>
-    <col min="11242" max="11242" width="17.81640625" style="11" customWidth="1"/>
+    <col min="11238" max="11238" width="8.77734375" style="11" customWidth="1"/>
+    <col min="11239" max="11240" width="10.21875" style="11" customWidth="1"/>
+    <col min="11241" max="11241" width="21.21875" style="11" customWidth="1"/>
+    <col min="11242" max="11242" width="17.77734375" style="11" customWidth="1"/>
     <col min="11243" max="11243" width="13" style="11" customWidth="1"/>
-    <col min="11244" max="11244" width="17.7265625" style="11" customWidth="1"/>
-    <col min="11245" max="11245" width="14.54296875" style="11" customWidth="1"/>
+    <col min="11244" max="11244" width="17.77734375" style="11" customWidth="1"/>
+    <col min="11245" max="11245" width="14.5546875" style="11" customWidth="1"/>
     <col min="11246" max="11246" width="16" style="11" customWidth="1"/>
-    <col min="11247" max="11247" width="17.54296875" style="11" customWidth="1"/>
-    <col min="11248" max="11248" width="11.26953125" style="11" customWidth="1"/>
+    <col min="11247" max="11247" width="17.5546875" style="11" customWidth="1"/>
+    <col min="11248" max="11248" width="11.21875" style="11" customWidth="1"/>
     <col min="11249" max="11249" width="25" style="11" customWidth="1"/>
-    <col min="11250" max="11250" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11251" max="11251" width="28.7265625" style="11" customWidth="1"/>
-    <col min="11252" max="11252" width="19.1796875" style="11" customWidth="1"/>
-    <col min="11253" max="11253" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11254" max="11254" width="22.1796875" style="11" customWidth="1"/>
-    <col min="11255" max="11258" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11250" max="11250" width="10.21875" style="11" customWidth="1"/>
+    <col min="11251" max="11251" width="28.77734375" style="11" customWidth="1"/>
+    <col min="11252" max="11252" width="19.21875" style="11" customWidth="1"/>
+    <col min="11253" max="11253" width="10.21875" style="11" customWidth="1"/>
+    <col min="11254" max="11254" width="22.21875" style="11" customWidth="1"/>
+    <col min="11255" max="11258" width="10.21875" style="11" customWidth="1"/>
     <col min="11259" max="11259" width="9" style="11" customWidth="1"/>
-    <col min="11260" max="11261" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11260" max="11261" width="10.21875" style="11" customWidth="1"/>
     <col min="11262" max="11262" width="9" style="11" customWidth="1"/>
-    <col min="11263" max="11263" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11264" max="11264" width="16.26953125" style="11" customWidth="1"/>
-    <col min="11265" max="11265" width="20.54296875" style="11" customWidth="1"/>
-    <col min="11266" max="11266" width="14.54296875" style="11" customWidth="1"/>
-    <col min="11267" max="11267" width="9.1796875" style="11"/>
-    <col min="11268" max="11268" width="12.54296875" style="11" customWidth="1"/>
-    <col min="11269" max="11486" width="9.1796875" style="11"/>
-    <col min="11487" max="11487" width="11.453125" style="11" customWidth="1"/>
-    <col min="11488" max="11488" width="10.453125" style="11" customWidth="1"/>
-    <col min="11489" max="11489" width="12.81640625" style="11" customWidth="1"/>
-    <col min="11490" max="11490" width="12.7265625" style="11" customWidth="1"/>
-    <col min="11491" max="11492" width="27.26953125" style="11" customWidth="1"/>
+    <col min="11263" max="11263" width="10.21875" style="11" customWidth="1"/>
+    <col min="11264" max="11264" width="16.21875" style="11" customWidth="1"/>
+    <col min="11265" max="11265" width="20.5546875" style="11" customWidth="1"/>
+    <col min="11266" max="11266" width="14.5546875" style="11" customWidth="1"/>
+    <col min="11267" max="11267" width="9.21875" style="11"/>
+    <col min="11268" max="11268" width="12.5546875" style="11" customWidth="1"/>
+    <col min="11269" max="11486" width="9.21875" style="11"/>
+    <col min="11487" max="11487" width="11.44140625" style="11" customWidth="1"/>
+    <col min="11488" max="11488" width="10.44140625" style="11" customWidth="1"/>
+    <col min="11489" max="11490" width="12.77734375" style="11" customWidth="1"/>
+    <col min="11491" max="11492" width="27.21875" style="11" customWidth="1"/>
     <col min="11493" max="11493" width="25" style="11" customWidth="1"/>
-    <col min="11494" max="11494" width="8.81640625" style="11" customWidth="1"/>
-    <col min="11495" max="11495" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11496" max="11496" width="10.26953125" style="11" customWidth="1"/>
-    <col min="11497" max="11497" width="21.1796875" style="11" customWidth="1"/>
-    <col min="11498" max="11498" width="17.81640625" style="11" customWidth="1"/>
+    <col min="11494" max="11494" width="8.77734375" style="11" customWidth="1"/>
+    <col min="11495" max="11496" width="10.21875" style="11" customWidth="1"/>
+    <col min="11497" max="11497" width="21.21875" style="11" customWidth="1"/>
+    <col min="11498" max="11498" width="17.77734375" style="11" customWidth="1"/>
     <col min="11499" max="11499" width="13" style="11" customWidth="1"/>
-    <col min="11500" max="11500" width="17.7265625" style="11" customWidth="1"/>
-    <col min="11501" max="11501" width="14.54296875" style="11" customWidth="1"/>
+    <col min="11500" max="11500" width="17.77734375" style="11" customWidth="1"/>
+    <col min="11501" max="11501" width="14.5546875" style="11" customWidth="1"/>
     <col min="11502" max="11502" width="16" style="11" customWidth="1"/>
-    <col min="11503" max="11503" width="17.54296875" style="11" customWidth="1"/>
-    <col min="11504" max="11504" width="11.26953125" style="11" customWidth="1"/>
+    <col min="11503" max="11503" width="17.5546875" style="11" customWidth="1"/>
+    <col min="11504" max="11504" width="11.21875" style="11" customWidth="1"/>
     <col min="11505" max="11505" width="25" style="11" customWidth="1"/>
-    <col min="11506" max="11506" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11507" max="11507" width="28.7265625" style="11" customWidth="1"/>
-    <col min="11508" max="11508" width="19.1796875" style="11" customWidth="1"/>
-    <col min="11509" max="11509" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11510" max="11510" width="22.1796875" style="11" customWidth="1"/>
-    <col min="11511" max="11514" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11506" max="11506" width="10.21875" style="11" customWidth="1"/>
+    <col min="11507" max="11507" width="28.77734375" style="11" customWidth="1"/>
+    <col min="11508" max="11508" width="19.21875" style="11" customWidth="1"/>
+    <col min="11509" max="11509" width="10.21875" style="11" customWidth="1"/>
+    <col min="11510" max="11510" width="22.21875" style="11" customWidth="1"/>
+    <col min="11511" max="11514" width="10.21875" style="11" customWidth="1"/>
     <col min="11515" max="11515" width="9" style="11" customWidth="1"/>
-    <col min="11516" max="11517" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11516" max="11517" width="10.21875" style="11" customWidth="1"/>
     <col min="11518" max="11518" width="9" style="11" customWidth="1"/>
-    <col min="11519" max="11519" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11520" max="11520" width="16.26953125" style="11" customWidth="1"/>
-    <col min="11521" max="11521" width="20.54296875" style="11" customWidth="1"/>
-    <col min="11522" max="11522" width="14.54296875" style="11" customWidth="1"/>
-    <col min="11523" max="11523" width="9.1796875" style="11"/>
-    <col min="11524" max="11524" width="12.54296875" style="11" customWidth="1"/>
-    <col min="11525" max="11742" width="9.1796875" style="11"/>
-    <col min="11743" max="11743" width="11.453125" style="11" customWidth="1"/>
-    <col min="11744" max="11744" width="10.453125" style="11" customWidth="1"/>
-    <col min="11745" max="11745" width="12.81640625" style="11" customWidth="1"/>
-    <col min="11746" max="11746" width="12.7265625" style="11" customWidth="1"/>
-    <col min="11747" max="11748" width="27.26953125" style="11" customWidth="1"/>
+    <col min="11519" max="11519" width="10.21875" style="11" customWidth="1"/>
+    <col min="11520" max="11520" width="16.21875" style="11" customWidth="1"/>
+    <col min="11521" max="11521" width="20.5546875" style="11" customWidth="1"/>
+    <col min="11522" max="11522" width="14.5546875" style="11" customWidth="1"/>
+    <col min="11523" max="11523" width="9.21875" style="11"/>
+    <col min="11524" max="11524" width="12.5546875" style="11" customWidth="1"/>
+    <col min="11525" max="11742" width="9.21875" style="11"/>
+    <col min="11743" max="11743" width="11.44140625" style="11" customWidth="1"/>
+    <col min="11744" max="11744" width="10.44140625" style="11" customWidth="1"/>
+    <col min="11745" max="11746" width="12.77734375" style="11" customWidth="1"/>
+    <col min="11747" max="11748" width="27.21875" style="11" customWidth="1"/>
     <col min="11749" max="11749" width="25" style="11" customWidth="1"/>
-    <col min="11750" max="11750" width="8.81640625" style="11" customWidth="1"/>
-    <col min="11751" max="11751" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11752" max="11752" width="10.26953125" style="11" customWidth="1"/>
-    <col min="11753" max="11753" width="21.1796875" style="11" customWidth="1"/>
-    <col min="11754" max="11754" width="17.81640625" style="11" customWidth="1"/>
+    <col min="11750" max="11750" width="8.77734375" style="11" customWidth="1"/>
+    <col min="11751" max="11752" width="10.21875" style="11" customWidth="1"/>
+    <col min="11753" max="11753" width="21.21875" style="11" customWidth="1"/>
+    <col min="11754" max="11754" width="17.77734375" style="11" customWidth="1"/>
     <col min="11755" max="11755" width="13" style="11" customWidth="1"/>
-    <col min="11756" max="11756" width="17.7265625" style="11" customWidth="1"/>
-    <col min="11757" max="11757" width="14.54296875" style="11" customWidth="1"/>
+    <col min="11756" max="11756" width="17.77734375" style="11" customWidth="1"/>
+    <col min="11757" max="11757" width="14.5546875" style="11" customWidth="1"/>
     <col min="11758" max="11758" width="16" style="11" customWidth="1"/>
-    <col min="11759" max="11759" width="17.54296875" style="11" customWidth="1"/>
-    <col min="11760" max="11760" width="11.26953125" style="11" customWidth="1"/>
+    <col min="11759" max="11759" width="17.5546875" style="11" customWidth="1"/>
+    <col min="11760" max="11760" width="11.21875" style="11" customWidth="1"/>
     <col min="11761" max="11761" width="25" style="11" customWidth="1"/>
-    <col min="11762" max="11762" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11763" max="11763" width="28.7265625" style="11" customWidth="1"/>
-    <col min="11764" max="11764" width="19.1796875" style="11" customWidth="1"/>
-    <col min="11765" max="11765" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11766" max="11766" width="22.1796875" style="11" customWidth="1"/>
-    <col min="11767" max="11770" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11762" max="11762" width="10.21875" style="11" customWidth="1"/>
+    <col min="11763" max="11763" width="28.77734375" style="11" customWidth="1"/>
+    <col min="11764" max="11764" width="19.21875" style="11" customWidth="1"/>
+    <col min="11765" max="11765" width="10.21875" style="11" customWidth="1"/>
+    <col min="11766" max="11766" width="22.21875" style="11" customWidth="1"/>
+    <col min="11767" max="11770" width="10.21875" style="11" customWidth="1"/>
     <col min="11771" max="11771" width="9" style="11" customWidth="1"/>
-    <col min="11772" max="11773" width="10.1796875" style="11" customWidth="1"/>
+    <col min="11772" max="11773" width="10.21875" style="11" customWidth="1"/>
     <col min="11774" max="11774" width="9" style="11" customWidth="1"/>
-    <col min="11775" max="11775" width="10.1796875" style="11" customWidth="1"/>
-    <col min="11776" max="11776" width="16.26953125" style="11" customWidth="1"/>
-    <col min="11777" max="11777" width="20.54296875" style="11" customWidth="1"/>
-    <col min="11778" max="11778" width="14.54296875" style="11" customWidth="1"/>
-    <col min="11779" max="11779" width="9.1796875" style="11"/>
-    <col min="11780" max="11780" width="12.54296875" style="11" customWidth="1"/>
-    <col min="11781" max="11998" width="9.1796875" style="11"/>
-    <col min="11999" max="11999" width="11.453125" style="11" customWidth="1"/>
-    <col min="12000" max="12000" width="10.453125" style="11" customWidth="1"/>
-    <col min="12001" max="12001" width="12.81640625" style="11" customWidth="1"/>
-    <col min="12002" max="12002" width="12.7265625" style="11" customWidth="1"/>
-    <col min="12003" max="12004" width="27.26953125" style="11" customWidth="1"/>
+    <col min="11775" max="11775" width="10.21875" style="11" customWidth="1"/>
+    <col min="11776" max="11776" width="16.21875" style="11" customWidth="1"/>
+    <col min="11777" max="11777" width="20.5546875" style="11" customWidth="1"/>
+    <col min="11778" max="11778" width="14.5546875" style="11" customWidth="1"/>
+    <col min="11779" max="11779" width="9.21875" style="11"/>
+    <col min="11780" max="11780" width="12.5546875" style="11" customWidth="1"/>
+    <col min="11781" max="11998" width="9.21875" style="11"/>
+    <col min="11999" max="11999" width="11.44140625" style="11" customWidth="1"/>
+    <col min="12000" max="12000" width="10.44140625" style="11" customWidth="1"/>
+    <col min="12001" max="12002" width="12.77734375" style="11" customWidth="1"/>
+    <col min="12003" max="12004" width="27.21875" style="11" customWidth="1"/>
     <col min="12005" max="12005" width="25" style="11" customWidth="1"/>
-    <col min="12006" max="12006" width="8.81640625" style="11" customWidth="1"/>
-    <col min="12007" max="12007" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12008" max="12008" width="10.26953125" style="11" customWidth="1"/>
-    <col min="12009" max="12009" width="21.1796875" style="11" customWidth="1"/>
-    <col min="12010" max="12010" width="17.81640625" style="11" customWidth="1"/>
+    <col min="12006" max="12006" width="8.77734375" style="11" customWidth="1"/>
+    <col min="12007" max="12008" width="10.21875" style="11" customWidth="1"/>
+    <col min="12009" max="12009" width="21.21875" style="11" customWidth="1"/>
+    <col min="12010" max="12010" width="17.77734375" style="11" customWidth="1"/>
     <col min="12011" max="12011" width="13" style="11" customWidth="1"/>
-    <col min="12012" max="12012" width="17.7265625" style="11" customWidth="1"/>
-    <col min="12013" max="12013" width="14.54296875" style="11" customWidth="1"/>
+    <col min="12012" max="12012" width="17.77734375" style="11" customWidth="1"/>
+    <col min="12013" max="12013" width="14.5546875" style="11" customWidth="1"/>
     <col min="12014" max="12014" width="16" style="11" customWidth="1"/>
-    <col min="12015" max="12015" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12016" max="12016" width="11.26953125" style="11" customWidth="1"/>
+    <col min="12015" max="12015" width="17.5546875" style="11" customWidth="1"/>
+    <col min="12016" max="12016" width="11.21875" style="11" customWidth="1"/>
     <col min="12017" max="12017" width="25" style="11" customWidth="1"/>
-    <col min="12018" max="12018" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12019" max="12019" width="28.7265625" style="11" customWidth="1"/>
-    <col min="12020" max="12020" width="19.1796875" style="11" customWidth="1"/>
-    <col min="12021" max="12021" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12022" max="12022" width="22.1796875" style="11" customWidth="1"/>
-    <col min="12023" max="12026" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12018" max="12018" width="10.21875" style="11" customWidth="1"/>
+    <col min="12019" max="12019" width="28.77734375" style="11" customWidth="1"/>
+    <col min="12020" max="12020" width="19.21875" style="11" customWidth="1"/>
+    <col min="12021" max="12021" width="10.21875" style="11" customWidth="1"/>
+    <col min="12022" max="12022" width="22.21875" style="11" customWidth="1"/>
+    <col min="12023" max="12026" width="10.21875" style="11" customWidth="1"/>
     <col min="12027" max="12027" width="9" style="11" customWidth="1"/>
-    <col min="12028" max="12029" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12028" max="12029" width="10.21875" style="11" customWidth="1"/>
     <col min="12030" max="12030" width="9" style="11" customWidth="1"/>
-    <col min="12031" max="12031" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12032" max="12032" width="16.26953125" style="11" customWidth="1"/>
-    <col min="12033" max="12033" width="20.54296875" style="11" customWidth="1"/>
-    <col min="12034" max="12034" width="14.54296875" style="11" customWidth="1"/>
-    <col min="12035" max="12035" width="9.1796875" style="11"/>
-    <col min="12036" max="12036" width="12.54296875" style="11" customWidth="1"/>
-    <col min="12037" max="12254" width="9.1796875" style="11"/>
-    <col min="12255" max="12255" width="11.453125" style="11" customWidth="1"/>
-    <col min="12256" max="12256" width="10.453125" style="11" customWidth="1"/>
-    <col min="12257" max="12257" width="12.81640625" style="11" customWidth="1"/>
-    <col min="12258" max="12258" width="12.7265625" style="11" customWidth="1"/>
-    <col min="12259" max="12260" width="27.26953125" style="11" customWidth="1"/>
+    <col min="12031" max="12031" width="10.21875" style="11" customWidth="1"/>
+    <col min="12032" max="12032" width="16.21875" style="11" customWidth="1"/>
+    <col min="12033" max="12033" width="20.5546875" style="11" customWidth="1"/>
+    <col min="12034" max="12034" width="14.5546875" style="11" customWidth="1"/>
+    <col min="12035" max="12035" width="9.21875" style="11"/>
+    <col min="12036" max="12036" width="12.5546875" style="11" customWidth="1"/>
+    <col min="12037" max="12254" width="9.21875" style="11"/>
+    <col min="12255" max="12255" width="11.44140625" style="11" customWidth="1"/>
+    <col min="12256" max="12256" width="10.44140625" style="11" customWidth="1"/>
+    <col min="12257" max="12258" width="12.77734375" style="11" customWidth="1"/>
+    <col min="12259" max="12260" width="27.21875" style="11" customWidth="1"/>
     <col min="12261" max="12261" width="25" style="11" customWidth="1"/>
-    <col min="12262" max="12262" width="8.81640625" style="11" customWidth="1"/>
-    <col min="12263" max="12263" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12264" max="12264" width="10.26953125" style="11" customWidth="1"/>
-    <col min="12265" max="12265" width="21.1796875" style="11" customWidth="1"/>
-    <col min="12266" max="12266" width="17.81640625" style="11" customWidth="1"/>
+    <col min="12262" max="12262" width="8.77734375" style="11" customWidth="1"/>
+    <col min="12263" max="12264" width="10.21875" style="11" customWidth="1"/>
+    <col min="12265" max="12265" width="21.21875" style="11" customWidth="1"/>
+    <col min="12266" max="12266" width="17.77734375" style="11" customWidth="1"/>
     <col min="12267" max="12267" width="13" style="11" customWidth="1"/>
-    <col min="12268" max="12268" width="17.7265625" style="11" customWidth="1"/>
-    <col min="12269" max="12269" width="14.54296875" style="11" customWidth="1"/>
+    <col min="12268" max="12268" width="17.77734375" style="11" customWidth="1"/>
+    <col min="12269" max="12269" width="14.5546875" style="11" customWidth="1"/>
     <col min="12270" max="12270" width="16" style="11" customWidth="1"/>
-    <col min="12271" max="12271" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12272" max="12272" width="11.26953125" style="11" customWidth="1"/>
+    <col min="12271" max="12271" width="17.5546875" style="11" customWidth="1"/>
+    <col min="12272" max="12272" width="11.21875" style="11" customWidth="1"/>
     <col min="12273" max="12273" width="25" style="11" customWidth="1"/>
-    <col min="12274" max="12274" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12275" max="12275" width="28.7265625" style="11" customWidth="1"/>
-    <col min="12276" max="12276" width="19.1796875" style="11" customWidth="1"/>
-    <col min="12277" max="12277" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12278" max="12278" width="22.1796875" style="11" customWidth="1"/>
-    <col min="12279" max="12282" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12274" max="12274" width="10.21875" style="11" customWidth="1"/>
+    <col min="12275" max="12275" width="28.77734375" style="11" customWidth="1"/>
+    <col min="12276" max="12276" width="19.21875" style="11" customWidth="1"/>
+    <col min="12277" max="12277" width="10.21875" style="11" customWidth="1"/>
+    <col min="12278" max="12278" width="22.21875" style="11" customWidth="1"/>
+    <col min="12279" max="12282" width="10.21875" style="11" customWidth="1"/>
     <col min="12283" max="12283" width="9" style="11" customWidth="1"/>
-    <col min="12284" max="12285" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12284" max="12285" width="10.21875" style="11" customWidth="1"/>
     <col min="12286" max="12286" width="9" style="11" customWidth="1"/>
-    <col min="12287" max="12287" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12288" max="12288" width="16.26953125" style="11" customWidth="1"/>
-    <col min="12289" max="12289" width="20.54296875" style="11" customWidth="1"/>
-    <col min="12290" max="12290" width="14.54296875" style="11" customWidth="1"/>
-    <col min="12291" max="12291" width="9.1796875" style="11"/>
-    <col min="12292" max="12292" width="12.54296875" style="11" customWidth="1"/>
-    <col min="12293" max="12510" width="9.1796875" style="11"/>
-    <col min="12511" max="12511" width="11.453125" style="11" customWidth="1"/>
-    <col min="12512" max="12512" width="10.453125" style="11" customWidth="1"/>
-    <col min="12513" max="12513" width="12.81640625" style="11" customWidth="1"/>
-    <col min="12514" max="12514" width="12.7265625" style="11" customWidth="1"/>
-    <col min="12515" max="12516" width="27.26953125" style="11" customWidth="1"/>
+    <col min="12287" max="12287" width="10.21875" style="11" customWidth="1"/>
+    <col min="12288" max="12288" width="16.21875" style="11" customWidth="1"/>
+    <col min="12289" max="12289" width="20.5546875" style="11" customWidth="1"/>
+    <col min="12290" max="12290" width="14.5546875" style="11" customWidth="1"/>
+    <col min="12291" max="12291" width="9.21875" style="11"/>
+    <col min="12292" max="12292" width="12.5546875" style="11" customWidth="1"/>
+    <col min="12293" max="12510" width="9.21875" style="11"/>
+    <col min="12511" max="12511" width="11.44140625" style="11" customWidth="1"/>
+    <col min="12512" max="12512" width="10.44140625" style="11" customWidth="1"/>
+    <col min="12513" max="12514" width="12.77734375" style="11" customWidth="1"/>
+    <col min="12515" max="12516" width="27.21875" style="11" customWidth="1"/>
     <col min="12517" max="12517" width="25" style="11" customWidth="1"/>
-    <col min="12518" max="12518" width="8.81640625" style="11" customWidth="1"/>
-    <col min="12519" max="12519" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12520" max="12520" width="10.26953125" style="11" customWidth="1"/>
-    <col min="12521" max="12521" width="21.1796875" style="11" customWidth="1"/>
-    <col min="12522" max="12522" width="17.81640625" style="11" customWidth="1"/>
+    <col min="12518" max="12518" width="8.77734375" style="11" customWidth="1"/>
+    <col min="12519" max="12520" width="10.21875" style="11" customWidth="1"/>
+    <col min="12521" max="12521" width="21.21875" style="11" customWidth="1"/>
+    <col min="12522" max="12522" width="17.77734375" style="11" customWidth="1"/>
     <col min="12523" max="12523" width="13" style="11" customWidth="1"/>
-    <col min="12524" max="12524" width="17.7265625" style="11" customWidth="1"/>
-    <col min="12525" max="12525" width="14.54296875" style="11" customWidth="1"/>
+    <col min="12524" max="12524" width="17.77734375" style="11" customWidth="1"/>
+    <col min="12525" max="12525" width="14.5546875" style="11" customWidth="1"/>
     <col min="12526" max="12526" width="16" style="11" customWidth="1"/>
-    <col min="12527" max="12527" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12528" max="12528" width="11.26953125" style="11" customWidth="1"/>
+    <col min="12527" max="12527" width="17.5546875" style="11" customWidth="1"/>
+    <col min="12528" max="12528" width="11.21875" style="11" customWidth="1"/>
     <col min="12529" max="12529" width="25" style="11" customWidth="1"/>
-    <col min="12530" max="12530" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12531" max="12531" width="28.7265625" style="11" customWidth="1"/>
-    <col min="12532" max="12532" width="19.1796875" style="11" customWidth="1"/>
-    <col min="12533" max="12533" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12534" max="12534" width="22.1796875" style="11" customWidth="1"/>
-    <col min="12535" max="12538" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12530" max="12530" width="10.21875" style="11" customWidth="1"/>
+    <col min="12531" max="12531" width="28.77734375" style="11" customWidth="1"/>
+    <col min="12532" max="12532" width="19.21875" style="11" customWidth="1"/>
+    <col min="12533" max="12533" width="10.21875" style="11" customWidth="1"/>
+    <col min="12534" max="12534" width="22.21875" style="11" customWidth="1"/>
+    <col min="12535" max="12538" width="10.21875" style="11" customWidth="1"/>
     <col min="12539" max="12539" width="9" style="11" customWidth="1"/>
-    <col min="12540" max="12541" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12540" max="12541" width="10.21875" style="11" customWidth="1"/>
     <col min="12542" max="12542" width="9" style="11" customWidth="1"/>
-    <col min="12543" max="12543" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12544" max="12544" width="16.26953125" style="11" customWidth="1"/>
-    <col min="12545" max="12545" width="20.54296875" style="11" customWidth="1"/>
-    <col min="12546" max="12546" width="14.54296875" style="11" customWidth="1"/>
-    <col min="12547" max="12547" width="9.1796875" style="11"/>
-    <col min="12548" max="12548" width="12.54296875" style="11" customWidth="1"/>
-    <col min="12549" max="12766" width="9.1796875" style="11"/>
-    <col min="12767" max="12767" width="11.453125" style="11" customWidth="1"/>
-    <col min="12768" max="12768" width="10.453125" style="11" customWidth="1"/>
-    <col min="12769" max="12769" width="12.81640625" style="11" customWidth="1"/>
-    <col min="12770" max="12770" width="12.7265625" style="11" customWidth="1"/>
-    <col min="12771" max="12772" width="27.26953125" style="11" customWidth="1"/>
+    <col min="12543" max="12543" width="10.21875" style="11" customWidth="1"/>
+    <col min="12544" max="12544" width="16.21875" style="11" customWidth="1"/>
+    <col min="12545" max="12545" width="20.5546875" style="11" customWidth="1"/>
+    <col min="12546" max="12546" width="14.5546875" style="11" customWidth="1"/>
+    <col min="12547" max="12547" width="9.21875" style="11"/>
+    <col min="12548" max="12548" width="12.5546875" style="11" customWidth="1"/>
+    <col min="12549" max="12766" width="9.21875" style="11"/>
+    <col min="12767" max="12767" width="11.44140625" style="11" customWidth="1"/>
+    <col min="12768" max="12768" width="10.44140625" style="11" customWidth="1"/>
+    <col min="12769" max="12770" width="12.77734375" style="11" customWidth="1"/>
+    <col min="12771" max="12772" width="27.21875" style="11" customWidth="1"/>
     <col min="12773" max="12773" width="25" style="11" customWidth="1"/>
-    <col min="12774" max="12774" width="8.81640625" style="11" customWidth="1"/>
-    <col min="12775" max="12775" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12776" max="12776" width="10.26953125" style="11" customWidth="1"/>
-    <col min="12777" max="12777" width="21.1796875" style="11" customWidth="1"/>
-    <col min="12778" max="12778" width="17.81640625" style="11" customWidth="1"/>
+    <col min="12774" max="12774" width="8.77734375" style="11" customWidth="1"/>
+    <col min="12775" max="12776" width="10.21875" style="11" customWidth="1"/>
+    <col min="12777" max="12777" width="21.21875" style="11" customWidth="1"/>
+    <col min="12778" max="12778" width="17.77734375" style="11" customWidth="1"/>
     <col min="12779" max="12779" width="13" style="11" customWidth="1"/>
-    <col min="12780" max="12780" width="17.7265625" style="11" customWidth="1"/>
-    <col min="12781" max="12781" width="14.54296875" style="11" customWidth="1"/>
+    <col min="12780" max="12780" width="17.77734375" style="11" customWidth="1"/>
+    <col min="12781" max="12781" width="14.5546875" style="11" customWidth="1"/>
     <col min="12782" max="12782" width="16" style="11" customWidth="1"/>
-    <col min="12783" max="12783" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12784" max="12784" width="11.26953125" style="11" customWidth="1"/>
+    <col min="12783" max="12783" width="17.5546875" style="11" customWidth="1"/>
+    <col min="12784" max="12784" width="11.21875" style="11" customWidth="1"/>
     <col min="12785" max="12785" width="25" style="11" customWidth="1"/>
-    <col min="12786" max="12786" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12787" max="12787" width="28.7265625" style="11" customWidth="1"/>
-    <col min="12788" max="12788" width="19.1796875" style="11" customWidth="1"/>
-    <col min="12789" max="12789" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12790" max="12790" width="22.1796875" style="11" customWidth="1"/>
-    <col min="12791" max="12794" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12786" max="12786" width="10.21875" style="11" customWidth="1"/>
+    <col min="12787" max="12787" width="28.77734375" style="11" customWidth="1"/>
+    <col min="12788" max="12788" width="19.21875" style="11" customWidth="1"/>
+    <col min="12789" max="12789" width="10.21875" style="11" customWidth="1"/>
+    <col min="12790" max="12790" width="22.21875" style="11" customWidth="1"/>
+    <col min="12791" max="12794" width="10.21875" style="11" customWidth="1"/>
     <col min="12795" max="12795" width="9" style="11" customWidth="1"/>
-    <col min="12796" max="12797" width="10.1796875" style="11" customWidth="1"/>
+    <col min="12796" max="12797" width="10.21875" style="11" customWidth="1"/>
     <col min="12798" max="12798" width="9" style="11" customWidth="1"/>
-    <col min="12799" max="12799" width="10.1796875" style="11" customWidth="1"/>
-    <col min="12800" max="12800" width="16.26953125" style="11" customWidth="1"/>
-    <col min="12801" max="12801" width="20.54296875" style="11" customWidth="1"/>
-    <col min="12802" max="12802" width="14.54296875" style="11" customWidth="1"/>
-    <col min="12803" max="12803" width="9.1796875" style="11"/>
-    <col min="12804" max="12804" width="12.54296875" style="11" customWidth="1"/>
-    <col min="12805" max="13022" width="9.1796875" style="11"/>
-    <col min="13023" max="13023" width="11.453125" style="11" customWidth="1"/>
-    <col min="13024" max="13024" width="10.453125" style="11" customWidth="1"/>
-    <col min="13025" max="13025" width="12.81640625" style="11" customWidth="1"/>
-    <col min="13026" max="13026" width="12.7265625" style="11" customWidth="1"/>
-    <col min="13027" max="13028" width="27.26953125" style="11" customWidth="1"/>
+    <col min="12799" max="12799" width="10.21875" style="11" customWidth="1"/>
+    <col min="12800" max="12800" width="16.21875" style="11" customWidth="1"/>
+    <col min="12801" max="12801" width="20.5546875" style="11" customWidth="1"/>
+    <col min="12802" max="12802" width="14.5546875" style="11" customWidth="1"/>
+    <col min="12803" max="12803" width="9.21875" style="11"/>
+    <col min="12804" max="12804" width="12.5546875" style="11" customWidth="1"/>
+    <col min="12805" max="13022" width="9.21875" style="11"/>
+    <col min="13023" max="13023" width="11.44140625" style="11" customWidth="1"/>
+    <col min="13024" max="13024" width="10.44140625" style="11" customWidth="1"/>
+    <col min="13025" max="13026" width="12.77734375" style="11" customWidth="1"/>
+    <col min="13027" max="13028" width="27.21875" style="11" customWidth="1"/>
     <col min="13029" max="13029" width="25" style="11" customWidth="1"/>
-    <col min="13030" max="13030" width="8.81640625" style="11" customWidth="1"/>
-    <col min="13031" max="13031" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13032" max="13032" width="10.26953125" style="11" customWidth="1"/>
-    <col min="13033" max="13033" width="21.1796875" style="11" customWidth="1"/>
-    <col min="13034" max="13034" width="17.81640625" style="11" customWidth="1"/>
+    <col min="13030" max="13030" width="8.77734375" style="11" customWidth="1"/>
+    <col min="13031" max="13032" width="10.21875" style="11" customWidth="1"/>
+    <col min="13033" max="13033" width="21.21875" style="11" customWidth="1"/>
+    <col min="13034" max="13034" width="17.77734375" style="11" customWidth="1"/>
     <col min="13035" max="13035" width="13" style="11" customWidth="1"/>
-    <col min="13036" max="13036" width="17.7265625" style="11" customWidth="1"/>
-    <col min="13037" max="13037" width="14.54296875" style="11" customWidth="1"/>
+    <col min="13036" max="13036" width="17.77734375" style="11" customWidth="1"/>
+    <col min="13037" max="13037" width="14.5546875" style="11" customWidth="1"/>
     <col min="13038" max="13038" width="16" style="11" customWidth="1"/>
-    <col min="13039" max="13039" width="17.54296875" style="11" customWidth="1"/>
-    <col min="13040" max="13040" width="11.26953125" style="11" customWidth="1"/>
+    <col min="13039" max="13039" width="17.5546875" style="11" customWidth="1"/>
+    <col min="13040" max="13040" width="11.21875" style="11" customWidth="1"/>
     <col min="13041" max="13041" width="25" style="11" customWidth="1"/>
-    <col min="13042" max="13042" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13043" max="13043" width="28.7265625" style="11" customWidth="1"/>
-    <col min="13044" max="13044" width="19.1796875" style="11" customWidth="1"/>
-    <col min="13045" max="13045" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13046" max="13046" width="22.1796875" style="11" customWidth="1"/>
-    <col min="13047" max="13050" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13042" max="13042" width="10.21875" style="11" customWidth="1"/>
+    <col min="13043" max="13043" width="28.77734375" style="11" customWidth="1"/>
+    <col min="13044" max="13044" width="19.21875" style="11" customWidth="1"/>
+    <col min="13045" max="13045" width="10.21875" style="11" customWidth="1"/>
+    <col min="13046" max="13046" width="22.21875" style="11" customWidth="1"/>
+    <col min="13047" max="13050" width="10.21875" style="11" customWidth="1"/>
     <col min="13051" max="13051" width="9" style="11" customWidth="1"/>
-    <col min="13052" max="13053" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13052" max="13053" width="10.21875" style="11" customWidth="1"/>
     <col min="13054" max="13054" width="9" style="11" customWidth="1"/>
-    <col min="13055" max="13055" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13056" max="13056" width="16.26953125" style="11" customWidth="1"/>
-    <col min="13057" max="13057" width="20.54296875" style="11" customWidth="1"/>
-    <col min="13058" max="13058" width="14.54296875" style="11" customWidth="1"/>
-    <col min="13059" max="13059" width="9.1796875" style="11"/>
-    <col min="13060" max="13060" width="12.54296875" style="11" customWidth="1"/>
-    <col min="13061" max="13278" width="9.1796875" style="11"/>
-    <col min="13279" max="13279" width="11.453125" style="11" customWidth="1"/>
-    <col min="13280" max="13280" width="10.453125" style="11" customWidth="1"/>
-    <col min="13281" max="13281" width="12.81640625" style="11" customWidth="1"/>
-    <col min="13282" max="13282" width="12.7265625" style="11" customWidth="1"/>
-    <col min="13283" max="13284" width="27.26953125" style="11" customWidth="1"/>
+    <col min="13055" max="13055" width="10.21875" style="11" customWidth="1"/>
+    <col min="13056" max="13056" width="16.21875" style="11" customWidth="1"/>
+    <col min="13057" max="13057" width="20.5546875" style="11" customWidth="1"/>
+    <col min="13058" max="13058" width="14.5546875" style="11" customWidth="1"/>
+    <col min="13059" max="13059" width="9.21875" style="11"/>
+    <col min="13060" max="13060" width="12.5546875" style="11" customWidth="1"/>
+    <col min="13061" max="13278" width="9.21875" style="11"/>
+    <col min="13279" max="13279" width="11.44140625" style="11" customWidth="1"/>
+    <col min="13280" max="13280" width="10.44140625" style="11" customWidth="1"/>
+    <col min="13281" max="13282" width="12.77734375" style="11" customWidth="1"/>
+    <col min="13283" max="13284" width="27.21875" style="11" customWidth="1"/>
     <col min="13285" max="13285" width="25" style="11" customWidth="1"/>
-    <col min="13286" max="13286" width="8.81640625" style="11" customWidth="1"/>
-    <col min="13287" max="13287" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13288" max="13288" width="10.26953125" style="11" customWidth="1"/>
-    <col min="13289" max="13289" width="21.1796875" style="11" customWidth="1"/>
-    <col min="13290" max="13290" width="17.81640625" style="11" customWidth="1"/>
+    <col min="13286" max="13286" width="8.77734375" style="11" customWidth="1"/>
+    <col min="13287" max="13288" width="10.21875" style="11" customWidth="1"/>
+    <col min="13289" max="13289" width="21.21875" style="11" customWidth="1"/>
+    <col min="13290" max="13290" width="17.77734375" style="11" customWidth="1"/>
     <col min="13291" max="13291" width="13" style="11" customWidth="1"/>
-    <col min="13292" max="13292" width="17.7265625" style="11" customWidth="1"/>
-    <col min="13293" max="13293" width="14.54296875" style="11" customWidth="1"/>
+    <col min="13292" max="13292" width="17.77734375" style="11" customWidth="1"/>
+    <col min="13293" max="13293" width="14.5546875" style="11" customWidth="1"/>
     <col min="13294" max="13294" width="16" style="11" customWidth="1"/>
-    <col min="13295" max="13295" width="17.54296875" style="11" customWidth="1"/>
-    <col min="13296" max="13296" width="11.26953125" style="11" customWidth="1"/>
+    <col min="13295" max="13295" width="17.5546875" style="11" customWidth="1"/>
+    <col min="13296" max="13296" width="11.21875" style="11" customWidth="1"/>
     <col min="13297" max="13297" width="25" style="11" customWidth="1"/>
-    <col min="13298" max="13298" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13299" max="13299" width="28.7265625" style="11" customWidth="1"/>
-    <col min="13300" max="13300" width="19.1796875" style="11" customWidth="1"/>
-    <col min="13301" max="13301" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13302" max="13302" width="22.1796875" style="11" customWidth="1"/>
-    <col min="13303" max="13306" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13298" max="13298" width="10.21875" style="11" customWidth="1"/>
+    <col min="13299" max="13299" width="28.77734375" style="11" customWidth="1"/>
+    <col min="13300" max="13300" width="19.21875" style="11" customWidth="1"/>
+    <col min="13301" max="13301" width="10.21875" style="11" customWidth="1"/>
+    <col min="13302" max="13302" width="22.21875" style="11" customWidth="1"/>
+    <col min="13303" max="13306" width="10.21875" style="11" customWidth="1"/>
     <col min="13307" max="13307" width="9" style="11" customWidth="1"/>
-    <col min="13308" max="13309" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13308" max="13309" width="10.21875" style="11" customWidth="1"/>
     <col min="13310" max="13310" width="9" style="11" customWidth="1"/>
-    <col min="13311" max="13311" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13312" max="13312" width="16.26953125" style="11" customWidth="1"/>
-    <col min="13313" max="13313" width="20.54296875" style="11" customWidth="1"/>
-    <col min="13314" max="13314" width="14.54296875" style="11" customWidth="1"/>
-    <col min="13315" max="13315" width="9.1796875" style="11"/>
-    <col min="13316" max="13316" width="12.54296875" style="11" customWidth="1"/>
-    <col min="13317" max="13534" width="9.1796875" style="11"/>
-    <col min="13535" max="13535" width="11.453125" style="11" customWidth="1"/>
-    <col min="13536" max="13536" width="10.453125" style="11" customWidth="1"/>
-    <col min="13537" max="13537" width="12.81640625" style="11" customWidth="1"/>
-    <col min="13538" max="13538" width="12.7265625" style="11" customWidth="1"/>
-    <col min="13539" max="13540" width="27.26953125" style="11" customWidth="1"/>
+    <col min="13311" max="13311" width="10.21875" style="11" customWidth="1"/>
+    <col min="13312" max="13312" width="16.21875" style="11" customWidth="1"/>
+    <col min="13313" max="13313" width="20.5546875" style="11" customWidth="1"/>
+    <col min="13314" max="13314" width="14.5546875" style="11" customWidth="1"/>
+    <col min="13315" max="13315" width="9.21875" style="11"/>
+    <col min="13316" max="13316" width="12.5546875" style="11" customWidth="1"/>
+    <col min="13317" max="13534" width="9.21875" style="11"/>
+    <col min="13535" max="13535" width="11.44140625" style="11" customWidth="1"/>
+    <col min="13536" max="13536" width="10.44140625" style="11" customWidth="1"/>
+    <col min="13537" max="13538" width="12.77734375" style="11" customWidth="1"/>
+    <col min="13539" max="13540" width="27.21875" style="11" customWidth="1"/>
     <col min="13541" max="13541" width="25" style="11" customWidth="1"/>
-    <col min="13542" max="13542" width="8.81640625" style="11" customWidth="1"/>
-    <col min="13543" max="13543" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13544" max="13544" width="10.26953125" style="11" customWidth="1"/>
-    <col min="13545" max="13545" width="21.1796875" style="11" customWidth="1"/>
-    <col min="13546" max="13546" width="17.81640625" style="11" customWidth="1"/>
+    <col min="13542" max="13542" width="8.77734375" style="11" customWidth="1"/>
+    <col min="13543" max="13544" width="10.21875" style="11" customWidth="1"/>
+    <col min="13545" max="13545" width="21.21875" style="11" customWidth="1"/>
+    <col min="13546" max="13546" width="17.77734375" style="11" customWidth="1"/>
     <col min="13547" max="13547" width="13" style="11" customWidth="1"/>
-    <col min="13548" max="13548" width="17.7265625" style="11" customWidth="1"/>
-    <col min="13549" max="13549" width="14.54296875" style="11" customWidth="1"/>
+    <col min="13548" max="13548" width="17.77734375" style="11" customWidth="1"/>
+    <col min="13549" max="13549" width="14.5546875" style="11" customWidth="1"/>
     <col min="13550" max="13550" width="16" style="11" customWidth="1"/>
-    <col min="13551" max="13551" width="17.54296875" style="11" customWidth="1"/>
-    <col min="13552" max="13552" width="11.26953125" style="11" customWidth="1"/>
+    <col min="13551" max="13551" width="17.5546875" style="11" customWidth="1"/>
+    <col min="13552" max="13552" width="11.21875" style="11" customWidth="1"/>
     <col min="13553" max="13553" width="25" style="11" customWidth="1"/>
-    <col min="13554" max="13554" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13555" max="13555" width="28.7265625" style="11" customWidth="1"/>
-    <col min="13556" max="13556" width="19.1796875" style="11" customWidth="1"/>
-    <col min="13557" max="13557" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13558" max="13558" width="22.1796875" style="11" customWidth="1"/>
-    <col min="13559" max="13562" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13554" max="13554" width="10.21875" style="11" customWidth="1"/>
+    <col min="13555" max="13555" width="28.77734375" style="11" customWidth="1"/>
+    <col min="13556" max="13556" width="19.21875" style="11" customWidth="1"/>
+    <col min="13557" max="13557" width="10.21875" style="11" customWidth="1"/>
+    <col min="13558" max="13558" width="22.21875" style="11" customWidth="1"/>
+    <col min="13559" max="13562" width="10.21875" style="11" customWidth="1"/>
     <col min="13563" max="13563" width="9" style="11" customWidth="1"/>
-    <col min="13564" max="13565" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13564" max="13565" width="10.21875" style="11" customWidth="1"/>
     <col min="13566" max="13566" width="9" style="11" customWidth="1"/>
-    <col min="13567" max="13567" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13568" max="13568" width="16.26953125" style="11" customWidth="1"/>
-    <col min="13569" max="13569" width="20.54296875" style="11" customWidth="1"/>
-    <col min="13570" max="13570" width="14.54296875" style="11" customWidth="1"/>
-    <col min="13571" max="13571" width="9.1796875" style="11"/>
-    <col min="13572" max="13572" width="12.54296875" style="11" customWidth="1"/>
-    <col min="13573" max="13790" width="9.1796875" style="11"/>
-    <col min="13791" max="13791" width="11.453125" style="11" customWidth="1"/>
-    <col min="13792" max="13792" width="10.453125" style="11" customWidth="1"/>
-    <col min="13793" max="13793" width="12.81640625" style="11" customWidth="1"/>
-    <col min="13794" max="13794" width="12.7265625" style="11" customWidth="1"/>
-    <col min="13795" max="13796" width="27.26953125" style="11" customWidth="1"/>
+    <col min="13567" max="13567" width="10.21875" style="11" customWidth="1"/>
+    <col min="13568" max="13568" width="16.21875" style="11" customWidth="1"/>
+    <col min="13569" max="13569" width="20.5546875" style="11" customWidth="1"/>
+    <col min="13570" max="13570" width="14.5546875" style="11" customWidth="1"/>
+    <col min="13571" max="13571" width="9.21875" style="11"/>
+    <col min="13572" max="13572" width="12.5546875" style="11" customWidth="1"/>
+    <col min="13573" max="13790" width="9.21875" style="11"/>
+    <col min="13791" max="13791" width="11.44140625" style="11" customWidth="1"/>
+    <col min="13792" max="13792" width="10.44140625" style="11" customWidth="1"/>
+    <col min="13793" max="13794" width="12.77734375" style="11" customWidth="1"/>
+    <col min="13795" max="13796" width="27.21875" style="11" customWidth="1"/>
     <col min="13797" max="13797" width="25" style="11" customWidth="1"/>
-    <col min="13798" max="13798" width="8.81640625" style="11" customWidth="1"/>
-    <col min="13799" max="13799" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13800" max="13800" width="10.26953125" style="11" customWidth="1"/>
-    <col min="13801" max="13801" width="21.1796875" style="11" customWidth="1"/>
-    <col min="13802" max="13802" width="17.81640625" style="11" customWidth="1"/>
+    <col min="13798" max="13798" width="8.77734375" style="11" customWidth="1"/>
+    <col min="13799" max="13800" width="10.21875" style="11" customWidth="1"/>
+    <col min="13801" max="13801" width="21.21875" style="11" customWidth="1"/>
+    <col min="13802" max="13802" width="17.77734375" style="11" customWidth="1"/>
     <col min="13803" max="13803" width="13" style="11" customWidth="1"/>
-    <col min="13804" max="13804" width="17.7265625" style="11" customWidth="1"/>
-    <col min="13805" max="13805" width="14.54296875" style="11" customWidth="1"/>
+    <col min="13804" max="13804" width="17.77734375" style="11" customWidth="1"/>
+    <col min="13805" max="13805" width="14.5546875" style="11" customWidth="1"/>
     <col min="13806" max="13806" width="16" style="11" customWidth="1"/>
-    <col min="13807" max="13807" width="17.54296875" style="11" customWidth="1"/>
-    <col min="13808" max="13808" width="11.26953125" style="11" customWidth="1"/>
+    <col min="13807" max="13807" width="17.5546875" style="11" customWidth="1"/>
+    <col min="13808" max="13808" width="11.21875" style="11" customWidth="1"/>
     <col min="13809" max="13809" width="25" style="11" customWidth="1"/>
-    <col min="13810" max="13810" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13811" max="13811" width="28.7265625" style="11" customWidth="1"/>
-    <col min="13812" max="13812" width="19.1796875" style="11" customWidth="1"/>
-    <col min="13813" max="13813" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13814" max="13814" width="22.1796875" style="11" customWidth="1"/>
-    <col min="13815" max="13818" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13810" max="13810" width="10.21875" style="11" customWidth="1"/>
+    <col min="13811" max="13811" width="28.77734375" style="11" customWidth="1"/>
+    <col min="13812" max="13812" width="19.21875" style="11" customWidth="1"/>
+    <col min="13813" max="13813" width="10.21875" style="11" customWidth="1"/>
+    <col min="13814" max="13814" width="22.21875" style="11" customWidth="1"/>
+    <col min="13815" max="13818" width="10.21875" style="11" customWidth="1"/>
     <col min="13819" max="13819" width="9" style="11" customWidth="1"/>
-    <col min="13820" max="13821" width="10.1796875" style="11" customWidth="1"/>
+    <col min="13820" max="13821" width="10.21875" style="11" customWidth="1"/>
     <col min="13822" max="13822" width="9" style="11" customWidth="1"/>
-    <col min="13823" max="13823" width="10.1796875" style="11" customWidth="1"/>
-    <col min="13824" max="13824" width="16.26953125" style="11" customWidth="1"/>
-    <col min="13825" max="13825" width="20.54296875" style="11" customWidth="1"/>
-    <col min="13826" max="13826" width="14.54296875" style="11" customWidth="1"/>
-    <col min="13827" max="13827" width="9.1796875" style="11"/>
-    <col min="13828" max="13828" width="12.54296875" style="11" customWidth="1"/>
-    <col min="13829" max="14046" width="9.1796875" style="11"/>
-    <col min="14047" max="14047" width="11.453125" style="11" customWidth="1"/>
-    <col min="14048" max="14048" width="10.453125" style="11" customWidth="1"/>
-    <col min="14049" max="14049" width="12.81640625" style="11" customWidth="1"/>
-    <col min="14050" max="14050" width="12.7265625" style="11" customWidth="1"/>
-    <col min="14051" max="14052" width="27.26953125" style="11" customWidth="1"/>
+    <col min="13823" max="13823" width="10.21875" style="11" customWidth="1"/>
+    <col min="13824" max="13824" width="16.21875" style="11" customWidth="1"/>
+    <col min="13825" max="13825" width="20.5546875" style="11" customWidth="1"/>
+    <col min="13826" max="13826" width="14.5546875" style="11" customWidth="1"/>
+    <col min="13827" max="13827" width="9.21875" style="11"/>
+    <col min="13828" max="13828" width="12.5546875" style="11" customWidth="1"/>
+    <col min="13829" max="14046" width="9.21875" style="11"/>
+    <col min="14047" max="14047" width="11.44140625" style="11" customWidth="1"/>
+    <col min="14048" max="14048" width="10.44140625" style="11" customWidth="1"/>
+    <col min="14049" max="14050" width="12.77734375" style="11" customWidth="1"/>
+    <col min="14051" max="14052" width="27.21875" style="11" customWidth="1"/>
     <col min="14053" max="14053" width="25" style="11" customWidth="1"/>
-    <col min="14054" max="14054" width="8.81640625" style="11" customWidth="1"/>
-    <col min="14055" max="14055" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14056" max="14056" width="10.26953125" style="11" customWidth="1"/>
-    <col min="14057" max="14057" width="21.1796875" style="11" customWidth="1"/>
-    <col min="14058" max="14058" width="17.81640625" style="11" customWidth="1"/>
+    <col min="14054" max="14054" width="8.77734375" style="11" customWidth="1"/>
+    <col min="14055" max="14056" width="10.21875" style="11" customWidth="1"/>
+    <col min="14057" max="14057" width="21.21875" style="11" customWidth="1"/>
+    <col min="14058" max="14058" width="17.77734375" style="11" customWidth="1"/>
     <col min="14059" max="14059" width="13" style="11" customWidth="1"/>
-    <col min="14060" max="14060" width="17.7265625" style="11" customWidth="1"/>
-    <col min="14061" max="14061" width="14.54296875" style="11" customWidth="1"/>
+    <col min="14060" max="14060" width="17.77734375" style="11" customWidth="1"/>
+    <col min="14061" max="14061" width="14.5546875" style="11" customWidth="1"/>
     <col min="14062" max="14062" width="16" style="11" customWidth="1"/>
-    <col min="14063" max="14063" width="17.54296875" style="11" customWidth="1"/>
-    <col min="14064" max="14064" width="11.26953125" style="11" customWidth="1"/>
+    <col min="14063" max="14063" width="17.5546875" style="11" customWidth="1"/>
+    <col min="14064" max="14064" width="11.21875" style="11" customWidth="1"/>
     <col min="14065" max="14065" width="25" style="11" customWidth="1"/>
-    <col min="14066" max="14066" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14067" max="14067" width="28.7265625" style="11" customWidth="1"/>
-    <col min="14068" max="14068" width="19.1796875" style="11" customWidth="1"/>
-    <col min="14069" max="14069" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14070" max="14070" width="22.1796875" style="11" customWidth="1"/>
-    <col min="14071" max="14074" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14066" max="14066" width="10.21875" style="11" customWidth="1"/>
+    <col min="14067" max="14067" width="28.77734375" style="11" customWidth="1"/>
+    <col min="14068" max="14068" width="19.21875" style="11" customWidth="1"/>
+    <col min="14069" max="14069" width="10.21875" style="11" customWidth="1"/>
+    <col min="14070" max="14070" width="22.21875" style="11" customWidth="1"/>
+    <col min="14071" max="14074" width="10.21875" style="11" customWidth="1"/>
     <col min="14075" max="14075" width="9" style="11" customWidth="1"/>
-    <col min="14076" max="14077" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14076" max="14077" width="10.21875" style="11" customWidth="1"/>
     <col min="14078" max="14078" width="9" style="11" customWidth="1"/>
-    <col min="14079" max="14079" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14080" max="14080" width="16.26953125" style="11" customWidth="1"/>
-    <col min="14081" max="14081" width="20.54296875" style="11" customWidth="1"/>
-    <col min="14082" max="14082" width="14.54296875" style="11" customWidth="1"/>
-    <col min="14083" max="14083" width="9.1796875" style="11"/>
-    <col min="14084" max="14084" width="12.54296875" style="11" customWidth="1"/>
-    <col min="14085" max="14302" width="9.1796875" style="11"/>
-    <col min="14303" max="14303" width="11.453125" style="11" customWidth="1"/>
-    <col min="14304" max="14304" width="10.453125" style="11" customWidth="1"/>
-    <col min="14305" max="14305" width="12.81640625" style="11" customWidth="1"/>
-    <col min="14306" max="14306" width="12.7265625" style="11" customWidth="1"/>
-    <col min="14307" max="14308" width="27.26953125" style="11" customWidth="1"/>
+    <col min="14079" max="14079" width="10.21875" style="11" customWidth="1"/>
+    <col min="14080" max="14080" width="16.21875" style="11" customWidth="1"/>
+    <col min="14081" max="14081" width="20.5546875" style="11" customWidth="1"/>
+    <col min="14082" max="14082" width="14.5546875" style="11" customWidth="1"/>
+    <col min="14083" max="14083" width="9.21875" style="11"/>
+    <col min="14084" max="14084" width="12.5546875" style="11" customWidth="1"/>
+    <col min="14085" max="14302" width="9.21875" style="11"/>
+    <col min="14303" max="14303" width="11.44140625" style="11" customWidth="1"/>
+    <col min="14304" max="14304" width="10.44140625" style="11" customWidth="1"/>
+    <col min="14305" max="14306" width="12.77734375" style="11" customWidth="1"/>
+    <col min="14307" max="14308" width="27.21875" style="11" customWidth="1"/>
     <col min="14309" max="14309" width="25" style="11" customWidth="1"/>
-    <col min="14310" max="14310" width="8.81640625" style="11" customWidth="1"/>
-    <col min="14311" max="14311" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14312" max="14312" width="10.26953125" style="11" customWidth="1"/>
-    <col min="14313" max="14313" width="21.1796875" style="11" customWidth="1"/>
-    <col min="14314" max="14314" width="17.81640625" style="11" customWidth="1"/>
+    <col min="14310" max="14310" width="8.77734375" style="11" customWidth="1"/>
+    <col min="14311" max="14312" width="10.21875" style="11" customWidth="1"/>
+    <col min="14313" max="14313" width="21.21875" style="11" customWidth="1"/>
+    <col min="14314" max="14314" width="17.77734375" style="11" customWidth="1"/>
     <col min="14315" max="14315" width="13" style="11" customWidth="1"/>
-    <col min="14316" max="14316" width="17.7265625" style="11" customWidth="1"/>
-    <col min="14317" max="14317" width="14.54296875" style="11" customWidth="1"/>
+    <col min="14316" max="14316" width="17.77734375" style="11" customWidth="1"/>
+    <col min="14317" max="14317" width="14.5546875" style="11" customWidth="1"/>
     <col min="14318" max="14318" width="16" style="11" customWidth="1"/>
-    <col min="14319" max="14319" width="17.54296875" style="11" customWidth="1"/>
-    <col min="14320" max="14320" width="11.26953125" style="11" customWidth="1"/>
+    <col min="14319" max="14319" width="17.5546875" style="11" customWidth="1"/>
+    <col min="14320" max="14320" width="11.21875" style="11" customWidth="1"/>
     <col min="14321" max="14321" width="25" style="11" customWidth="1"/>
-    <col min="14322" max="14322" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14323" max="14323" width="28.7265625" style="11" customWidth="1"/>
-    <col min="14324" max="14324" width="19.1796875" style="11" customWidth="1"/>
-    <col min="14325" max="14325" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14326" max="14326" width="22.1796875" style="11" customWidth="1"/>
-    <col min="14327" max="14330" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14322" max="14322" width="10.21875" style="11" customWidth="1"/>
+    <col min="14323" max="14323" width="28.77734375" style="11" customWidth="1"/>
+    <col min="14324" max="14324" width="19.21875" style="11" customWidth="1"/>
+    <col min="14325" max="14325" width="10.21875" style="11" customWidth="1"/>
+    <col min="14326" max="14326" width="22.21875" style="11" customWidth="1"/>
+    <col min="14327" max="14330" width="10.21875" style="11" customWidth="1"/>
     <col min="14331" max="14331" width="9" style="11" customWidth="1"/>
-    <col min="14332" max="14333" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14332" max="14333" width="10.21875" style="11" customWidth="1"/>
     <col min="14334" max="14334" width="9" style="11" customWidth="1"/>
-    <col min="14335" max="14335" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14336" max="14336" width="16.26953125" style="11" customWidth="1"/>
-    <col min="14337" max="14337" width="20.54296875" style="11" customWidth="1"/>
-    <col min="14338" max="14338" width="14.54296875" style="11" customWidth="1"/>
-    <col min="14339" max="14339" width="9.1796875" style="11"/>
-    <col min="14340" max="14340" width="12.54296875" style="11" customWidth="1"/>
-    <col min="14341" max="14558" width="9.1796875" style="11"/>
-    <col min="14559" max="14559" width="11.453125" style="11" customWidth="1"/>
-    <col min="14560" max="14560" width="10.453125" style="11" customWidth="1"/>
-    <col min="14561" max="14561" width="12.81640625" style="11" customWidth="1"/>
-    <col min="14562" max="14562" width="12.7265625" style="11" customWidth="1"/>
-    <col min="14563" max="14564" width="27.26953125" style="11" customWidth="1"/>
+    <col min="14335" max="14335" width="10.21875" style="11" customWidth="1"/>
+    <col min="14336" max="14336" width="16.21875" style="11" customWidth="1"/>
+    <col min="14337" max="14337" width="20.5546875" style="11" customWidth="1"/>
+    <col min="14338" max="14338" width="14.5546875" style="11" customWidth="1"/>
+    <col min="14339" max="14339" width="9.21875" style="11"/>
+    <col min="14340" max="14340" width="12.5546875" style="11" customWidth="1"/>
+    <col min="14341" max="14558" width="9.21875" style="11"/>
+    <col min="14559" max="14559" width="11.44140625" style="11" customWidth="1"/>
+    <col min="14560" max="14560" width="10.44140625" style="11" customWidth="1"/>
+    <col min="14561" max="14562" width="12.77734375" style="11" customWidth="1"/>
+    <col min="14563" max="14564" width="27.21875" style="11" customWidth="1"/>
     <col min="14565" max="14565" width="25" style="11" customWidth="1"/>
-    <col min="14566" max="14566" width="8.81640625" style="11" customWidth="1"/>
-    <col min="14567" max="14567" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14568" max="14568" width="10.26953125" style="11" customWidth="1"/>
-    <col min="14569" max="14569" width="21.1796875" style="11" customWidth="1"/>
-    <col min="14570" max="14570" width="17.81640625" style="11" customWidth="1"/>
+    <col min="14566" max="14566" width="8.77734375" style="11" customWidth="1"/>
+    <col min="14567" max="14568" width="10.21875" style="11" customWidth="1"/>
+    <col min="14569" max="14569" width="21.21875" style="11" customWidth="1"/>
+    <col min="14570" max="14570" width="17.77734375" style="11" customWidth="1"/>
     <col min="14571" max="14571" width="13" style="11" customWidth="1"/>
-    <col min="14572" max="14572" width="17.7265625" style="11" customWidth="1"/>
-    <col min="14573" max="14573" width="14.54296875" style="11" customWidth="1"/>
+    <col min="14572" max="14572" width="17.77734375" style="11" customWidth="1"/>
+    <col min="14573" max="14573" width="14.5546875" style="11" customWidth="1"/>
     <col min="14574" max="14574" width="16" style="11" customWidth="1"/>
-    <col min="14575" max="14575" width="17.54296875" style="11" customWidth="1"/>
-    <col min="14576" max="14576" width="11.26953125" style="11" customWidth="1"/>
+    <col min="14575" max="14575" width="17.5546875" style="11" customWidth="1"/>
+    <col min="14576" max="14576" width="11.21875" style="11" customWidth="1"/>
     <col min="14577" max="14577" width="25" style="11" customWidth="1"/>
-    <col min="14578" max="14578" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14579" max="14579" width="28.7265625" style="11" customWidth="1"/>
-    <col min="14580" max="14580" width="19.1796875" style="11" customWidth="1"/>
-    <col min="14581" max="14581" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14582" max="14582" width="22.1796875" style="11" customWidth="1"/>
-    <col min="14583" max="14586" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14578" max="14578" width="10.21875" style="11" customWidth="1"/>
+    <col min="14579" max="14579" width="28.77734375" style="11" customWidth="1"/>
+    <col min="14580" max="14580" width="19.21875" style="11" customWidth="1"/>
+    <col min="14581" max="14581" width="10.21875" style="11" customWidth="1"/>
+    <col min="14582" max="14582" width="22.21875" style="11" customWidth="1"/>
+    <col min="14583" max="14586" width="10.21875" style="11" customWidth="1"/>
     <col min="14587" max="14587" width="9" style="11" customWidth="1"/>
-    <col min="14588" max="14589" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14588" max="14589" width="10.21875" style="11" customWidth="1"/>
     <col min="14590" max="14590" width="9" style="11" customWidth="1"/>
-    <col min="14591" max="14591" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14592" max="14592" width="16.26953125" style="11" customWidth="1"/>
-    <col min="14593" max="14593" width="20.54296875" style="11" customWidth="1"/>
-    <col min="14594" max="14594" width="14.54296875" style="11" customWidth="1"/>
-    <col min="14595" max="14595" width="9.1796875" style="11"/>
-    <col min="14596" max="14596" width="12.54296875" style="11" customWidth="1"/>
-    <col min="14597" max="14814" width="9.1796875" style="11"/>
-    <col min="14815" max="14815" width="11.453125" style="11" customWidth="1"/>
-    <col min="14816" max="14816" width="10.453125" style="11" customWidth="1"/>
-    <col min="14817" max="14817" width="12.81640625" style="11" customWidth="1"/>
-    <col min="14818" max="14818" width="12.7265625" style="11" customWidth="1"/>
-    <col min="14819" max="14820" width="27.26953125" style="11" customWidth="1"/>
+    <col min="14591" max="14591" width="10.21875" style="11" customWidth="1"/>
+    <col min="14592" max="14592" width="16.21875" style="11" customWidth="1"/>
+    <col min="14593" max="14593" width="20.5546875" style="11" customWidth="1"/>
+    <col min="14594" max="14594" width="14.5546875" style="11" customWidth="1"/>
+    <col min="14595" max="14595" width="9.21875" style="11"/>
+    <col min="14596" max="14596" width="12.5546875" style="11" customWidth="1"/>
+    <col min="14597" max="14814" width="9.21875" style="11"/>
+    <col min="14815" max="14815" width="11.44140625" style="11" customWidth="1"/>
+    <col min="14816" max="14816" width="10.44140625" style="11" customWidth="1"/>
+    <col min="14817" max="14818" width="12.77734375" style="11" customWidth="1"/>
+    <col min="14819" max="14820" width="27.21875" style="11" customWidth="1"/>
     <col min="14821" max="14821" width="25" style="11" customWidth="1"/>
-    <col min="14822" max="14822" width="8.81640625" style="11" customWidth="1"/>
-    <col min="14823" max="14823" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14824" max="14824" width="10.26953125" style="11" customWidth="1"/>
-    <col min="14825" max="14825" width="21.1796875" style="11" customWidth="1"/>
-    <col min="14826" max="14826" width="17.81640625" style="11" customWidth="1"/>
+    <col min="14822" max="14822" width="8.77734375" style="11" customWidth="1"/>
+    <col min="14823" max="14824" width="10.21875" style="11" customWidth="1"/>
+    <col min="14825" max="14825" width="21.21875" style="11" customWidth="1"/>
+    <col min="14826" max="14826" width="17.77734375" style="11" customWidth="1"/>
     <col min="14827" max="14827" width="13" style="11" customWidth="1"/>
-    <col min="14828" max="14828" width="17.7265625" style="11" customWidth="1"/>
-    <col min="14829" max="14829" width="14.54296875" style="11" customWidth="1"/>
+    <col min="14828" max="14828" width="17.77734375" style="11" customWidth="1"/>
+    <col min="14829" max="14829" width="14.5546875" style="11" customWidth="1"/>
     <col min="14830" max="14830" width="16" style="11" customWidth="1"/>
-    <col min="14831" max="14831" width="17.54296875" style="11" customWidth="1"/>
-    <col min="14832" max="14832" width="11.26953125" style="11" customWidth="1"/>
+    <col min="14831" max="14831" width="17.5546875" style="11" customWidth="1"/>
+    <col min="14832" max="14832" width="11.21875" style="11" customWidth="1"/>
     <col min="14833" max="14833" width="25" style="11" customWidth="1"/>
-    <col min="14834" max="14834" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14835" max="14835" width="28.7265625" style="11" customWidth="1"/>
-    <col min="14836" max="14836" width="19.1796875" style="11" customWidth="1"/>
-    <col min="14837" max="14837" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14838" max="14838" width="22.1796875" style="11" customWidth="1"/>
-    <col min="14839" max="14842" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14834" max="14834" width="10.21875" style="11" customWidth="1"/>
+    <col min="14835" max="14835" width="28.77734375" style="11" customWidth="1"/>
+    <col min="14836" max="14836" width="19.21875" style="11" customWidth="1"/>
+    <col min="14837" max="14837" width="10.21875" style="11" customWidth="1"/>
+    <col min="14838" max="14838" width="22.21875" style="11" customWidth="1"/>
+    <col min="14839" max="14842" width="10.21875" style="11" customWidth="1"/>
     <col min="14843" max="14843" width="9" style="11" customWidth="1"/>
-    <col min="14844" max="14845" width="10.1796875" style="11" customWidth="1"/>
+    <col min="14844" max="14845" width="10.21875" style="11" customWidth="1"/>
     <col min="14846" max="14846" width="9" style="11" customWidth="1"/>
-    <col min="14847" max="14847" width="10.1796875" style="11" customWidth="1"/>
-    <col min="14848" max="14848" width="16.26953125" style="11" customWidth="1"/>
-    <col min="14849" max="14849" width="20.54296875" style="11" customWidth="1"/>
-    <col min="14850" max="14850" width="14.54296875" style="11" customWidth="1"/>
-    <col min="14851" max="14851" width="9.1796875" style="11"/>
-    <col min="14852" max="14852" width="12.54296875" style="11" customWidth="1"/>
-    <col min="14853" max="15070" width="9.1796875" style="11"/>
-    <col min="15071" max="15071" width="11.453125" style="11" customWidth="1"/>
-    <col min="15072" max="15072" width="10.453125" style="11" customWidth="1"/>
-    <col min="15073" max="15073" width="12.81640625" style="11" customWidth="1"/>
-    <col min="15074" max="15074" width="12.7265625" style="11" customWidth="1"/>
-    <col min="15075" max="15076" width="27.26953125" style="11" customWidth="1"/>
+    <col min="14847" max="14847" width="10.21875" style="11" customWidth="1"/>
+    <col min="14848" max="14848" width="16.21875" style="11" customWidth="1"/>
+    <col min="14849" max="14849" width="20.5546875" style="11" customWidth="1"/>
+    <col min="14850" max="14850" width="14.5546875" style="11" customWidth="1"/>
+    <col min="14851" max="14851" width="9.21875" style="11"/>
+    <col min="14852" max="14852" width="12.5546875" style="11" customWidth="1"/>
+    <col min="14853" max="15070" width="9.21875" style="11"/>
+    <col min="15071" max="15071" width="11.44140625" style="11" customWidth="1"/>
+    <col min="15072" max="15072" width="10.44140625" style="11" customWidth="1"/>
+    <col min="15073" max="15074" width="12.77734375" style="11" customWidth="1"/>
+    <col min="15075" max="15076" width="27.21875" style="11" customWidth="1"/>
     <col min="15077" max="15077" width="25" style="11" customWidth="1"/>
-    <col min="15078" max="15078" width="8.81640625" style="11" customWidth="1"/>
-    <col min="15079" max="15079" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15080" max="15080" width="10.26953125" style="11" customWidth="1"/>
-    <col min="15081" max="15081" width="21.1796875" style="11" customWidth="1"/>
-    <col min="15082" max="15082" width="17.81640625" style="11" customWidth="1"/>
+    <col min="15078" max="15078" width="8.77734375" style="11" customWidth="1"/>
+    <col min="15079" max="15080" width="10.21875" style="11" customWidth="1"/>
+    <col min="15081" max="15081" width="21.21875" style="11" customWidth="1"/>
+    <col min="15082" max="15082" width="17.77734375" style="11" customWidth="1"/>
     <col min="15083" max="15083" width="13" style="11" customWidth="1"/>
-    <col min="15084" max="15084" width="17.7265625" style="11" customWidth="1"/>
-    <col min="15085" max="15085" width="14.54296875" style="11" customWidth="1"/>
+    <col min="15084" max="15084" width="17.77734375" style="11" customWidth="1"/>
+    <col min="15085" max="15085" width="14.5546875" style="11" customWidth="1"/>
     <col min="15086" max="15086" width="16" style="11" customWidth="1"/>
-    <col min="15087" max="15087" width="17.54296875" style="11" customWidth="1"/>
-    <col min="15088" max="15088" width="11.26953125" style="11" customWidth="1"/>
+    <col min="15087" max="15087" width="17.5546875" style="11" customWidth="1"/>
+    <col min="15088" max="15088" width="11.21875" style="11" customWidth="1"/>
     <col min="15089" max="15089" width="25" style="11" customWidth="1"/>
-    <col min="15090" max="15090" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15091" max="15091" width="28.7265625" style="11" customWidth="1"/>
-    <col min="15092" max="15092" width="19.1796875" style="11" customWidth="1"/>
-    <col min="15093" max="15093" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15094" max="15094" width="22.1796875" style="11" customWidth="1"/>
-    <col min="15095" max="15098" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15090" max="15090" width="10.21875" style="11" customWidth="1"/>
+    <col min="15091" max="15091" width="28.77734375" style="11" customWidth="1"/>
+    <col min="15092" max="15092" width="19.21875" style="11" customWidth="1"/>
+    <col min="15093" max="15093" width="10.21875" style="11" customWidth="1"/>
+    <col min="15094" max="15094" width="22.21875" style="11" customWidth="1"/>
+    <col min="15095" max="15098" width="10.21875" style="11" customWidth="1"/>
     <col min="15099" max="15099" width="9" style="11" customWidth="1"/>
-    <col min="15100" max="15101" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15100" max="15101" width="10.21875" style="11" customWidth="1"/>
     <col min="15102" max="15102" width="9" style="11" customWidth="1"/>
-    <col min="15103" max="15103" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15104" max="15104" width="16.26953125" style="11" customWidth="1"/>
-    <col min="15105" max="15105" width="20.54296875" style="11" customWidth="1"/>
-    <col min="15106" max="15106" width="14.54296875" style="11" customWidth="1"/>
-    <col min="15107" max="15107" width="9.1796875" style="11"/>
-    <col min="15108" max="15108" width="12.54296875" style="11" customWidth="1"/>
-    <col min="15109" max="15326" width="9.1796875" style="11"/>
-    <col min="15327" max="15327" width="11.453125" style="11" customWidth="1"/>
-    <col min="15328" max="15328" width="10.453125" style="11" customWidth="1"/>
-    <col min="15329" max="15329" width="12.81640625" style="11" customWidth="1"/>
-    <col min="15330" max="15330" width="12.7265625" style="11" customWidth="1"/>
-    <col min="15331" max="15332" width="27.26953125" style="11" customWidth="1"/>
+    <col min="15103" max="15103" width="10.21875" style="11" customWidth="1"/>
+    <col min="15104" max="15104" width="16.21875" style="11" customWidth="1"/>
+    <col min="15105" max="15105" width="20.5546875" style="11" customWidth="1"/>
+    <col min="15106" max="15106" width="14.5546875" style="11" customWidth="1"/>
+    <col min="15107" max="15107" width="9.21875" style="11"/>
+    <col min="15108" max="15108" width="12.5546875" style="11" customWidth="1"/>
+    <col min="15109" max="15326" width="9.21875" style="11"/>
+    <col min="15327" max="15327" width="11.44140625" style="11" customWidth="1"/>
+    <col min="15328" max="15328" width="10.44140625" style="11" customWidth="1"/>
+    <col min="15329" max="15330" width="12.77734375" style="11" customWidth="1"/>
+    <col min="15331" max="15332" width="27.21875" style="11" customWidth="1"/>
     <col min="15333" max="15333" width="25" style="11" customWidth="1"/>
-    <col min="15334" max="15334" width="8.81640625" style="11" customWidth="1"/>
-    <col min="15335" max="15335" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15336" max="15336" width="10.26953125" style="11" customWidth="1"/>
-    <col min="15337" max="15337" width="21.1796875" style="11" customWidth="1"/>
-    <col min="15338" max="15338" width="17.81640625" style="11" customWidth="1"/>
+    <col min="15334" max="15334" width="8.77734375" style="11" customWidth="1"/>
+    <col min="15335" max="15336" width="10.21875" style="11" customWidth="1"/>
+    <col min="15337" max="15337" width="21.21875" style="11" customWidth="1"/>
+    <col min="15338" max="15338" width="17.77734375" style="11" customWidth="1"/>
     <col min="15339" max="15339" width="13" style="11" customWidth="1"/>
-    <col min="15340" max="15340" width="17.7265625" style="11" customWidth="1"/>
-    <col min="15341" max="15341" width="14.54296875" style="11" customWidth="1"/>
+    <col min="15340" max="15340" width="17.77734375" style="11" customWidth="1"/>
+    <col min="15341" max="15341" width="14.5546875" style="11" customWidth="1"/>
     <col min="15342" max="15342" width="16" style="11" customWidth="1"/>
-    <col min="15343" max="15343" width="17.54296875" style="11" customWidth="1"/>
-    <col min="15344" max="15344" width="11.26953125" style="11" customWidth="1"/>
+    <col min="15343" max="15343" width="17.5546875" style="11" customWidth="1"/>
+    <col min="15344" max="15344" width="11.21875" style="11" customWidth="1"/>
     <col min="15345" max="15345" width="25" style="11" customWidth="1"/>
-    <col min="15346" max="15346" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15347" max="15347" width="28.7265625" style="11" customWidth="1"/>
-    <col min="15348" max="15348" width="19.1796875" style="11" customWidth="1"/>
-    <col min="15349" max="15349" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15350" max="15350" width="22.1796875" style="11" customWidth="1"/>
-    <col min="15351" max="15354" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15346" max="15346" width="10.21875" style="11" customWidth="1"/>
+    <col min="15347" max="15347" width="28.77734375" style="11" customWidth="1"/>
+    <col min="15348" max="15348" width="19.21875" style="11" customWidth="1"/>
+    <col min="15349" max="15349" width="10.21875" style="11" customWidth="1"/>
+    <col min="15350" max="15350" width="22.21875" style="11" customWidth="1"/>
+    <col min="15351" max="15354" width="10.21875" style="11" customWidth="1"/>
     <col min="15355" max="15355" width="9" style="11" customWidth="1"/>
-    <col min="15356" max="15357" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15356" max="15357" width="10.21875" style="11" customWidth="1"/>
     <col min="15358" max="15358" width="9" style="11" customWidth="1"/>
-    <col min="15359" max="15359" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15360" max="15360" width="16.26953125" style="11" customWidth="1"/>
-    <col min="15361" max="15361" width="20.54296875" style="11" customWidth="1"/>
-    <col min="15362" max="15362" width="14.54296875" style="11" customWidth="1"/>
-    <col min="15363" max="15363" width="9.1796875" style="11"/>
-    <col min="15364" max="15364" width="12.54296875" style="11" customWidth="1"/>
-    <col min="15365" max="15582" width="9.1796875" style="11"/>
-    <col min="15583" max="15583" width="11.453125" style="11" customWidth="1"/>
-    <col min="15584" max="15584" width="10.453125" style="11" customWidth="1"/>
-    <col min="15585" max="15585" width="12.81640625" style="11" customWidth="1"/>
-    <col min="15586" max="15586" width="12.7265625" style="11" customWidth="1"/>
-    <col min="15587" max="15588" width="27.26953125" style="11" customWidth="1"/>
+    <col min="15359" max="15359" width="10.21875" style="11" customWidth="1"/>
+    <col min="15360" max="15360" width="16.21875" style="11" customWidth="1"/>
+    <col min="15361" max="15361" width="20.5546875" style="11" customWidth="1"/>
+    <col min="15362" max="15362" width="14.5546875" style="11" customWidth="1"/>
+    <col min="15363" max="15363" width="9.21875" style="11"/>
+    <col min="15364" max="15364" width="12.5546875" style="11" customWidth="1"/>
+    <col min="15365" max="15582" width="9.21875" style="11"/>
+    <col min="15583" max="15583" width="11.44140625" style="11" customWidth="1"/>
+    <col min="15584" max="15584" width="10.44140625" style="11" customWidth="1"/>
+    <col min="15585" max="15586" width="12.77734375" style="11" customWidth="1"/>
+    <col min="15587" max="15588" width="27.21875" style="11" customWidth="1"/>
     <col min="15589" max="15589" width="25" style="11" customWidth="1"/>
-    <col min="15590" max="15590" width="8.81640625" style="11" customWidth="1"/>
-    <col min="15591" max="15591" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15592" max="15592" width="10.26953125" style="11" customWidth="1"/>
-    <col min="15593" max="15593" width="21.1796875" style="11" customWidth="1"/>
-    <col min="15594" max="15594" width="17.81640625" style="11" customWidth="1"/>
+    <col min="15590" max="15590" width="8.77734375" style="11" customWidth="1"/>
+    <col min="15591" max="15592" width="10.21875" style="11" customWidth="1"/>
+    <col min="15593" max="15593" width="21.21875" style="11" customWidth="1"/>
+    <col min="15594" max="15594" width="17.77734375" style="11" customWidth="1"/>
     <col min="15595" max="15595" width="13" style="11" customWidth="1"/>
-    <col min="15596" max="15596" width="17.7265625" style="11" customWidth="1"/>
-    <col min="15597" max="15597" width="14.54296875" style="11" customWidth="1"/>
+    <col min="15596" max="15596" width="17.77734375" style="11" customWidth="1"/>
+    <col min="15597" max="15597" width="14.5546875" style="11" customWidth="1"/>
     <col min="15598" max="15598" width="16" style="11" customWidth="1"/>
-    <col min="15599" max="15599" width="17.54296875" style="11" customWidth="1"/>
-    <col min="15600" max="15600" width="11.26953125" style="11" customWidth="1"/>
+    <col min="15599" max="15599" width="17.5546875" style="11" customWidth="1"/>
+    <col min="15600" max="15600" width="11.21875" style="11" customWidth="1"/>
     <col min="15601" max="15601" width="25" style="11" customWidth="1"/>
-    <col min="15602" max="15602" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15603" max="15603" width="28.7265625" style="11" customWidth="1"/>
-    <col min="15604" max="15604" width="19.1796875" style="11" customWidth="1"/>
-    <col min="15605" max="15605" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15606" max="15606" width="22.1796875" style="11" customWidth="1"/>
-    <col min="15607" max="15610" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15602" max="15602" width="10.21875" style="11" customWidth="1"/>
+    <col min="15603" max="15603" width="28.77734375" style="11" customWidth="1"/>
+    <col min="15604" max="15604" width="19.21875" style="11" customWidth="1"/>
+    <col min="15605" max="15605" width="10.21875" style="11" customWidth="1"/>
+    <col min="15606" max="15606" width="22.21875" style="11" customWidth="1"/>
+    <col min="15607" max="15610" width="10.21875" style="11" customWidth="1"/>
     <col min="15611" max="15611" width="9" style="11" customWidth="1"/>
-    <col min="15612" max="15613" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15612" max="15613" width="10.21875" style="11" customWidth="1"/>
     <col min="15614" max="15614" width="9" style="11" customWidth="1"/>
-    <col min="15615" max="15615" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15616" max="15616" width="16.26953125" style="11" customWidth="1"/>
-    <col min="15617" max="15617" width="20.54296875" style="11" customWidth="1"/>
-    <col min="15618" max="15618" width="14.54296875" style="11" customWidth="1"/>
-    <col min="15619" max="15619" width="9.1796875" style="11"/>
-    <col min="15620" max="15620" width="12.54296875" style="11" customWidth="1"/>
-    <col min="15621" max="15838" width="9.1796875" style="11"/>
-    <col min="15839" max="15839" width="11.453125" style="11" customWidth="1"/>
-    <col min="15840" max="15840" width="10.453125" style="11" customWidth="1"/>
-    <col min="15841" max="15841" width="12.81640625" style="11" customWidth="1"/>
-    <col min="15842" max="15842" width="12.7265625" style="11" customWidth="1"/>
-    <col min="15843" max="15844" width="27.26953125" style="11" customWidth="1"/>
+    <col min="15615" max="15615" width="10.21875" style="11" customWidth="1"/>
+    <col min="15616" max="15616" width="16.21875" style="11" customWidth="1"/>
+    <col min="15617" max="15617" width="20.5546875" style="11" customWidth="1"/>
+    <col min="15618" max="15618" width="14.5546875" style="11" customWidth="1"/>
+    <col min="15619" max="15619" width="9.21875" style="11"/>
+    <col min="15620" max="15620" width="12.5546875" style="11" customWidth="1"/>
+    <col min="15621" max="15838" width="9.21875" style="11"/>
+    <col min="15839" max="15839" width="11.44140625" style="11" customWidth="1"/>
+    <col min="15840" max="15840" width="10.44140625" style="11" customWidth="1"/>
+    <col min="15841" max="15842" width="12.77734375" style="11" customWidth="1"/>
+    <col min="15843" max="15844" width="27.21875" style="11" customWidth="1"/>
     <col min="15845" max="15845" width="25" style="11" customWidth="1"/>
-    <col min="15846" max="15846" width="8.81640625" style="11" customWidth="1"/>
-    <col min="15847" max="15847" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15848" max="15848" width="10.26953125" style="11" customWidth="1"/>
-    <col min="15849" max="15849" width="21.1796875" style="11" customWidth="1"/>
-    <col min="15850" max="15850" width="17.81640625" style="11" customWidth="1"/>
+    <col min="15846" max="15846" width="8.77734375" style="11" customWidth="1"/>
+    <col min="15847" max="15848" width="10.21875" style="11" customWidth="1"/>
+    <col min="15849" max="15849" width="21.21875" style="11" customWidth="1"/>
+    <col min="15850" max="15850" width="17.77734375" style="11" customWidth="1"/>
     <col min="15851" max="15851" width="13" style="11" customWidth="1"/>
-    <col min="15852" max="15852" width="17.7265625" style="11" customWidth="1"/>
-    <col min="15853" max="15853" width="14.54296875" style="11" customWidth="1"/>
+    <col min="15852" max="15852" width="17.77734375" style="11" customWidth="1"/>
+    <col min="15853" max="15853" width="14.5546875" style="11" customWidth="1"/>
     <col min="15854" max="15854" width="16" style="11" customWidth="1"/>
-    <col min="15855" max="15855" width="17.54296875" style="11" customWidth="1"/>
-    <col min="15856" max="15856" width="11.26953125" style="11" customWidth="1"/>
+    <col min="15855" max="15855" width="17.5546875" style="11" customWidth="1"/>
+    <col min="15856" max="15856" width="11.21875" style="11" customWidth="1"/>
     <col min="15857" max="15857" width="25" style="11" customWidth="1"/>
-    <col min="15858" max="15858" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15859" max="15859" width="28.7265625" style="11" customWidth="1"/>
-    <col min="15860" max="15860" width="19.1796875" style="11" customWidth="1"/>
-    <col min="15861" max="15861" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15862" max="15862" width="22.1796875" style="11" customWidth="1"/>
-    <col min="15863" max="15866" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15858" max="15858" width="10.21875" style="11" customWidth="1"/>
+    <col min="15859" max="15859" width="28.77734375" style="11" customWidth="1"/>
+    <col min="15860" max="15860" width="19.21875" style="11" customWidth="1"/>
+    <col min="15861" max="15861" width="10.21875" style="11" customWidth="1"/>
+    <col min="15862" max="15862" width="22.21875" style="11" customWidth="1"/>
+    <col min="15863" max="15866" width="10.21875" style="11" customWidth="1"/>
     <col min="15867" max="15867" width="9" style="11" customWidth="1"/>
-    <col min="15868" max="15869" width="10.1796875" style="11" customWidth="1"/>
+    <col min="15868" max="15869" width="10.21875" style="11" customWidth="1"/>
     <col min="15870" max="15870" width="9" style="11" customWidth="1"/>
-    <col min="15871" max="15871" width="10.1796875" style="11" customWidth="1"/>
-    <col min="15872" max="15872" width="16.26953125" style="11" customWidth="1"/>
-    <col min="15873" max="15873" width="20.54296875" style="11" customWidth="1"/>
-    <col min="15874" max="15874" width="14.54296875" style="11" customWidth="1"/>
-    <col min="15875" max="15875" width="9.1796875" style="11"/>
-    <col min="15876" max="15876" width="12.54296875" style="11" customWidth="1"/>
-    <col min="15877" max="16094" width="9.1796875" style="11"/>
-    <col min="16095" max="16095" width="11.453125" style="11" customWidth="1"/>
-    <col min="16096" max="16096" width="10.453125" style="11" customWidth="1"/>
-    <col min="16097" max="16097" width="12.81640625" style="11" customWidth="1"/>
-    <col min="16098" max="16098" width="12.7265625" style="11" customWidth="1"/>
-    <col min="16099" max="16100" width="27.26953125" style="11" customWidth="1"/>
+    <col min="15871" max="15871" width="10.21875" style="11" customWidth="1"/>
+    <col min="15872" max="15872" width="16.21875" style="11" customWidth="1"/>
+    <col min="15873" max="15873" width="20.5546875" style="11" customWidth="1"/>
+    <col min="15874" max="15874" width="14.5546875" style="11" customWidth="1"/>
+    <col min="15875" max="15875" width="9.21875" style="11"/>
+    <col min="15876" max="15876" width="12.5546875" style="11" customWidth="1"/>
+    <col min="15877" max="16094" width="9.21875" style="11"/>
+    <col min="16095" max="16095" width="11.44140625" style="11" customWidth="1"/>
+    <col min="16096" max="16096" width="10.44140625" style="11" customWidth="1"/>
+    <col min="16097" max="16098" width="12.77734375" style="11" customWidth="1"/>
+    <col min="16099" max="16100" width="27.21875" style="11" customWidth="1"/>
     <col min="16101" max="16101" width="25" style="11" customWidth="1"/>
-    <col min="16102" max="16102" width="8.81640625" style="11" customWidth="1"/>
-    <col min="16103" max="16103" width="10.1796875" style="11" customWidth="1"/>
-    <col min="16104" max="16104" width="10.26953125" style="11" customWidth="1"/>
-    <col min="16105" max="16105" width="21.1796875" style="11" customWidth="1"/>
-    <col min="16106" max="16106" width="17.81640625" style="11" customWidth="1"/>
+    <col min="16102" max="16102" width="8.77734375" style="11" customWidth="1"/>
+    <col min="16103" max="16104" width="10.21875" style="11" customWidth="1"/>
+    <col min="16105" max="16105" width="21.21875" style="11" customWidth="1"/>
+    <col min="16106" max="16106" width="17.77734375" style="11" customWidth="1"/>
     <col min="16107" max="16107" width="13" style="11" customWidth="1"/>
-    <col min="16108" max="16108" width="17.7265625" style="11" customWidth="1"/>
-    <col min="16109" max="16109" width="14.54296875" style="11" customWidth="1"/>
+    <col min="16108" max="16108" width="17.77734375" style="11" customWidth="1"/>
+    <col min="16109" max="16109" width="14.5546875" style="11" customWidth="1"/>
     <col min="16110" max="16110" width="16" style="11" customWidth="1"/>
-    <col min="16111" max="16111" width="17.54296875" style="11" customWidth="1"/>
-    <col min="16112" max="16112" width="11.26953125" style="11" customWidth="1"/>
+    <col min="16111" max="16111" width="17.5546875" style="11" customWidth="1"/>
+    <col min="16112" max="16112" width="11.21875" style="11" customWidth="1"/>
     <col min="16113" max="16113" width="25" style="11" customWidth="1"/>
-    <col min="16114" max="16114" width="10.1796875" style="11" customWidth="1"/>
-    <col min="16115" max="16115" width="28.7265625" style="11" customWidth="1"/>
-    <col min="16116" max="16116" width="19.1796875" style="11" customWidth="1"/>
-    <col min="16117" max="16117" width="10.1796875" style="11" customWidth="1"/>
-    <col min="16118" max="16118" width="22.1796875" style="11" customWidth="1"/>
-    <col min="16119" max="16122" width="10.1796875" style="11" customWidth="1"/>
+    <col min="16114" max="16114" width="10.21875" style="11" customWidth="1"/>
+    <col min="16115" max="16115" width="28.77734375" style="11" customWidth="1"/>
+    <col min="16116" max="16116" width="19.21875" style="11" customWidth="1"/>
+    <col min="16117" max="16117" width="10.21875" style="11" customWidth="1"/>
+    <col min="16118" max="16118" width="22.21875" style="11" customWidth="1"/>
+    <col min="16119" max="16122" width="10.21875" style="11" customWidth="1"/>
     <col min="16123" max="16123" width="9" style="11" customWidth="1"/>
-    <col min="16124" max="16125" width="10.1796875" style="11" customWidth="1"/>
+    <col min="16124" max="16125" width="10.21875" style="11" customWidth="1"/>
     <col min="16126" max="16126" width="9" style="11" customWidth="1"/>
-    <col min="16127" max="16127" width="10.1796875" style="11" customWidth="1"/>
-    <col min="16128" max="16128" width="16.26953125" style="11" customWidth="1"/>
-    <col min="16129" max="16129" width="20.54296875" style="11" customWidth="1"/>
-    <col min="16130" max="16130" width="14.54296875" style="11" customWidth="1"/>
-    <col min="16131" max="16131" width="9.1796875" style="11"/>
-    <col min="16132" max="16132" width="12.54296875" style="11" customWidth="1"/>
-    <col min="16133" max="16384" width="9.1796875" style="11"/>
+    <col min="16127" max="16127" width="10.21875" style="11" customWidth="1"/>
+    <col min="16128" max="16128" width="16.21875" style="11" customWidth="1"/>
+    <col min="16129" max="16129" width="20.5546875" style="11" customWidth="1"/>
+    <col min="16130" max="16130" width="14.5546875" style="11" customWidth="1"/>
+    <col min="16131" max="16131" width="9.21875" style="11"/>
+    <col min="16132" max="16132" width="12.5546875" style="11" customWidth="1"/>
+    <col min="16133" max="16384" width="9.21875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -6901,7 +6781,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -6918,7 +6798,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -6935,7 +6815,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -6952,7 +6832,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -6969,7 +6849,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -6986,7 +6866,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -7003,7 +6883,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -7020,7 +6900,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -7037,7 +6917,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -7054,7 +6934,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -7071,7 +6951,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -7088,7 +6968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -7105,7 +6985,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -7122,7 +7002,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -7139,7 +7019,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -7156,7 +7036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -7173,7 +7053,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -7190,7 +7070,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -7207,7 +7087,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -7224,7 +7104,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -7241,7 +7121,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>22</v>
       </c>
@@ -7258,7 +7138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -7275,7 +7155,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>24</v>
       </c>
@@ -7292,7 +7172,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>25</v>
       </c>
@@ -7309,7 +7189,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>26</v>
       </c>
@@ -7326,7 +7206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>27</v>
       </c>
@@ -7343,7 +7223,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>28</v>
       </c>
@@ -7360,7 +7240,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>29</v>
       </c>
@@ -7377,7 +7257,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>30</v>
       </c>
@@ -7394,7 +7274,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>31</v>
       </c>
@@ -7411,7 +7291,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -7428,7 +7308,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>33</v>
       </c>
@@ -7445,7 +7325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>34</v>
       </c>
@@ -7462,7 +7342,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>35</v>
       </c>
@@ -7479,7 +7359,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>36</v>
       </c>
@@ -7496,7 +7376,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>37</v>
       </c>
@@ -7513,7 +7393,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>38</v>
       </c>
@@ -7530,7 +7410,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -7547,7 +7427,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>40</v>
       </c>
@@ -7564,7 +7444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>41</v>
       </c>
@@ -7581,7 +7461,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -7598,7 +7478,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -7615,7 +7495,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -7632,7 +7512,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>45</v>
       </c>
@@ -7649,7 +7529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>46</v>
       </c>
@@ -7666,7 +7546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>48</v>
       </c>
@@ -7683,7 +7563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>49</v>
       </c>
@@ -7700,7 +7580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>50</v>
       </c>
@@ -7717,7 +7597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>51</v>
       </c>
@@ -7734,7 +7614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>52</v>
       </c>
@@ -7751,7 +7631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>53</v>
       </c>
@@ -7768,7 +7648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>54</v>
       </c>
@@ -7785,7 +7665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>55</v>
       </c>
@@ -7802,7 +7682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>56</v>
       </c>
@@ -7819,7 +7699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>57</v>
       </c>
@@ -7836,7 +7716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>58</v>
       </c>
@@ -7853,7 +7733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>59</v>
       </c>
@@ -7870,7 +7750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>60</v>
       </c>
@@ -7887,7 +7767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>61</v>
       </c>
@@ -7904,7 +7784,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>62</v>
       </c>
@@ -7921,7 +7801,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>63</v>
       </c>
@@ -7938,7 +7818,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>64</v>
       </c>
@@ -7955,7 +7835,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>65</v>
       </c>
@@ -7972,7 +7852,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>66</v>
       </c>
@@ -7989,7 +7869,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>67</v>
       </c>
@@ -8006,7 +7886,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>68</v>
       </c>
@@ -8023,7 +7903,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>69</v>
       </c>
@@ -8040,7 +7920,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>70</v>
       </c>
@@ -8057,7 +7937,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>71</v>
       </c>
@@ -8074,7 +7954,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>72</v>
       </c>
@@ -8091,7 +7971,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>73</v>
       </c>
@@ -8108,7 +7988,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>74</v>
       </c>
@@ -8125,7 +8005,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>75</v>
       </c>
@@ -8142,7 +8022,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>76</v>
       </c>
@@ -8159,7 +8039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>77</v>
       </c>
@@ -8176,7 +8056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>78</v>
       </c>
@@ -8193,7 +8073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>79</v>
       </c>
@@ -8210,7 +8090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>80</v>
       </c>
@@ -8227,7 +8107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>81</v>
       </c>
@@ -8244,7 +8124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>82</v>
       </c>
@@ -8261,7 +8141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>83</v>
       </c>
@@ -8278,7 +8158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>84</v>
       </c>
@@ -8295,7 +8175,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>85</v>
       </c>
@@ -8312,7 +8192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>86</v>
       </c>
@@ -8329,7 +8209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>87</v>
       </c>
@@ -8346,7 +8226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>88</v>
       </c>
@@ -8363,7 +8243,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>90</v>
       </c>
@@ -8380,7 +8260,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>91</v>
       </c>
@@ -8397,7 +8277,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>92</v>
       </c>
@@ -8414,7 +8294,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>93</v>
       </c>
@@ -8431,7 +8311,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>94</v>
       </c>
@@ -8448,7 +8328,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>95</v>
       </c>
@@ -8465,7 +8345,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>96</v>
       </c>
@@ -8482,7 +8362,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>97</v>
       </c>
@@ -8499,7 +8379,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>98</v>
       </c>
@@ -8516,7 +8396,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>99</v>
       </c>
@@ -8533,7 +8413,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>100</v>
       </c>
@@ -8550,7 +8430,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>102</v>
       </c>
@@ -8567,7 +8447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>103</v>
       </c>
@@ -8584,7 +8464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>104</v>
       </c>
@@ -8601,7 +8481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>105</v>
       </c>
@@ -8618,7 +8498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>106</v>
       </c>
@@ -8635,7 +8515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>107</v>
       </c>
@@ -8652,7 +8532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>108</v>
       </c>
@@ -8669,7 +8549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>109</v>
       </c>
@@ -8686,7 +8566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>110</v>
       </c>
@@ -8703,7 +8583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>112</v>
       </c>
@@ -8720,7 +8600,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>113</v>
       </c>
@@ -8737,7 +8617,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>114</v>
       </c>
@@ -8754,7 +8634,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>115</v>
       </c>
@@ -8771,7 +8651,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>116</v>
       </c>
@@ -8788,7 +8668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>117</v>
       </c>
@@ -8805,7 +8685,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>118</v>
       </c>
@@ -8822,7 +8702,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>119</v>
       </c>
@@ -8839,7 +8719,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>120</v>
       </c>
@@ -8856,7 +8736,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>121</v>
       </c>
@@ -8873,7 +8753,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>122</v>
       </c>
@@ -8890,7 +8770,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>123</v>
       </c>
@@ -8907,7 +8787,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>124</v>
       </c>
@@ -8924,7 +8804,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>125</v>
       </c>
@@ -8941,7 +8821,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>126</v>
       </c>
@@ -8958,7 +8838,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>127</v>
       </c>
@@ -8975,7 +8855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>128</v>
       </c>
@@ -8992,7 +8872,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>130</v>
       </c>
@@ -9009,7 +8889,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>131</v>
       </c>
@@ -9026,7 +8906,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>132</v>
       </c>
@@ -9043,7 +8923,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>133</v>
       </c>
@@ -9060,7 +8940,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>134</v>
       </c>
@@ -9077,7 +8957,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>135</v>
       </c>
@@ -9094,7 +8974,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>136</v>
       </c>
@@ -9111,7 +8991,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>137</v>
       </c>
@@ -9128,7 +9008,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>138</v>
       </c>
@@ -9145,7 +9025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>139</v>
       </c>
@@ -9162,7 +9042,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>140</v>
       </c>
@@ -9179,7 +9059,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>141</v>
       </c>
@@ -9196,7 +9076,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>142</v>
       </c>
@@ -9213,7 +9093,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>143</v>
       </c>
@@ -9230,7 +9110,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>144</v>
       </c>
@@ -9247,7 +9127,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>145</v>
       </c>
@@ -9264,7 +9144,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>146</v>
       </c>
@@ -9281,7 +9161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>147</v>
       </c>
@@ -9298,7 +9178,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>148</v>
       </c>
@@ -9315,7 +9195,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>149</v>
       </c>
@@ -9332,7 +9212,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>150</v>
       </c>
@@ -9349,7 +9229,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>151</v>
       </c>
@@ -9366,7 +9246,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>152</v>
       </c>
@@ -9383,7 +9263,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>153</v>
       </c>
@@ -9400,7 +9280,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>154</v>
       </c>
@@ -9417,7 +9297,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>155</v>
       </c>
@@ -9434,7 +9314,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>156</v>
       </c>
@@ -9451,7 +9331,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>157</v>
       </c>
@@ -9468,7 +9348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>158</v>
       </c>
@@ -9485,7 +9365,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>159</v>
       </c>
@@ -9502,7 +9382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>160</v>
       </c>
@@ -9519,7 +9399,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>161</v>
       </c>
@@ -9536,7 +9416,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>162</v>
       </c>
@@ -9553,7 +9433,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>163</v>
       </c>
@@ -9570,7 +9450,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>164</v>
       </c>
@@ -9587,7 +9467,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>165</v>
       </c>
@@ -9604,7 +9484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>166</v>
       </c>
@@ -9621,7 +9501,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>167</v>
       </c>
@@ -9638,7 +9518,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>168</v>
       </c>
@@ -9655,7 +9535,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>169</v>
       </c>
@@ -9672,7 +9552,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>170</v>
       </c>
@@ -9689,7 +9569,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>171</v>
       </c>
@@ -9706,7 +9586,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>172</v>
       </c>
@@ -9723,7 +9603,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>173</v>
       </c>
@@ -9740,7 +9620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>174</v>
       </c>
@@ -9757,7 +9637,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>175</v>
       </c>
@@ -9774,7 +9654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>176</v>
       </c>
@@ -9791,7 +9671,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>177</v>
       </c>
@@ -9808,7 +9688,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>178</v>
       </c>
@@ -9825,7 +9705,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>179</v>
       </c>
@@ -9842,7 +9722,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>180</v>
       </c>
@@ -9859,7 +9739,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>181</v>
       </c>
@@ -9876,7 +9756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>182</v>
       </c>
@@ -9893,7 +9773,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>183</v>
       </c>
@@ -9910,7 +9790,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>184</v>
       </c>
@@ -9927,7 +9807,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>185</v>
       </c>
@@ -9944,7 +9824,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>186</v>
       </c>
@@ -9961,7 +9841,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>187</v>
       </c>
@@ -9978,7 +9858,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>188</v>
       </c>
@@ -9995,7 +9875,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>189</v>
       </c>
@@ -10012,7 +9892,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>190</v>
       </c>
@@ -10029,7 +9909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>191</v>
       </c>
@@ -10046,7 +9926,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>192</v>
       </c>
@@ -10063,7 +9943,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>193</v>
       </c>
@@ -10080,7 +9960,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>194</v>
       </c>
@@ -10097,7 +9977,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>195</v>
       </c>
@@ -10114,7 +9994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>196</v>
       </c>
@@ -10131,7 +10011,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>197</v>
       </c>
@@ -10148,7 +10028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>198</v>
       </c>
@@ -10165,7 +10045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>199</v>
       </c>
@@ -10182,7 +10062,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>200</v>
       </c>
@@ -10199,7 +10079,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>201</v>
       </c>
@@ -10216,7 +10096,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>202</v>
       </c>
@@ -10233,7 +10113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>203</v>
       </c>
@@ -10250,7 +10130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>204</v>
       </c>
@@ -10267,7 +10147,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>205</v>
       </c>
@@ -10284,7 +10164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>206</v>
       </c>
@@ -10301,7 +10181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>207</v>
       </c>
@@ -10318,7 +10198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>208</v>
       </c>
@@ -10335,7 +10215,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>209</v>
       </c>
@@ -10352,7 +10232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>210</v>
       </c>
@@ -10369,7 +10249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>211</v>
       </c>
@@ -10386,7 +10266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>212</v>
       </c>
@@ -10403,7 +10283,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>213</v>
       </c>
@@ -10420,7 +10300,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>214</v>
       </c>
@@ -10437,7 +10317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>215</v>
       </c>
@@ -10454,7 +10334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>216</v>
       </c>
@@ -10471,7 +10351,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>217</v>
       </c>
@@ -10488,7 +10368,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>218</v>
       </c>
@@ -10505,7 +10385,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>219</v>
       </c>
@@ -10522,7 +10402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>220</v>
       </c>
@@ -10539,7 +10419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>221</v>
       </c>
@@ -10556,7 +10436,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>222</v>
       </c>
@@ -10573,7 +10453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>223</v>
       </c>
@@ -10590,7 +10470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>224</v>
       </c>
@@ -10607,7 +10487,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>225</v>
       </c>
@@ -10624,7 +10504,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>226</v>
       </c>
@@ -10641,7 +10521,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>227</v>
       </c>
@@ -10658,7 +10538,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>228</v>
       </c>
@@ -10675,7 +10555,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>229</v>
       </c>
@@ -10692,7 +10572,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>230</v>
       </c>
@@ -10709,7 +10589,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="11">
         <v>231</v>
       </c>
@@ -10726,7 +10606,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>232</v>
       </c>
@@ -10743,7 +10623,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>233</v>
       </c>
